--- a/BackTest/2020-01-24 BackTest GNT.xlsx
+++ b/BackTest/2020-01-24 BackTest GNT.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N373"/>
+  <dimension ref="A1:M373"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>high_check</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -458,16 +453,13 @@
       <c r="H2" t="n">
         <v>0</v>
       </c>
-      <c r="I2" t="n">
-        <v>1</v>
-      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -494,16 +486,13 @@
       <c r="H3" t="n">
         <v>0</v>
       </c>
-      <c r="I3" t="n">
-        <v>1</v>
-      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -528,18 +517,15 @@
         <v>150811.2411723638</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -564,18 +550,15 @@
         <v>150811.2411723638</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -600,18 +583,15 @@
         <v>150811.2411723638</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -636,18 +616,15 @@
         <v>154591.5041723638</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -672,18 +649,15 @@
         <v>156270.5859723638</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -708,18 +682,15 @@
         <v>168293.3259723638</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -744,18 +715,15 @@
         <v>153176.7916723638</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -782,16 +750,13 @@
       <c r="H11" t="n">
         <v>0</v>
       </c>
-      <c r="I11" t="n">
-        <v>1</v>
-      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -816,18 +781,15 @@
         <v>169207.9787723638</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -854,16 +816,13 @@
       <c r="H13" t="n">
         <v>0</v>
       </c>
-      <c r="I13" t="n">
-        <v>1</v>
-      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -890,16 +849,13 @@
       <c r="H14" t="n">
         <v>0</v>
       </c>
-      <c r="I14" t="n">
-        <v>1</v>
-      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -926,16 +882,13 @@
       <c r="H15" t="n">
         <v>0</v>
       </c>
-      <c r="I15" t="n">
-        <v>1</v>
-      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -962,16 +915,13 @@
       <c r="H16" t="n">
         <v>0</v>
       </c>
-      <c r="I16" t="n">
-        <v>1</v>
-      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -998,16 +948,13 @@
       <c r="H17" t="n">
         <v>0</v>
       </c>
-      <c r="I17" t="n">
-        <v>1</v>
-      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1034,16 +981,13 @@
       <c r="H18" t="n">
         <v>0</v>
       </c>
-      <c r="I18" t="n">
-        <v>1</v>
-      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1070,16 +1014,13 @@
       <c r="H19" t="n">
         <v>0</v>
       </c>
-      <c r="I19" t="n">
-        <v>1</v>
-      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1104,18 +1045,15 @@
         <v>129563.7846723638</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1140,18 +1078,15 @@
         <v>119792.1336723638</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1178,16 +1113,13 @@
       <c r="H22" t="n">
         <v>0</v>
       </c>
-      <c r="I22" t="n">
-        <v>1</v>
-      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1214,16 +1146,13 @@
       <c r="H23" t="n">
         <v>0</v>
       </c>
-      <c r="I23" t="n">
-        <v>1</v>
-      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1248,18 +1177,15 @@
         <v>92979.98677236383</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1284,18 +1210,15 @@
         <v>91430.98677236383</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1320,18 +1243,15 @@
         <v>82707.62027236383</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1358,16 +1278,13 @@
       <c r="H27" t="n">
         <v>0</v>
       </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1392,18 +1309,15 @@
         <v>100691.6202723638</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1428,18 +1342,15 @@
         <v>100630.7493723638</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1464,18 +1375,15 @@
         <v>103553.8234723638</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1500,18 +1408,15 @@
         <v>103553.8234723638</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1536,18 +1441,15 @@
         <v>55885.80347236383</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1572,18 +1474,15 @@
         <v>84454.95917236383</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1608,18 +1507,15 @@
         <v>82905.95917236383</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1646,16 +1542,13 @@
       <c r="H35" t="n">
         <v>0</v>
       </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1682,16 +1575,13 @@
       <c r="H36" t="n">
         <v>0</v>
       </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1716,18 +1606,15 @@
         <v>96612.69537236383</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1752,18 +1639,15 @@
         <v>97119.91387236383</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1790,16 +1674,13 @@
       <c r="H39" t="n">
         <v>0</v>
       </c>
-      <c r="I39" t="n">
-        <v>1</v>
-      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1824,18 +1705,15 @@
         <v>78596.91387236383</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1860,18 +1738,15 @@
         <v>85596.91387236383</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1898,16 +1773,13 @@
       <c r="H42" t="n">
         <v>0</v>
       </c>
-      <c r="I42" t="n">
-        <v>1</v>
-      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1934,16 +1806,13 @@
       <c r="H43" t="n">
         <v>0</v>
       </c>
-      <c r="I43" t="n">
-        <v>1</v>
-      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1970,16 +1839,13 @@
       <c r="H44" t="n">
         <v>0</v>
       </c>
-      <c r="I44" t="n">
-        <v>1</v>
-      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2006,16 +1872,13 @@
       <c r="H45" t="n">
         <v>0</v>
       </c>
-      <c r="I45" t="n">
-        <v>1</v>
-      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2042,16 +1905,13 @@
       <c r="H46" t="n">
         <v>0</v>
       </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2078,16 +1938,13 @@
       <c r="H47" t="n">
         <v>0</v>
       </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2114,16 +1971,13 @@
       <c r="H48" t="n">
         <v>0</v>
       </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2150,16 +2004,13 @@
       <c r="H49" t="n">
         <v>0</v>
       </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2184,18 +2035,15 @@
         <v>59496.16307236382</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2222,16 +2070,13 @@
       <c r="H51" t="n">
         <v>0</v>
       </c>
-      <c r="I51" t="n">
-        <v>1</v>
-      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2258,16 +2103,13 @@
       <c r="H52" t="n">
         <v>0</v>
       </c>
-      <c r="I52" t="n">
-        <v>1</v>
-      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2292,18 +2134,15 @@
         <v>70590.75697236383</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2328,18 +2167,15 @@
         <v>69780.75697236383</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2366,16 +2202,13 @@
       <c r="H55" t="n">
         <v>0</v>
       </c>
-      <c r="I55" t="n">
-        <v>1</v>
-      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2402,16 +2235,13 @@
       <c r="H56" t="n">
         <v>0</v>
       </c>
-      <c r="I56" t="n">
-        <v>1</v>
-      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2438,16 +2268,13 @@
       <c r="H57" t="n">
         <v>0</v>
       </c>
-      <c r="I57" t="n">
-        <v>1</v>
-      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2474,16 +2301,13 @@
       <c r="H58" t="n">
         <v>0</v>
       </c>
-      <c r="I58" t="n">
-        <v>1</v>
-      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2510,16 +2334,13 @@
       <c r="H59" t="n">
         <v>0</v>
       </c>
-      <c r="I59" t="n">
-        <v>1</v>
-      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2546,16 +2367,13 @@
       <c r="H60" t="n">
         <v>0</v>
       </c>
-      <c r="I60" t="n">
-        <v>1</v>
-      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2582,16 +2400,13 @@
       <c r="H61" t="n">
         <v>0</v>
       </c>
-      <c r="I61" t="n">
-        <v>1</v>
-      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2618,16 +2433,13 @@
       <c r="H62" t="n">
         <v>0</v>
       </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2654,16 +2466,13 @@
       <c r="H63" t="n">
         <v>0</v>
       </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2690,16 +2499,13 @@
       <c r="H64" t="n">
         <v>0</v>
       </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2726,16 +2532,13 @@
       <c r="H65" t="n">
         <v>0</v>
       </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2760,18 +2563,15 @@
         <v>32251.62267236382</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2798,16 +2598,13 @@
       <c r="H67" t="n">
         <v>0</v>
       </c>
-      <c r="I67" t="n">
-        <v>1</v>
-      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2834,16 +2631,13 @@
       <c r="H68" t="n">
         <v>0</v>
       </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2870,16 +2664,13 @@
       <c r="H69" t="n">
         <v>0</v>
       </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2906,16 +2697,13 @@
       <c r="H70" t="n">
         <v>0</v>
       </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2942,16 +2730,13 @@
       <c r="H71" t="n">
         <v>0</v>
       </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2978,16 +2763,13 @@
       <c r="H72" t="n">
         <v>0</v>
       </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3014,16 +2796,13 @@
       <c r="H73" t="n">
         <v>0</v>
       </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3050,16 +2829,13 @@
       <c r="H74" t="n">
         <v>0</v>
       </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3086,16 +2862,13 @@
       <c r="H75" t="n">
         <v>0</v>
       </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3122,16 +2895,13 @@
       <c r="H76" t="n">
         <v>0</v>
       </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3158,16 +2928,13 @@
       <c r="H77" t="n">
         <v>0</v>
       </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3194,16 +2961,13 @@
       <c r="H78" t="n">
         <v>0</v>
       </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3230,16 +2994,13 @@
       <c r="H79" t="n">
         <v>0</v>
       </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3266,16 +3027,13 @@
       <c r="H80" t="n">
         <v>0</v>
       </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3302,16 +3060,13 @@
       <c r="H81" t="n">
         <v>0</v>
       </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3336,18 +3091,15 @@
         <v>-12279.86372763618</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
-      </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3374,16 +3126,13 @@
       <c r="H83" t="n">
         <v>0</v>
       </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3408,18 +3157,15 @@
         <v>-134458.7695276362</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3446,16 +3192,13 @@
       <c r="H85" t="n">
         <v>0</v>
       </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3480,18 +3223,15 @@
         <v>46561.49537236383</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3516,18 +3256,15 @@
         <v>70361.49537236383</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3552,18 +3289,15 @@
         <v>68701.49537236383</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
-      </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3590,16 +3324,13 @@
       <c r="H89" t="n">
         <v>0</v>
       </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3626,16 +3357,13 @@
       <c r="H90" t="n">
         <v>0</v>
       </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3662,16 +3390,13 @@
       <c r="H91" t="n">
         <v>0</v>
       </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3698,16 +3423,13 @@
       <c r="H92" t="n">
         <v>0</v>
       </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3734,16 +3456,13 @@
       <c r="H93" t="n">
         <v>0</v>
       </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3770,16 +3489,13 @@
       <c r="H94" t="n">
         <v>0</v>
       </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3806,16 +3522,13 @@
       <c r="H95" t="n">
         <v>0</v>
       </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3840,18 +3553,15 @@
         <v>72249.98317236382</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3878,16 +3588,13 @@
       <c r="H97" t="n">
         <v>0</v>
       </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3914,16 +3621,13 @@
       <c r="H98" t="n">
         <v>0</v>
       </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3950,16 +3654,13 @@
       <c r="H99" t="n">
         <v>0</v>
       </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3986,16 +3687,13 @@
       <c r="H100" t="n">
         <v>0</v>
       </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4022,16 +3720,13 @@
       <c r="H101" t="n">
         <v>0</v>
       </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4058,16 +3753,13 @@
       <c r="H102" t="n">
         <v>0</v>
       </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4094,16 +3786,13 @@
       <c r="H103" t="n">
         <v>0</v>
       </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4130,16 +3819,13 @@
       <c r="H104" t="n">
         <v>0</v>
       </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4166,16 +3852,13 @@
       <c r="H105" t="n">
         <v>0</v>
       </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4202,16 +3885,13 @@
       <c r="H106" t="n">
         <v>0</v>
       </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4238,16 +3918,13 @@
       <c r="H107" t="n">
         <v>0</v>
       </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4274,16 +3951,13 @@
       <c r="H108" t="n">
         <v>0</v>
       </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4310,16 +3984,13 @@
       <c r="H109" t="n">
         <v>0</v>
       </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4346,16 +4017,13 @@
       <c r="H110" t="n">
         <v>0</v>
       </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4382,16 +4050,13 @@
       <c r="H111" t="n">
         <v>0</v>
       </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
+      <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4418,16 +4083,13 @@
       <c r="H112" t="n">
         <v>0</v>
       </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
+      <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4454,16 +4116,13 @@
       <c r="H113" t="n">
         <v>0</v>
       </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
+      <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4490,16 +4149,13 @@
       <c r="H114" t="n">
         <v>0</v>
       </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
+      <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4526,16 +4182,13 @@
       <c r="H115" t="n">
         <v>0</v>
       </c>
-      <c r="I115" t="n">
-        <v>1</v>
-      </c>
+      <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4562,16 +4215,13 @@
       <c r="H116" t="n">
         <v>0</v>
       </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
+      <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4598,16 +4248,13 @@
       <c r="H117" t="n">
         <v>0</v>
       </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
+      <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4634,16 +4281,13 @@
       <c r="H118" t="n">
         <v>0</v>
       </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
+      <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4670,16 +4314,13 @@
       <c r="H119" t="n">
         <v>0</v>
       </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
+      <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4706,16 +4347,13 @@
       <c r="H120" t="n">
         <v>0</v>
       </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
+      <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4742,16 +4380,13 @@
       <c r="H121" t="n">
         <v>0</v>
       </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
+      <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4778,16 +4413,13 @@
       <c r="H122" t="n">
         <v>0</v>
       </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
+      <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4814,16 +4446,13 @@
       <c r="H123" t="n">
         <v>0</v>
       </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
+      <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4850,16 +4479,13 @@
       <c r="H124" t="n">
         <v>0</v>
       </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
+      <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4886,16 +4512,13 @@
       <c r="H125" t="n">
         <v>0</v>
       </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
+      <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4922,16 +4545,13 @@
       <c r="H126" t="n">
         <v>0</v>
       </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
+      <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4958,16 +4578,13 @@
       <c r="H127" t="n">
         <v>0</v>
       </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
+      <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4994,16 +4611,13 @@
       <c r="H128" t="n">
         <v>0</v>
       </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
+      <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5030,16 +4644,13 @@
       <c r="H129" t="n">
         <v>0</v>
       </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
+      <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5066,16 +4677,13 @@
       <c r="H130" t="n">
         <v>0</v>
       </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
+      <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5102,16 +4710,13 @@
       <c r="H131" t="n">
         <v>0</v>
       </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
+      <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5138,16 +4743,13 @@
       <c r="H132" t="n">
         <v>0</v>
       </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
+      <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5174,16 +4776,13 @@
       <c r="H133" t="n">
         <v>0</v>
       </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
+      <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5210,16 +4809,13 @@
       <c r="H134" t="n">
         <v>0</v>
       </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
+      <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5246,16 +4842,13 @@
       <c r="H135" t="n">
         <v>0</v>
       </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
+      <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5282,16 +4875,13 @@
       <c r="H136" t="n">
         <v>0</v>
       </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
+      <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-      <c r="N136" t="inlineStr"/>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5318,16 +4908,13 @@
       <c r="H137" t="n">
         <v>0</v>
       </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
+      <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-      <c r="N137" t="inlineStr"/>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5354,16 +4941,13 @@
       <c r="H138" t="n">
         <v>0</v>
       </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
+      <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-      <c r="N138" t="inlineStr"/>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5390,16 +4974,13 @@
       <c r="H139" t="n">
         <v>0</v>
       </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
+      <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-      <c r="N139" t="inlineStr"/>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5426,16 +5007,13 @@
       <c r="H140" t="n">
         <v>0</v>
       </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
+      <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-      <c r="N140" t="inlineStr"/>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5462,16 +5040,13 @@
       <c r="H141" t="n">
         <v>0</v>
       </c>
-      <c r="I141" t="n">
-        <v>1</v>
-      </c>
+      <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-      <c r="N141" t="inlineStr"/>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5498,16 +5073,13 @@
       <c r="H142" t="n">
         <v>0</v>
       </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
+      <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-      <c r="N142" t="inlineStr"/>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5534,16 +5106,13 @@
       <c r="H143" t="n">
         <v>0</v>
       </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
+      <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-      <c r="N143" t="inlineStr"/>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5570,16 +5139,13 @@
       <c r="H144" t="n">
         <v>0</v>
       </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
+      <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-      <c r="N144" t="inlineStr"/>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5606,16 +5172,13 @@
       <c r="H145" t="n">
         <v>0</v>
       </c>
-      <c r="I145" t="n">
-        <v>1</v>
-      </c>
+      <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-      <c r="N145" t="inlineStr"/>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5642,16 +5205,13 @@
       <c r="H146" t="n">
         <v>0</v>
       </c>
-      <c r="I146" t="n">
-        <v>1</v>
-      </c>
+      <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-      <c r="N146" t="inlineStr"/>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5678,16 +5238,13 @@
       <c r="H147" t="n">
         <v>0</v>
       </c>
-      <c r="I147" t="n">
-        <v>1</v>
-      </c>
+      <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-      <c r="N147" t="inlineStr"/>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5714,16 +5271,13 @@
       <c r="H148" t="n">
         <v>0</v>
       </c>
-      <c r="I148" t="n">
-        <v>1</v>
-      </c>
+      <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-      <c r="N148" t="inlineStr"/>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5750,16 +5304,13 @@
       <c r="H149" t="n">
         <v>0</v>
       </c>
-      <c r="I149" t="n">
-        <v>1</v>
-      </c>
+      <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-      <c r="N149" t="inlineStr"/>
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5786,16 +5337,13 @@
       <c r="H150" t="n">
         <v>0</v>
       </c>
-      <c r="I150" t="n">
-        <v>1</v>
-      </c>
+      <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-      <c r="N150" t="inlineStr"/>
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5822,16 +5370,13 @@
       <c r="H151" t="n">
         <v>0</v>
       </c>
-      <c r="I151" t="n">
-        <v>1</v>
-      </c>
+      <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-      <c r="N151" t="inlineStr"/>
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5858,16 +5403,13 @@
       <c r="H152" t="n">
         <v>0</v>
       </c>
-      <c r="I152" t="n">
-        <v>1</v>
-      </c>
+      <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-      <c r="N152" t="inlineStr"/>
+      <c r="L152" t="n">
+        <v>1</v>
+      </c>
+      <c r="M152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -5894,16 +5436,13 @@
       <c r="H153" t="n">
         <v>0</v>
       </c>
-      <c r="I153" t="n">
-        <v>1</v>
-      </c>
+      <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-      <c r="N153" t="inlineStr"/>
+      <c r="L153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -5930,16 +5469,13 @@
       <c r="H154" t="n">
         <v>0</v>
       </c>
-      <c r="I154" t="n">
-        <v>1</v>
-      </c>
+      <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-      <c r="N154" t="inlineStr"/>
+      <c r="L154" t="n">
+        <v>1</v>
+      </c>
+      <c r="M154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -5966,16 +5502,13 @@
       <c r="H155" t="n">
         <v>0</v>
       </c>
-      <c r="I155" t="n">
-        <v>1</v>
-      </c>
+      <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-      <c r="N155" t="inlineStr"/>
+      <c r="L155" t="n">
+        <v>1</v>
+      </c>
+      <c r="M155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6002,16 +5535,13 @@
       <c r="H156" t="n">
         <v>0</v>
       </c>
-      <c r="I156" t="n">
-        <v>1</v>
-      </c>
+      <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-      <c r="N156" t="inlineStr"/>
+      <c r="L156" t="n">
+        <v>1</v>
+      </c>
+      <c r="M156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6038,16 +5568,13 @@
       <c r="H157" t="n">
         <v>0</v>
       </c>
-      <c r="I157" t="n">
-        <v>1</v>
-      </c>
+      <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-      <c r="N157" t="inlineStr"/>
+      <c r="L157" t="n">
+        <v>1</v>
+      </c>
+      <c r="M157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6074,16 +5601,13 @@
       <c r="H158" t="n">
         <v>0</v>
       </c>
-      <c r="I158" t="n">
-        <v>1</v>
-      </c>
+      <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr"/>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-      <c r="N158" t="inlineStr"/>
+      <c r="L158" t="n">
+        <v>1</v>
+      </c>
+      <c r="M158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -6108,18 +5632,15 @@
         <v>87810.57450547034</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
-      </c>
-      <c r="I159" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr"/>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-      <c r="N159" t="inlineStr"/>
+      <c r="L159" t="n">
+        <v>1</v>
+      </c>
+      <c r="M159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6144,18 +5665,15 @@
         <v>21190.73653746875</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
-      </c>
-      <c r="I160" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr"/>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-      <c r="N160" t="inlineStr"/>
+      <c r="L160" t="n">
+        <v>1</v>
+      </c>
+      <c r="M160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6180,18 +5698,15 @@
         <v>20068.57713746875</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
-      </c>
-      <c r="I161" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr"/>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-      <c r="N161" t="inlineStr"/>
+      <c r="L161" t="n">
+        <v>1</v>
+      </c>
+      <c r="M161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6216,18 +5731,15 @@
         <v>-3931.42286253125</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
-      </c>
-      <c r="I162" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr"/>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
-      <c r="N162" t="inlineStr"/>
+      <c r="L162" t="n">
+        <v>1</v>
+      </c>
+      <c r="M162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6254,16 +5766,13 @@
       <c r="H163" t="n">
         <v>0</v>
       </c>
-      <c r="I163" t="n">
-        <v>0</v>
-      </c>
+      <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr"/>
-      <c r="M163" t="n">
-        <v>1</v>
-      </c>
-      <c r="N163" t="inlineStr"/>
+      <c r="L163" t="n">
+        <v>1</v>
+      </c>
+      <c r="M163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6288,18 +5797,15 @@
         <v>10819.96213746875</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
-      </c>
-      <c r="I164" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr"/>
-      <c r="M164" t="n">
-        <v>1</v>
-      </c>
-      <c r="N164" t="inlineStr"/>
+      <c r="L164" t="n">
+        <v>1</v>
+      </c>
+      <c r="M164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6326,16 +5832,13 @@
       <c r="H165" t="n">
         <v>0</v>
       </c>
-      <c r="I165" t="n">
-        <v>0</v>
-      </c>
+      <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr"/>
-      <c r="M165" t="n">
-        <v>1</v>
-      </c>
-      <c r="N165" t="inlineStr"/>
+      <c r="L165" t="n">
+        <v>1</v>
+      </c>
+      <c r="M165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6362,16 +5865,13 @@
       <c r="H166" t="n">
         <v>0</v>
       </c>
-      <c r="I166" t="n">
-        <v>0</v>
-      </c>
+      <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr"/>
-      <c r="M166" t="n">
-        <v>1</v>
-      </c>
-      <c r="N166" t="inlineStr"/>
+      <c r="L166" t="n">
+        <v>1</v>
+      </c>
+      <c r="M166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -6398,16 +5898,13 @@
       <c r="H167" t="n">
         <v>0</v>
       </c>
-      <c r="I167" t="n">
-        <v>0</v>
-      </c>
+      <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr"/>
-      <c r="M167" t="n">
-        <v>1</v>
-      </c>
-      <c r="N167" t="inlineStr"/>
+      <c r="L167" t="n">
+        <v>1</v>
+      </c>
+      <c r="M167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -6434,16 +5931,13 @@
       <c r="H168" t="n">
         <v>0</v>
       </c>
-      <c r="I168" t="n">
-        <v>0</v>
-      </c>
+      <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr"/>
-      <c r="M168" t="n">
-        <v>1</v>
-      </c>
-      <c r="N168" t="inlineStr"/>
+      <c r="L168" t="n">
+        <v>1</v>
+      </c>
+      <c r="M168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -6470,16 +5964,13 @@
       <c r="H169" t="n">
         <v>0</v>
       </c>
-      <c r="I169" t="n">
-        <v>0</v>
-      </c>
+      <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr"/>
-      <c r="M169" t="n">
-        <v>1</v>
-      </c>
-      <c r="N169" t="inlineStr"/>
+      <c r="L169" t="n">
+        <v>1</v>
+      </c>
+      <c r="M169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -6506,16 +5997,13 @@
       <c r="H170" t="n">
         <v>0</v>
       </c>
-      <c r="I170" t="n">
-        <v>0</v>
-      </c>
+      <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr"/>
-      <c r="M170" t="n">
-        <v>1</v>
-      </c>
-      <c r="N170" t="inlineStr"/>
+      <c r="L170" t="n">
+        <v>1</v>
+      </c>
+      <c r="M170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6542,16 +6030,13 @@
       <c r="H171" t="n">
         <v>0</v>
       </c>
-      <c r="I171" t="n">
-        <v>0</v>
-      </c>
+      <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr"/>
-      <c r="M171" t="n">
-        <v>1</v>
-      </c>
-      <c r="N171" t="inlineStr"/>
+      <c r="L171" t="n">
+        <v>1</v>
+      </c>
+      <c r="M171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6578,16 +6063,13 @@
       <c r="H172" t="n">
         <v>0</v>
       </c>
-      <c r="I172" t="n">
-        <v>0</v>
-      </c>
+      <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr"/>
-      <c r="M172" t="n">
-        <v>1</v>
-      </c>
-      <c r="N172" t="inlineStr"/>
+      <c r="L172" t="n">
+        <v>1</v>
+      </c>
+      <c r="M172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6614,16 +6096,13 @@
       <c r="H173" t="n">
         <v>0</v>
       </c>
-      <c r="I173" t="n">
-        <v>0</v>
-      </c>
+      <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr"/>
-      <c r="M173" t="n">
-        <v>1</v>
-      </c>
-      <c r="N173" t="inlineStr"/>
+      <c r="L173" t="n">
+        <v>1</v>
+      </c>
+      <c r="M173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6650,16 +6129,13 @@
       <c r="H174" t="n">
         <v>0</v>
       </c>
-      <c r="I174" t="n">
-        <v>0</v>
-      </c>
+      <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr"/>
-      <c r="M174" t="n">
-        <v>1</v>
-      </c>
-      <c r="N174" t="inlineStr"/>
+      <c r="L174" t="n">
+        <v>1</v>
+      </c>
+      <c r="M174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -6686,16 +6162,13 @@
       <c r="H175" t="n">
         <v>0</v>
       </c>
-      <c r="I175" t="n">
-        <v>0</v>
-      </c>
+      <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr"/>
-      <c r="M175" t="n">
-        <v>1</v>
-      </c>
-      <c r="N175" t="inlineStr"/>
+      <c r="L175" t="n">
+        <v>1</v>
+      </c>
+      <c r="M175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -6722,16 +6195,13 @@
       <c r="H176" t="n">
         <v>0</v>
       </c>
-      <c r="I176" t="n">
-        <v>0</v>
-      </c>
+      <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr"/>
-      <c r="M176" t="n">
-        <v>1</v>
-      </c>
-      <c r="N176" t="inlineStr"/>
+      <c r="L176" t="n">
+        <v>1</v>
+      </c>
+      <c r="M176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -6758,16 +6228,13 @@
       <c r="H177" t="n">
         <v>0</v>
       </c>
-      <c r="I177" t="n">
-        <v>0</v>
-      </c>
+      <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr"/>
-      <c r="M177" t="n">
-        <v>1</v>
-      </c>
-      <c r="N177" t="inlineStr"/>
+      <c r="L177" t="n">
+        <v>1</v>
+      </c>
+      <c r="M177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -6794,16 +6261,13 @@
       <c r="H178" t="n">
         <v>0</v>
       </c>
-      <c r="I178" t="n">
-        <v>0</v>
-      </c>
+      <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr"/>
-      <c r="M178" t="n">
-        <v>1</v>
-      </c>
-      <c r="N178" t="inlineStr"/>
+      <c r="L178" t="n">
+        <v>1</v>
+      </c>
+      <c r="M178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -6830,16 +6294,13 @@
       <c r="H179" t="n">
         <v>0</v>
       </c>
-      <c r="I179" t="n">
-        <v>0</v>
-      </c>
+      <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr"/>
-      <c r="M179" t="n">
-        <v>1</v>
-      </c>
-      <c r="N179" t="inlineStr"/>
+      <c r="L179" t="n">
+        <v>1</v>
+      </c>
+      <c r="M179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -6866,16 +6327,13 @@
       <c r="H180" t="n">
         <v>0</v>
       </c>
-      <c r="I180" t="n">
-        <v>0</v>
-      </c>
+      <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr"/>
-      <c r="M180" t="n">
-        <v>1</v>
-      </c>
-      <c r="N180" t="inlineStr"/>
+      <c r="L180" t="n">
+        <v>1</v>
+      </c>
+      <c r="M180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -6902,16 +6360,13 @@
       <c r="H181" t="n">
         <v>0</v>
       </c>
-      <c r="I181" t="n">
-        <v>0</v>
-      </c>
+      <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr"/>
-      <c r="M181" t="n">
-        <v>1</v>
-      </c>
-      <c r="N181" t="inlineStr"/>
+      <c r="L181" t="n">
+        <v>1</v>
+      </c>
+      <c r="M181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -6938,16 +6393,13 @@
       <c r="H182" t="n">
         <v>0</v>
       </c>
-      <c r="I182" t="n">
-        <v>0</v>
-      </c>
+      <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr"/>
-      <c r="M182" t="n">
-        <v>1</v>
-      </c>
-      <c r="N182" t="inlineStr"/>
+      <c r="L182" t="n">
+        <v>1</v>
+      </c>
+      <c r="M182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -6974,16 +6426,13 @@
       <c r="H183" t="n">
         <v>0</v>
       </c>
-      <c r="I183" t="n">
-        <v>0</v>
-      </c>
+      <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr"/>
-      <c r="M183" t="n">
-        <v>1</v>
-      </c>
-      <c r="N183" t="inlineStr"/>
+      <c r="L183" t="n">
+        <v>1</v>
+      </c>
+      <c r="M183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -7010,16 +6459,13 @@
       <c r="H184" t="n">
         <v>0</v>
       </c>
-      <c r="I184" t="n">
-        <v>0</v>
-      </c>
+      <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr"/>
-      <c r="M184" t="n">
-        <v>1</v>
-      </c>
-      <c r="N184" t="inlineStr"/>
+      <c r="L184" t="n">
+        <v>1</v>
+      </c>
+      <c r="M184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -7046,16 +6492,13 @@
       <c r="H185" t="n">
         <v>0</v>
       </c>
-      <c r="I185" t="n">
-        <v>0</v>
-      </c>
+      <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr"/>
-      <c r="M185" t="n">
-        <v>1</v>
-      </c>
-      <c r="N185" t="inlineStr"/>
+      <c r="L185" t="n">
+        <v>1</v>
+      </c>
+      <c r="M185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -7082,16 +6525,13 @@
       <c r="H186" t="n">
         <v>0</v>
       </c>
-      <c r="I186" t="n">
-        <v>0</v>
-      </c>
+      <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr"/>
-      <c r="M186" t="n">
-        <v>1</v>
-      </c>
-      <c r="N186" t="inlineStr"/>
+      <c r="L186" t="n">
+        <v>1</v>
+      </c>
+      <c r="M186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -7118,16 +6558,13 @@
       <c r="H187" t="n">
         <v>0</v>
       </c>
-      <c r="I187" t="n">
-        <v>0</v>
-      </c>
+      <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr"/>
-      <c r="M187" t="n">
-        <v>1</v>
-      </c>
-      <c r="N187" t="inlineStr"/>
+      <c r="L187" t="n">
+        <v>1</v>
+      </c>
+      <c r="M187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -7154,16 +6591,13 @@
       <c r="H188" t="n">
         <v>0</v>
       </c>
-      <c r="I188" t="n">
-        <v>0</v>
-      </c>
+      <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr"/>
-      <c r="M188" t="n">
-        <v>1</v>
-      </c>
-      <c r="N188" t="inlineStr"/>
+      <c r="L188" t="n">
+        <v>1</v>
+      </c>
+      <c r="M188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -7190,16 +6624,13 @@
       <c r="H189" t="n">
         <v>0</v>
       </c>
-      <c r="I189" t="n">
-        <v>0</v>
-      </c>
+      <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
       <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr"/>
-      <c r="M189" t="n">
-        <v>1</v>
-      </c>
-      <c r="N189" t="inlineStr"/>
+      <c r="L189" t="n">
+        <v>1</v>
+      </c>
+      <c r="M189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -7226,16 +6657,13 @@
       <c r="H190" t="n">
         <v>0</v>
       </c>
-      <c r="I190" t="n">
-        <v>0</v>
-      </c>
+      <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
       <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr"/>
-      <c r="M190" t="n">
-        <v>1</v>
-      </c>
-      <c r="N190" t="inlineStr"/>
+      <c r="L190" t="n">
+        <v>1</v>
+      </c>
+      <c r="M190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -7262,16 +6690,13 @@
       <c r="H191" t="n">
         <v>0</v>
       </c>
-      <c r="I191" t="n">
-        <v>0</v>
-      </c>
+      <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
       <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr"/>
-      <c r="M191" t="n">
-        <v>1</v>
-      </c>
-      <c r="N191" t="inlineStr"/>
+      <c r="L191" t="n">
+        <v>1</v>
+      </c>
+      <c r="M191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -7298,16 +6723,13 @@
       <c r="H192" t="n">
         <v>0</v>
       </c>
-      <c r="I192" t="n">
-        <v>0</v>
-      </c>
+      <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
       <c r="K192" t="inlineStr"/>
-      <c r="L192" t="inlineStr"/>
-      <c r="M192" t="n">
-        <v>1</v>
-      </c>
-      <c r="N192" t="inlineStr"/>
+      <c r="L192" t="n">
+        <v>1</v>
+      </c>
+      <c r="M192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -7334,16 +6756,13 @@
       <c r="H193" t="n">
         <v>0</v>
       </c>
-      <c r="I193" t="n">
-        <v>0</v>
-      </c>
+      <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
       <c r="K193" t="inlineStr"/>
-      <c r="L193" t="inlineStr"/>
-      <c r="M193" t="n">
-        <v>1</v>
-      </c>
-      <c r="N193" t="inlineStr"/>
+      <c r="L193" t="n">
+        <v>1</v>
+      </c>
+      <c r="M193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -7370,16 +6789,13 @@
       <c r="H194" t="n">
         <v>0</v>
       </c>
-      <c r="I194" t="n">
-        <v>0</v>
-      </c>
+      <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
       <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr"/>
-      <c r="M194" t="n">
-        <v>1</v>
-      </c>
-      <c r="N194" t="inlineStr"/>
+      <c r="L194" t="n">
+        <v>1</v>
+      </c>
+      <c r="M194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -7406,16 +6822,13 @@
       <c r="H195" t="n">
         <v>0</v>
       </c>
-      <c r="I195" t="n">
-        <v>0</v>
-      </c>
+      <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
       <c r="K195" t="inlineStr"/>
-      <c r="L195" t="inlineStr"/>
-      <c r="M195" t="n">
-        <v>1</v>
-      </c>
-      <c r="N195" t="inlineStr"/>
+      <c r="L195" t="n">
+        <v>1</v>
+      </c>
+      <c r="M195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -7442,16 +6855,13 @@
       <c r="H196" t="n">
         <v>0</v>
       </c>
-      <c r="I196" t="n">
-        <v>0</v>
-      </c>
+      <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
       <c r="K196" t="inlineStr"/>
-      <c r="L196" t="inlineStr"/>
-      <c r="M196" t="n">
-        <v>1</v>
-      </c>
-      <c r="N196" t="inlineStr"/>
+      <c r="L196" t="n">
+        <v>1</v>
+      </c>
+      <c r="M196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -7478,16 +6888,13 @@
       <c r="H197" t="n">
         <v>0</v>
       </c>
-      <c r="I197" t="n">
-        <v>0</v>
-      </c>
+      <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
       <c r="K197" t="inlineStr"/>
-      <c r="L197" t="inlineStr"/>
-      <c r="M197" t="n">
-        <v>1</v>
-      </c>
-      <c r="N197" t="inlineStr"/>
+      <c r="L197" t="n">
+        <v>1</v>
+      </c>
+      <c r="M197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -7514,16 +6921,13 @@
       <c r="H198" t="n">
         <v>0</v>
       </c>
-      <c r="I198" t="n">
-        <v>0</v>
-      </c>
+      <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
       <c r="K198" t="inlineStr"/>
-      <c r="L198" t="inlineStr"/>
-      <c r="M198" t="n">
-        <v>1</v>
-      </c>
-      <c r="N198" t="inlineStr"/>
+      <c r="L198" t="n">
+        <v>1</v>
+      </c>
+      <c r="M198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -7550,16 +6954,13 @@
       <c r="H199" t="n">
         <v>0</v>
       </c>
-      <c r="I199" t="n">
-        <v>0</v>
-      </c>
+      <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
       <c r="K199" t="inlineStr"/>
-      <c r="L199" t="inlineStr"/>
-      <c r="M199" t="n">
-        <v>1</v>
-      </c>
-      <c r="N199" t="inlineStr"/>
+      <c r="L199" t="n">
+        <v>1</v>
+      </c>
+      <c r="M199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -7586,16 +6987,13 @@
       <c r="H200" t="n">
         <v>0</v>
       </c>
-      <c r="I200" t="n">
-        <v>0</v>
-      </c>
+      <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
       <c r="K200" t="inlineStr"/>
-      <c r="L200" t="inlineStr"/>
-      <c r="M200" t="n">
-        <v>1</v>
-      </c>
-      <c r="N200" t="inlineStr"/>
+      <c r="L200" t="n">
+        <v>1</v>
+      </c>
+      <c r="M200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -7622,16 +7020,13 @@
       <c r="H201" t="n">
         <v>0</v>
       </c>
-      <c r="I201" t="n">
-        <v>0</v>
-      </c>
+      <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
       <c r="K201" t="inlineStr"/>
-      <c r="L201" t="inlineStr"/>
-      <c r="M201" t="n">
-        <v>1</v>
-      </c>
-      <c r="N201" t="inlineStr"/>
+      <c r="L201" t="n">
+        <v>1</v>
+      </c>
+      <c r="M201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -7658,16 +7053,13 @@
       <c r="H202" t="n">
         <v>0</v>
       </c>
-      <c r="I202" t="n">
-        <v>0</v>
-      </c>
+      <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
       <c r="K202" t="inlineStr"/>
-      <c r="L202" t="inlineStr"/>
-      <c r="M202" t="n">
-        <v>1</v>
-      </c>
-      <c r="N202" t="inlineStr"/>
+      <c r="L202" t="n">
+        <v>1</v>
+      </c>
+      <c r="M202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -7694,16 +7086,13 @@
       <c r="H203" t="n">
         <v>0</v>
       </c>
-      <c r="I203" t="n">
-        <v>0</v>
-      </c>
+      <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
       <c r="K203" t="inlineStr"/>
-      <c r="L203" t="inlineStr"/>
-      <c r="M203" t="n">
-        <v>1</v>
-      </c>
-      <c r="N203" t="inlineStr"/>
+      <c r="L203" t="n">
+        <v>1</v>
+      </c>
+      <c r="M203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -7730,16 +7119,13 @@
       <c r="H204" t="n">
         <v>0</v>
       </c>
-      <c r="I204" t="n">
-        <v>0</v>
-      </c>
+      <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
       <c r="K204" t="inlineStr"/>
-      <c r="L204" t="inlineStr"/>
-      <c r="M204" t="n">
-        <v>1</v>
-      </c>
-      <c r="N204" t="inlineStr"/>
+      <c r="L204" t="n">
+        <v>1</v>
+      </c>
+      <c r="M204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -7766,16 +7152,13 @@
       <c r="H205" t="n">
         <v>0</v>
       </c>
-      <c r="I205" t="n">
-        <v>0</v>
-      </c>
+      <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
       <c r="K205" t="inlineStr"/>
-      <c r="L205" t="inlineStr"/>
-      <c r="M205" t="n">
-        <v>1</v>
-      </c>
-      <c r="N205" t="inlineStr"/>
+      <c r="L205" t="n">
+        <v>1</v>
+      </c>
+      <c r="M205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -7802,16 +7185,13 @@
       <c r="H206" t="n">
         <v>0</v>
       </c>
-      <c r="I206" t="n">
-        <v>0</v>
-      </c>
+      <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
       <c r="K206" t="inlineStr"/>
-      <c r="L206" t="inlineStr"/>
-      <c r="M206" t="n">
-        <v>1</v>
-      </c>
-      <c r="N206" t="inlineStr"/>
+      <c r="L206" t="n">
+        <v>1</v>
+      </c>
+      <c r="M206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -7838,16 +7218,13 @@
       <c r="H207" t="n">
         <v>0</v>
       </c>
-      <c r="I207" t="n">
-        <v>0</v>
-      </c>
+      <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
       <c r="K207" t="inlineStr"/>
-      <c r="L207" t="inlineStr"/>
-      <c r="M207" t="n">
-        <v>1</v>
-      </c>
-      <c r="N207" t="inlineStr"/>
+      <c r="L207" t="n">
+        <v>1</v>
+      </c>
+      <c r="M207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -7874,16 +7251,13 @@
       <c r="H208" t="n">
         <v>0</v>
       </c>
-      <c r="I208" t="n">
-        <v>0</v>
-      </c>
+      <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
       <c r="K208" t="inlineStr"/>
-      <c r="L208" t="inlineStr"/>
-      <c r="M208" t="n">
-        <v>1</v>
-      </c>
-      <c r="N208" t="inlineStr"/>
+      <c r="L208" t="n">
+        <v>1</v>
+      </c>
+      <c r="M208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -7910,16 +7284,13 @@
       <c r="H209" t="n">
         <v>0</v>
       </c>
-      <c r="I209" t="n">
-        <v>0</v>
-      </c>
+      <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
       <c r="K209" t="inlineStr"/>
-      <c r="L209" t="inlineStr"/>
-      <c r="M209" t="n">
-        <v>1</v>
-      </c>
-      <c r="N209" t="inlineStr"/>
+      <c r="L209" t="n">
+        <v>1</v>
+      </c>
+      <c r="M209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -7946,16 +7317,13 @@
       <c r="H210" t="n">
         <v>0</v>
       </c>
-      <c r="I210" t="n">
-        <v>0</v>
-      </c>
+      <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
       <c r="K210" t="inlineStr"/>
-      <c r="L210" t="inlineStr"/>
-      <c r="M210" t="n">
-        <v>1</v>
-      </c>
-      <c r="N210" t="inlineStr"/>
+      <c r="L210" t="n">
+        <v>1</v>
+      </c>
+      <c r="M210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -7982,16 +7350,13 @@
       <c r="H211" t="n">
         <v>0</v>
       </c>
-      <c r="I211" t="n">
-        <v>0</v>
-      </c>
+      <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
       <c r="K211" t="inlineStr"/>
-      <c r="L211" t="inlineStr"/>
-      <c r="M211" t="n">
-        <v>1</v>
-      </c>
-      <c r="N211" t="inlineStr"/>
+      <c r="L211" t="n">
+        <v>1</v>
+      </c>
+      <c r="M211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -8018,16 +7383,13 @@
       <c r="H212" t="n">
         <v>0</v>
       </c>
-      <c r="I212" t="n">
-        <v>0</v>
-      </c>
+      <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
       <c r="K212" t="inlineStr"/>
-      <c r="L212" t="inlineStr"/>
-      <c r="M212" t="n">
-        <v>1</v>
-      </c>
-      <c r="N212" t="inlineStr"/>
+      <c r="L212" t="n">
+        <v>1</v>
+      </c>
+      <c r="M212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -8054,16 +7416,13 @@
       <c r="H213" t="n">
         <v>0</v>
       </c>
-      <c r="I213" t="n">
-        <v>0</v>
-      </c>
+      <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
       <c r="K213" t="inlineStr"/>
-      <c r="L213" t="inlineStr"/>
-      <c r="M213" t="n">
-        <v>1</v>
-      </c>
-      <c r="N213" t="inlineStr"/>
+      <c r="L213" t="n">
+        <v>1</v>
+      </c>
+      <c r="M213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -8090,16 +7449,13 @@
       <c r="H214" t="n">
         <v>0</v>
       </c>
-      <c r="I214" t="n">
-        <v>0</v>
-      </c>
+      <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
       <c r="K214" t="inlineStr"/>
-      <c r="L214" t="inlineStr"/>
-      <c r="M214" t="n">
-        <v>1</v>
-      </c>
-      <c r="N214" t="inlineStr"/>
+      <c r="L214" t="n">
+        <v>1</v>
+      </c>
+      <c r="M214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -8126,16 +7482,13 @@
       <c r="H215" t="n">
         <v>0</v>
       </c>
-      <c r="I215" t="n">
-        <v>0</v>
-      </c>
+      <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
       <c r="K215" t="inlineStr"/>
-      <c r="L215" t="inlineStr"/>
-      <c r="M215" t="n">
-        <v>1</v>
-      </c>
-      <c r="N215" t="inlineStr"/>
+      <c r="L215" t="n">
+        <v>1</v>
+      </c>
+      <c r="M215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -8162,16 +7515,13 @@
       <c r="H216" t="n">
         <v>0</v>
       </c>
-      <c r="I216" t="n">
-        <v>0</v>
-      </c>
+      <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
       <c r="K216" t="inlineStr"/>
-      <c r="L216" t="inlineStr"/>
-      <c r="M216" t="n">
-        <v>1</v>
-      </c>
-      <c r="N216" t="inlineStr"/>
+      <c r="L216" t="n">
+        <v>1</v>
+      </c>
+      <c r="M216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -8198,16 +7548,13 @@
       <c r="H217" t="n">
         <v>0</v>
       </c>
-      <c r="I217" t="n">
-        <v>0</v>
-      </c>
+      <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
       <c r="K217" t="inlineStr"/>
-      <c r="L217" t="inlineStr"/>
-      <c r="M217" t="n">
-        <v>1</v>
-      </c>
-      <c r="N217" t="inlineStr"/>
+      <c r="L217" t="n">
+        <v>1</v>
+      </c>
+      <c r="M217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -8234,16 +7581,13 @@
       <c r="H218" t="n">
         <v>0</v>
       </c>
-      <c r="I218" t="n">
-        <v>0</v>
-      </c>
+      <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
       <c r="K218" t="inlineStr"/>
-      <c r="L218" t="inlineStr"/>
-      <c r="M218" t="n">
-        <v>1</v>
-      </c>
-      <c r="N218" t="inlineStr"/>
+      <c r="L218" t="n">
+        <v>1</v>
+      </c>
+      <c r="M218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -8270,16 +7614,13 @@
       <c r="H219" t="n">
         <v>0</v>
       </c>
-      <c r="I219" t="n">
-        <v>0</v>
-      </c>
+      <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
       <c r="K219" t="inlineStr"/>
-      <c r="L219" t="inlineStr"/>
-      <c r="M219" t="n">
-        <v>1</v>
-      </c>
-      <c r="N219" t="inlineStr"/>
+      <c r="L219" t="n">
+        <v>1</v>
+      </c>
+      <c r="M219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -8306,16 +7647,13 @@
       <c r="H220" t="n">
         <v>0</v>
       </c>
-      <c r="I220" t="n">
-        <v>0</v>
-      </c>
+      <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
       <c r="K220" t="inlineStr"/>
-      <c r="L220" t="inlineStr"/>
-      <c r="M220" t="n">
-        <v>1</v>
-      </c>
-      <c r="N220" t="inlineStr"/>
+      <c r="L220" t="n">
+        <v>1</v>
+      </c>
+      <c r="M220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -8342,16 +7680,13 @@
       <c r="H221" t="n">
         <v>0</v>
       </c>
-      <c r="I221" t="n">
-        <v>0</v>
-      </c>
+      <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
       <c r="K221" t="inlineStr"/>
-      <c r="L221" t="inlineStr"/>
-      <c r="M221" t="n">
-        <v>1</v>
-      </c>
-      <c r="N221" t="inlineStr"/>
+      <c r="L221" t="n">
+        <v>1</v>
+      </c>
+      <c r="M221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -8378,16 +7713,13 @@
       <c r="H222" t="n">
         <v>0</v>
       </c>
-      <c r="I222" t="n">
-        <v>0</v>
-      </c>
+      <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
       <c r="K222" t="inlineStr"/>
-      <c r="L222" t="inlineStr"/>
-      <c r="M222" t="n">
-        <v>1</v>
-      </c>
-      <c r="N222" t="inlineStr"/>
+      <c r="L222" t="n">
+        <v>1</v>
+      </c>
+      <c r="M222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -8414,16 +7746,13 @@
       <c r="H223" t="n">
         <v>0</v>
       </c>
-      <c r="I223" t="n">
-        <v>0</v>
-      </c>
+      <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
       <c r="K223" t="inlineStr"/>
-      <c r="L223" t="inlineStr"/>
-      <c r="M223" t="n">
-        <v>1</v>
-      </c>
-      <c r="N223" t="inlineStr"/>
+      <c r="L223" t="n">
+        <v>1</v>
+      </c>
+      <c r="M223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -8450,16 +7779,13 @@
       <c r="H224" t="n">
         <v>0</v>
       </c>
-      <c r="I224" t="n">
-        <v>0</v>
-      </c>
+      <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
       <c r="K224" t="inlineStr"/>
-      <c r="L224" t="inlineStr"/>
-      <c r="M224" t="n">
-        <v>1</v>
-      </c>
-      <c r="N224" t="inlineStr"/>
+      <c r="L224" t="n">
+        <v>1</v>
+      </c>
+      <c r="M224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -8486,16 +7812,13 @@
       <c r="H225" t="n">
         <v>0</v>
       </c>
-      <c r="I225" t="n">
-        <v>0</v>
-      </c>
+      <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
       <c r="K225" t="inlineStr"/>
-      <c r="L225" t="inlineStr"/>
-      <c r="M225" t="n">
-        <v>1</v>
-      </c>
-      <c r="N225" t="inlineStr"/>
+      <c r="L225" t="n">
+        <v>1</v>
+      </c>
+      <c r="M225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
@@ -8522,16 +7845,13 @@
       <c r="H226" t="n">
         <v>0</v>
       </c>
-      <c r="I226" t="n">
-        <v>0</v>
-      </c>
+      <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
       <c r="K226" t="inlineStr"/>
-      <c r="L226" t="inlineStr"/>
-      <c r="M226" t="n">
-        <v>1</v>
-      </c>
-      <c r="N226" t="inlineStr"/>
+      <c r="L226" t="n">
+        <v>1</v>
+      </c>
+      <c r="M226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
@@ -8558,16 +7878,13 @@
       <c r="H227" t="n">
         <v>0</v>
       </c>
-      <c r="I227" t="n">
-        <v>0</v>
-      </c>
+      <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
       <c r="K227" t="inlineStr"/>
-      <c r="L227" t="inlineStr"/>
-      <c r="M227" t="n">
-        <v>1</v>
-      </c>
-      <c r="N227" t="inlineStr"/>
+      <c r="L227" t="n">
+        <v>1</v>
+      </c>
+      <c r="M227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
@@ -8594,16 +7911,13 @@
       <c r="H228" t="n">
         <v>0</v>
       </c>
-      <c r="I228" t="n">
-        <v>0</v>
-      </c>
+      <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
       <c r="K228" t="inlineStr"/>
-      <c r="L228" t="inlineStr"/>
-      <c r="M228" t="n">
-        <v>1</v>
-      </c>
-      <c r="N228" t="inlineStr"/>
+      <c r="L228" t="n">
+        <v>1</v>
+      </c>
+      <c r="M228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
@@ -8630,16 +7944,13 @@
       <c r="H229" t="n">
         <v>0</v>
       </c>
-      <c r="I229" t="n">
-        <v>0</v>
-      </c>
+      <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
       <c r="K229" t="inlineStr"/>
-      <c r="L229" t="inlineStr"/>
-      <c r="M229" t="n">
-        <v>1</v>
-      </c>
-      <c r="N229" t="inlineStr"/>
+      <c r="L229" t="n">
+        <v>1</v>
+      </c>
+      <c r="M229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
@@ -8666,16 +7977,13 @@
       <c r="H230" t="n">
         <v>0</v>
       </c>
-      <c r="I230" t="n">
-        <v>0</v>
-      </c>
+      <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
       <c r="K230" t="inlineStr"/>
-      <c r="L230" t="inlineStr"/>
-      <c r="M230" t="n">
-        <v>1</v>
-      </c>
-      <c r="N230" t="inlineStr"/>
+      <c r="L230" t="n">
+        <v>1</v>
+      </c>
+      <c r="M230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
@@ -8702,16 +8010,13 @@
       <c r="H231" t="n">
         <v>0</v>
       </c>
-      <c r="I231" t="n">
-        <v>0</v>
-      </c>
+      <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
       <c r="K231" t="inlineStr"/>
-      <c r="L231" t="inlineStr"/>
-      <c r="M231" t="n">
-        <v>1</v>
-      </c>
-      <c r="N231" t="inlineStr"/>
+      <c r="L231" t="n">
+        <v>1</v>
+      </c>
+      <c r="M231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
@@ -8738,16 +8043,13 @@
       <c r="H232" t="n">
         <v>0</v>
       </c>
-      <c r="I232" t="n">
-        <v>0</v>
-      </c>
+      <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
       <c r="K232" t="inlineStr"/>
-      <c r="L232" t="inlineStr"/>
-      <c r="M232" t="n">
-        <v>1</v>
-      </c>
-      <c r="N232" t="inlineStr"/>
+      <c r="L232" t="n">
+        <v>1</v>
+      </c>
+      <c r="M232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
@@ -8774,16 +8076,13 @@
       <c r="H233" t="n">
         <v>0</v>
       </c>
-      <c r="I233" t="n">
-        <v>0</v>
-      </c>
+      <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
       <c r="K233" t="inlineStr"/>
-      <c r="L233" t="inlineStr"/>
-      <c r="M233" t="n">
-        <v>1</v>
-      </c>
-      <c r="N233" t="inlineStr"/>
+      <c r="L233" t="n">
+        <v>1</v>
+      </c>
+      <c r="M233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
@@ -8810,16 +8109,13 @@
       <c r="H234" t="n">
         <v>0</v>
       </c>
-      <c r="I234" t="n">
-        <v>0</v>
-      </c>
+      <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
       <c r="K234" t="inlineStr"/>
-      <c r="L234" t="inlineStr"/>
-      <c r="M234" t="n">
-        <v>1</v>
-      </c>
-      <c r="N234" t="inlineStr"/>
+      <c r="L234" t="n">
+        <v>1</v>
+      </c>
+      <c r="M234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
@@ -8846,16 +8142,13 @@
       <c r="H235" t="n">
         <v>0</v>
       </c>
-      <c r="I235" t="n">
-        <v>0</v>
-      </c>
+      <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
       <c r="K235" t="inlineStr"/>
-      <c r="L235" t="inlineStr"/>
-      <c r="M235" t="n">
-        <v>1</v>
-      </c>
-      <c r="N235" t="inlineStr"/>
+      <c r="L235" t="n">
+        <v>1</v>
+      </c>
+      <c r="M235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
@@ -8882,16 +8175,13 @@
       <c r="H236" t="n">
         <v>0</v>
       </c>
-      <c r="I236" t="n">
-        <v>0</v>
-      </c>
+      <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
       <c r="K236" t="inlineStr"/>
-      <c r="L236" t="inlineStr"/>
-      <c r="M236" t="n">
-        <v>1</v>
-      </c>
-      <c r="N236" t="inlineStr"/>
+      <c r="L236" t="n">
+        <v>1</v>
+      </c>
+      <c r="M236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
@@ -8918,16 +8208,13 @@
       <c r="H237" t="n">
         <v>0</v>
       </c>
-      <c r="I237" t="n">
-        <v>0</v>
-      </c>
+      <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
       <c r="K237" t="inlineStr"/>
-      <c r="L237" t="inlineStr"/>
-      <c r="M237" t="n">
-        <v>1</v>
-      </c>
-      <c r="N237" t="inlineStr"/>
+      <c r="L237" t="n">
+        <v>1</v>
+      </c>
+      <c r="M237" t="inlineStr"/>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
@@ -8954,16 +8241,13 @@
       <c r="H238" t="n">
         <v>0</v>
       </c>
-      <c r="I238" t="n">
-        <v>0</v>
-      </c>
+      <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
       <c r="K238" t="inlineStr"/>
-      <c r="L238" t="inlineStr"/>
-      <c r="M238" t="n">
-        <v>1</v>
-      </c>
-      <c r="N238" t="inlineStr"/>
+      <c r="L238" t="n">
+        <v>1</v>
+      </c>
+      <c r="M238" t="inlineStr"/>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
@@ -8990,16 +8274,13 @@
       <c r="H239" t="n">
         <v>0</v>
       </c>
-      <c r="I239" t="n">
-        <v>0</v>
-      </c>
+      <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
       <c r="K239" t="inlineStr"/>
-      <c r="L239" t="inlineStr"/>
-      <c r="M239" t="n">
-        <v>1</v>
-      </c>
-      <c r="N239" t="inlineStr"/>
+      <c r="L239" t="n">
+        <v>1</v>
+      </c>
+      <c r="M239" t="inlineStr"/>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
@@ -9026,16 +8307,13 @@
       <c r="H240" t="n">
         <v>0</v>
       </c>
-      <c r="I240" t="n">
-        <v>0</v>
-      </c>
+      <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
       <c r="K240" t="inlineStr"/>
-      <c r="L240" t="inlineStr"/>
-      <c r="M240" t="n">
-        <v>1</v>
-      </c>
-      <c r="N240" t="inlineStr"/>
+      <c r="L240" t="n">
+        <v>1</v>
+      </c>
+      <c r="M240" t="inlineStr"/>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
@@ -9062,16 +8340,13 @@
       <c r="H241" t="n">
         <v>0</v>
       </c>
-      <c r="I241" t="n">
-        <v>0</v>
-      </c>
+      <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
       <c r="K241" t="inlineStr"/>
-      <c r="L241" t="inlineStr"/>
-      <c r="M241" t="n">
-        <v>1</v>
-      </c>
-      <c r="N241" t="inlineStr"/>
+      <c r="L241" t="n">
+        <v>1</v>
+      </c>
+      <c r="M241" t="inlineStr"/>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
@@ -9098,16 +8373,13 @@
       <c r="H242" t="n">
         <v>0</v>
       </c>
-      <c r="I242" t="n">
-        <v>0</v>
-      </c>
+      <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
       <c r="K242" t="inlineStr"/>
-      <c r="L242" t="inlineStr"/>
-      <c r="M242" t="n">
-        <v>1</v>
-      </c>
-      <c r="N242" t="inlineStr"/>
+      <c r="L242" t="n">
+        <v>1</v>
+      </c>
+      <c r="M242" t="inlineStr"/>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
@@ -9134,16 +8406,13 @@
       <c r="H243" t="n">
         <v>0</v>
       </c>
-      <c r="I243" t="n">
-        <v>0</v>
-      </c>
+      <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
       <c r="K243" t="inlineStr"/>
-      <c r="L243" t="inlineStr"/>
-      <c r="M243" t="n">
-        <v>1</v>
-      </c>
-      <c r="N243" t="inlineStr"/>
+      <c r="L243" t="n">
+        <v>1</v>
+      </c>
+      <c r="M243" t="inlineStr"/>
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
@@ -9170,16 +8439,13 @@
       <c r="H244" t="n">
         <v>0</v>
       </c>
-      <c r="I244" t="n">
-        <v>0</v>
-      </c>
+      <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
       <c r="K244" t="inlineStr"/>
-      <c r="L244" t="inlineStr"/>
-      <c r="M244" t="n">
-        <v>1</v>
-      </c>
-      <c r="N244" t="inlineStr"/>
+      <c r="L244" t="n">
+        <v>1</v>
+      </c>
+      <c r="M244" t="inlineStr"/>
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
@@ -9206,16 +8472,13 @@
       <c r="H245" t="n">
         <v>0</v>
       </c>
-      <c r="I245" t="n">
-        <v>0</v>
-      </c>
+      <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
       <c r="K245" t="inlineStr"/>
-      <c r="L245" t="inlineStr"/>
-      <c r="M245" t="n">
-        <v>1</v>
-      </c>
-      <c r="N245" t="inlineStr"/>
+      <c r="L245" t="n">
+        <v>1</v>
+      </c>
+      <c r="M245" t="inlineStr"/>
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
@@ -9242,16 +8505,13 @@
       <c r="H246" t="n">
         <v>0</v>
       </c>
-      <c r="I246" t="n">
-        <v>0</v>
-      </c>
+      <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
       <c r="K246" t="inlineStr"/>
-      <c r="L246" t="inlineStr"/>
-      <c r="M246" t="n">
-        <v>1</v>
-      </c>
-      <c r="N246" t="inlineStr"/>
+      <c r="L246" t="n">
+        <v>1</v>
+      </c>
+      <c r="M246" t="inlineStr"/>
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
@@ -9278,16 +8538,13 @@
       <c r="H247" t="n">
         <v>0</v>
       </c>
-      <c r="I247" t="n">
-        <v>0</v>
-      </c>
+      <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
       <c r="K247" t="inlineStr"/>
-      <c r="L247" t="inlineStr"/>
-      <c r="M247" t="n">
-        <v>1</v>
-      </c>
-      <c r="N247" t="inlineStr"/>
+      <c r="L247" t="n">
+        <v>1</v>
+      </c>
+      <c r="M247" t="inlineStr"/>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
@@ -9314,16 +8571,13 @@
       <c r="H248" t="n">
         <v>0</v>
       </c>
-      <c r="I248" t="n">
-        <v>0</v>
-      </c>
+      <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
       <c r="K248" t="inlineStr"/>
-      <c r="L248" t="inlineStr"/>
-      <c r="M248" t="n">
-        <v>1</v>
-      </c>
-      <c r="N248" t="inlineStr"/>
+      <c r="L248" t="n">
+        <v>1</v>
+      </c>
+      <c r="M248" t="inlineStr"/>
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
@@ -9350,16 +8604,13 @@
       <c r="H249" t="n">
         <v>0</v>
       </c>
-      <c r="I249" t="n">
-        <v>0</v>
-      </c>
+      <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
       <c r="K249" t="inlineStr"/>
-      <c r="L249" t="inlineStr"/>
-      <c r="M249" t="n">
-        <v>1</v>
-      </c>
-      <c r="N249" t="inlineStr"/>
+      <c r="L249" t="n">
+        <v>1</v>
+      </c>
+      <c r="M249" t="inlineStr"/>
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
@@ -9386,16 +8637,13 @@
       <c r="H250" t="n">
         <v>0</v>
       </c>
-      <c r="I250" t="n">
-        <v>0</v>
-      </c>
+      <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
       <c r="K250" t="inlineStr"/>
-      <c r="L250" t="inlineStr"/>
-      <c r="M250" t="n">
-        <v>1</v>
-      </c>
-      <c r="N250" t="inlineStr"/>
+      <c r="L250" t="n">
+        <v>1</v>
+      </c>
+      <c r="M250" t="inlineStr"/>
     </row>
     <row r="251">
       <c r="A251" s="1" t="n">
@@ -9422,16 +8670,13 @@
       <c r="H251" t="n">
         <v>0</v>
       </c>
-      <c r="I251" t="n">
-        <v>0</v>
-      </c>
+      <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
       <c r="K251" t="inlineStr"/>
-      <c r="L251" t="inlineStr"/>
-      <c r="M251" t="n">
-        <v>1</v>
-      </c>
-      <c r="N251" t="inlineStr"/>
+      <c r="L251" t="n">
+        <v>1</v>
+      </c>
+      <c r="M251" t="inlineStr"/>
     </row>
     <row r="252">
       <c r="A252" s="1" t="n">
@@ -9458,16 +8703,13 @@
       <c r="H252" t="n">
         <v>0</v>
       </c>
-      <c r="I252" t="n">
-        <v>0</v>
-      </c>
+      <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
       <c r="K252" t="inlineStr"/>
-      <c r="L252" t="inlineStr"/>
-      <c r="M252" t="n">
-        <v>1</v>
-      </c>
-      <c r="N252" t="inlineStr"/>
+      <c r="L252" t="n">
+        <v>1</v>
+      </c>
+      <c r="M252" t="inlineStr"/>
     </row>
     <row r="253">
       <c r="A253" s="1" t="n">
@@ -9494,16 +8736,13 @@
       <c r="H253" t="n">
         <v>0</v>
       </c>
-      <c r="I253" t="n">
-        <v>0</v>
-      </c>
+      <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
       <c r="K253" t="inlineStr"/>
-      <c r="L253" t="inlineStr"/>
-      <c r="M253" t="n">
-        <v>1</v>
-      </c>
-      <c r="N253" t="inlineStr"/>
+      <c r="L253" t="n">
+        <v>1</v>
+      </c>
+      <c r="M253" t="inlineStr"/>
     </row>
     <row r="254">
       <c r="A254" s="1" t="n">
@@ -9530,16 +8769,13 @@
       <c r="H254" t="n">
         <v>0</v>
       </c>
-      <c r="I254" t="n">
-        <v>0</v>
-      </c>
+      <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
       <c r="K254" t="inlineStr"/>
-      <c r="L254" t="inlineStr"/>
-      <c r="M254" t="n">
-        <v>1</v>
-      </c>
-      <c r="N254" t="inlineStr"/>
+      <c r="L254" t="n">
+        <v>1</v>
+      </c>
+      <c r="M254" t="inlineStr"/>
     </row>
     <row r="255">
       <c r="A255" s="1" t="n">
@@ -9566,16 +8802,13 @@
       <c r="H255" t="n">
         <v>0</v>
       </c>
-      <c r="I255" t="n">
-        <v>0</v>
-      </c>
+      <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
       <c r="K255" t="inlineStr"/>
-      <c r="L255" t="inlineStr"/>
-      <c r="M255" t="n">
-        <v>1</v>
-      </c>
-      <c r="N255" t="inlineStr"/>
+      <c r="L255" t="n">
+        <v>1</v>
+      </c>
+      <c r="M255" t="inlineStr"/>
     </row>
     <row r="256">
       <c r="A256" s="1" t="n">
@@ -9602,16 +8835,13 @@
       <c r="H256" t="n">
         <v>0</v>
       </c>
-      <c r="I256" t="n">
-        <v>0</v>
-      </c>
+      <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
       <c r="K256" t="inlineStr"/>
-      <c r="L256" t="inlineStr"/>
-      <c r="M256" t="n">
-        <v>1</v>
-      </c>
-      <c r="N256" t="inlineStr"/>
+      <c r="L256" t="n">
+        <v>1</v>
+      </c>
+      <c r="M256" t="inlineStr"/>
     </row>
     <row r="257">
       <c r="A257" s="1" t="n">
@@ -9638,16 +8868,13 @@
       <c r="H257" t="n">
         <v>0</v>
       </c>
-      <c r="I257" t="n">
-        <v>0</v>
-      </c>
+      <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
       <c r="K257" t="inlineStr"/>
-      <c r="L257" t="inlineStr"/>
-      <c r="M257" t="n">
-        <v>1</v>
-      </c>
-      <c r="N257" t="inlineStr"/>
+      <c r="L257" t="n">
+        <v>1</v>
+      </c>
+      <c r="M257" t="inlineStr"/>
     </row>
     <row r="258">
       <c r="A258" s="1" t="n">
@@ -9674,16 +8901,13 @@
       <c r="H258" t="n">
         <v>0</v>
       </c>
-      <c r="I258" t="n">
-        <v>0</v>
-      </c>
+      <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
       <c r="K258" t="inlineStr"/>
-      <c r="L258" t="inlineStr"/>
-      <c r="M258" t="n">
-        <v>1</v>
-      </c>
-      <c r="N258" t="inlineStr"/>
+      <c r="L258" t="n">
+        <v>1</v>
+      </c>
+      <c r="M258" t="inlineStr"/>
     </row>
     <row r="259">
       <c r="A259" s="1" t="n">
@@ -9710,16 +8934,13 @@
       <c r="H259" t="n">
         <v>0</v>
       </c>
-      <c r="I259" t="n">
-        <v>0</v>
-      </c>
+      <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
       <c r="K259" t="inlineStr"/>
-      <c r="L259" t="inlineStr"/>
-      <c r="M259" t="n">
-        <v>1</v>
-      </c>
-      <c r="N259" t="inlineStr"/>
+      <c r="L259" t="n">
+        <v>1</v>
+      </c>
+      <c r="M259" t="inlineStr"/>
     </row>
     <row r="260">
       <c r="A260" s="1" t="n">
@@ -9746,16 +8967,13 @@
       <c r="H260" t="n">
         <v>0</v>
       </c>
-      <c r="I260" t="n">
-        <v>0</v>
-      </c>
+      <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
       <c r="K260" t="inlineStr"/>
-      <c r="L260" t="inlineStr"/>
-      <c r="M260" t="n">
-        <v>1</v>
-      </c>
-      <c r="N260" t="inlineStr"/>
+      <c r="L260" t="n">
+        <v>1</v>
+      </c>
+      <c r="M260" t="inlineStr"/>
     </row>
     <row r="261">
       <c r="A261" s="1" t="n">
@@ -9782,16 +9000,13 @@
       <c r="H261" t="n">
         <v>0</v>
       </c>
-      <c r="I261" t="n">
-        <v>0</v>
-      </c>
+      <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
       <c r="K261" t="inlineStr"/>
-      <c r="L261" t="inlineStr"/>
-      <c r="M261" t="n">
-        <v>1</v>
-      </c>
-      <c r="N261" t="inlineStr"/>
+      <c r="L261" t="n">
+        <v>1</v>
+      </c>
+      <c r="M261" t="inlineStr"/>
     </row>
     <row r="262">
       <c r="A262" s="1" t="n">
@@ -9818,16 +9033,13 @@
       <c r="H262" t="n">
         <v>0</v>
       </c>
-      <c r="I262" t="n">
-        <v>0</v>
-      </c>
+      <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
       <c r="K262" t="inlineStr"/>
-      <c r="L262" t="inlineStr"/>
-      <c r="M262" t="n">
-        <v>1</v>
-      </c>
-      <c r="N262" t="inlineStr"/>
+      <c r="L262" t="n">
+        <v>1</v>
+      </c>
+      <c r="M262" t="inlineStr"/>
     </row>
     <row r="263">
       <c r="A263" s="1" t="n">
@@ -9854,16 +9066,13 @@
       <c r="H263" t="n">
         <v>0</v>
       </c>
-      <c r="I263" t="n">
-        <v>0</v>
-      </c>
+      <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
       <c r="K263" t="inlineStr"/>
-      <c r="L263" t="inlineStr"/>
-      <c r="M263" t="n">
-        <v>1</v>
-      </c>
-      <c r="N263" t="inlineStr"/>
+      <c r="L263" t="n">
+        <v>1</v>
+      </c>
+      <c r="M263" t="inlineStr"/>
     </row>
     <row r="264">
       <c r="A264" s="1" t="n">
@@ -9890,16 +9099,13 @@
       <c r="H264" t="n">
         <v>0</v>
       </c>
-      <c r="I264" t="n">
-        <v>0</v>
-      </c>
+      <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
       <c r="K264" t="inlineStr"/>
-      <c r="L264" t="inlineStr"/>
-      <c r="M264" t="n">
-        <v>1</v>
-      </c>
-      <c r="N264" t="inlineStr"/>
+      <c r="L264" t="n">
+        <v>1</v>
+      </c>
+      <c r="M264" t="inlineStr"/>
     </row>
     <row r="265">
       <c r="A265" s="1" t="n">
@@ -9926,16 +9132,13 @@
       <c r="H265" t="n">
         <v>0</v>
       </c>
-      <c r="I265" t="n">
-        <v>0</v>
-      </c>
+      <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
       <c r="K265" t="inlineStr"/>
-      <c r="L265" t="inlineStr"/>
-      <c r="M265" t="n">
-        <v>1</v>
-      </c>
-      <c r="N265" t="inlineStr"/>
+      <c r="L265" t="n">
+        <v>1</v>
+      </c>
+      <c r="M265" t="inlineStr"/>
     </row>
     <row r="266">
       <c r="A266" s="1" t="n">
@@ -9962,16 +9165,13 @@
       <c r="H266" t="n">
         <v>0</v>
       </c>
-      <c r="I266" t="n">
-        <v>0</v>
-      </c>
+      <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
       <c r="K266" t="inlineStr"/>
-      <c r="L266" t="inlineStr"/>
-      <c r="M266" t="n">
-        <v>1</v>
-      </c>
-      <c r="N266" t="inlineStr"/>
+      <c r="L266" t="n">
+        <v>1</v>
+      </c>
+      <c r="M266" t="inlineStr"/>
     </row>
     <row r="267">
       <c r="A267" s="1" t="n">
@@ -9998,16 +9198,13 @@
       <c r="H267" t="n">
         <v>0</v>
       </c>
-      <c r="I267" t="n">
-        <v>0</v>
-      </c>
+      <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
       <c r="K267" t="inlineStr"/>
-      <c r="L267" t="inlineStr"/>
-      <c r="M267" t="n">
-        <v>1</v>
-      </c>
-      <c r="N267" t="inlineStr"/>
+      <c r="L267" t="n">
+        <v>1</v>
+      </c>
+      <c r="M267" t="inlineStr"/>
     </row>
     <row r="268">
       <c r="A268" s="1" t="n">
@@ -10034,16 +9231,13 @@
       <c r="H268" t="n">
         <v>0</v>
       </c>
-      <c r="I268" t="n">
-        <v>0</v>
-      </c>
+      <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
       <c r="K268" t="inlineStr"/>
-      <c r="L268" t="inlineStr"/>
-      <c r="M268" t="n">
-        <v>1</v>
-      </c>
-      <c r="N268" t="inlineStr"/>
+      <c r="L268" t="n">
+        <v>1</v>
+      </c>
+      <c r="M268" t="inlineStr"/>
     </row>
     <row r="269">
       <c r="A269" s="1" t="n">
@@ -10070,16 +9264,13 @@
       <c r="H269" t="n">
         <v>0</v>
       </c>
-      <c r="I269" t="n">
-        <v>0</v>
-      </c>
+      <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
       <c r="K269" t="inlineStr"/>
-      <c r="L269" t="inlineStr"/>
-      <c r="M269" t="n">
-        <v>1</v>
-      </c>
-      <c r="N269" t="inlineStr"/>
+      <c r="L269" t="n">
+        <v>1</v>
+      </c>
+      <c r="M269" t="inlineStr"/>
     </row>
     <row r="270">
       <c r="A270" s="1" t="n">
@@ -10106,16 +9297,13 @@
       <c r="H270" t="n">
         <v>0</v>
       </c>
-      <c r="I270" t="n">
-        <v>0</v>
-      </c>
+      <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
       <c r="K270" t="inlineStr"/>
-      <c r="L270" t="inlineStr"/>
-      <c r="M270" t="n">
-        <v>1</v>
-      </c>
-      <c r="N270" t="inlineStr"/>
+      <c r="L270" t="n">
+        <v>1</v>
+      </c>
+      <c r="M270" t="inlineStr"/>
     </row>
     <row r="271">
       <c r="A271" s="1" t="n">
@@ -10142,16 +9330,13 @@
       <c r="H271" t="n">
         <v>0</v>
       </c>
-      <c r="I271" t="n">
-        <v>0</v>
-      </c>
+      <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
       <c r="K271" t="inlineStr"/>
-      <c r="L271" t="inlineStr"/>
-      <c r="M271" t="n">
-        <v>1</v>
-      </c>
-      <c r="N271" t="inlineStr"/>
+      <c r="L271" t="n">
+        <v>1</v>
+      </c>
+      <c r="M271" t="inlineStr"/>
     </row>
     <row r="272">
       <c r="A272" s="1" t="n">
@@ -10178,16 +9363,13 @@
       <c r="H272" t="n">
         <v>0</v>
       </c>
-      <c r="I272" t="n">
-        <v>0</v>
-      </c>
+      <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
       <c r="K272" t="inlineStr"/>
-      <c r="L272" t="inlineStr"/>
-      <c r="M272" t="n">
-        <v>1</v>
-      </c>
-      <c r="N272" t="inlineStr"/>
+      <c r="L272" t="n">
+        <v>1</v>
+      </c>
+      <c r="M272" t="inlineStr"/>
     </row>
     <row r="273">
       <c r="A273" s="1" t="n">
@@ -10214,16 +9396,13 @@
       <c r="H273" t="n">
         <v>0</v>
       </c>
-      <c r="I273" t="n">
-        <v>0</v>
-      </c>
+      <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
       <c r="K273" t="inlineStr"/>
-      <c r="L273" t="inlineStr"/>
-      <c r="M273" t="n">
-        <v>1</v>
-      </c>
-      <c r="N273" t="inlineStr"/>
+      <c r="L273" t="n">
+        <v>1</v>
+      </c>
+      <c r="M273" t="inlineStr"/>
     </row>
     <row r="274">
       <c r="A274" s="1" t="n">
@@ -10250,16 +9429,13 @@
       <c r="H274" t="n">
         <v>0</v>
       </c>
-      <c r="I274" t="n">
-        <v>0</v>
-      </c>
+      <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
       <c r="K274" t="inlineStr"/>
-      <c r="L274" t="inlineStr"/>
-      <c r="M274" t="n">
-        <v>1</v>
-      </c>
-      <c r="N274" t="inlineStr"/>
+      <c r="L274" t="n">
+        <v>1</v>
+      </c>
+      <c r="M274" t="inlineStr"/>
     </row>
     <row r="275">
       <c r="A275" s="1" t="n">
@@ -10286,16 +9462,13 @@
       <c r="H275" t="n">
         <v>0</v>
       </c>
-      <c r="I275" t="n">
-        <v>0</v>
-      </c>
+      <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
       <c r="K275" t="inlineStr"/>
-      <c r="L275" t="inlineStr"/>
-      <c r="M275" t="n">
-        <v>1</v>
-      </c>
-      <c r="N275" t="inlineStr"/>
+      <c r="L275" t="n">
+        <v>1</v>
+      </c>
+      <c r="M275" t="inlineStr"/>
     </row>
     <row r="276">
       <c r="A276" s="1" t="n">
@@ -10322,16 +9495,13 @@
       <c r="H276" t="n">
         <v>0</v>
       </c>
-      <c r="I276" t="n">
-        <v>0</v>
-      </c>
+      <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
       <c r="K276" t="inlineStr"/>
-      <c r="L276" t="inlineStr"/>
-      <c r="M276" t="n">
-        <v>1</v>
-      </c>
-      <c r="N276" t="inlineStr"/>
+      <c r="L276" t="n">
+        <v>1</v>
+      </c>
+      <c r="M276" t="inlineStr"/>
     </row>
     <row r="277">
       <c r="A277" s="1" t="n">
@@ -10358,16 +9528,13 @@
       <c r="H277" t="n">
         <v>0</v>
       </c>
-      <c r="I277" t="n">
-        <v>0</v>
-      </c>
+      <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
       <c r="K277" t="inlineStr"/>
-      <c r="L277" t="inlineStr"/>
-      <c r="M277" t="n">
-        <v>1</v>
-      </c>
-      <c r="N277" t="inlineStr"/>
+      <c r="L277" t="n">
+        <v>1</v>
+      </c>
+      <c r="M277" t="inlineStr"/>
     </row>
     <row r="278">
       <c r="A278" s="1" t="n">
@@ -10394,16 +9561,13 @@
       <c r="H278" t="n">
         <v>0</v>
       </c>
-      <c r="I278" t="n">
-        <v>0</v>
-      </c>
+      <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
       <c r="K278" t="inlineStr"/>
-      <c r="L278" t="inlineStr"/>
-      <c r="M278" t="n">
-        <v>1</v>
-      </c>
-      <c r="N278" t="inlineStr"/>
+      <c r="L278" t="n">
+        <v>1</v>
+      </c>
+      <c r="M278" t="inlineStr"/>
     </row>
     <row r="279">
       <c r="A279" s="1" t="n">
@@ -10430,16 +9594,13 @@
       <c r="H279" t="n">
         <v>0</v>
       </c>
-      <c r="I279" t="n">
-        <v>0</v>
-      </c>
+      <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
       <c r="K279" t="inlineStr"/>
-      <c r="L279" t="inlineStr"/>
-      <c r="M279" t="n">
-        <v>1</v>
-      </c>
-      <c r="N279" t="inlineStr"/>
+      <c r="L279" t="n">
+        <v>1</v>
+      </c>
+      <c r="M279" t="inlineStr"/>
     </row>
     <row r="280">
       <c r="A280" s="1" t="n">
@@ -10466,16 +9627,13 @@
       <c r="H280" t="n">
         <v>0</v>
       </c>
-      <c r="I280" t="n">
-        <v>0</v>
-      </c>
+      <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
       <c r="K280" t="inlineStr"/>
-      <c r="L280" t="inlineStr"/>
-      <c r="M280" t="n">
-        <v>1</v>
-      </c>
-      <c r="N280" t="inlineStr"/>
+      <c r="L280" t="n">
+        <v>1</v>
+      </c>
+      <c r="M280" t="inlineStr"/>
     </row>
     <row r="281">
       <c r="A281" s="1" t="n">
@@ -10502,16 +9660,13 @@
       <c r="H281" t="n">
         <v>0</v>
       </c>
-      <c r="I281" t="n">
-        <v>0</v>
-      </c>
+      <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
       <c r="K281" t="inlineStr"/>
-      <c r="L281" t="inlineStr"/>
-      <c r="M281" t="n">
-        <v>1</v>
-      </c>
-      <c r="N281" t="inlineStr"/>
+      <c r="L281" t="n">
+        <v>1</v>
+      </c>
+      <c r="M281" t="inlineStr"/>
     </row>
     <row r="282">
       <c r="A282" s="1" t="n">
@@ -10538,16 +9693,13 @@
       <c r="H282" t="n">
         <v>0</v>
       </c>
-      <c r="I282" t="n">
-        <v>0</v>
-      </c>
+      <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
       <c r="K282" t="inlineStr"/>
-      <c r="L282" t="inlineStr"/>
-      <c r="M282" t="n">
-        <v>1</v>
-      </c>
-      <c r="N282" t="inlineStr"/>
+      <c r="L282" t="n">
+        <v>1</v>
+      </c>
+      <c r="M282" t="inlineStr"/>
     </row>
     <row r="283">
       <c r="A283" s="1" t="n">
@@ -10574,16 +9726,13 @@
       <c r="H283" t="n">
         <v>0</v>
       </c>
-      <c r="I283" t="n">
-        <v>0</v>
-      </c>
+      <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
       <c r="K283" t="inlineStr"/>
-      <c r="L283" t="inlineStr"/>
-      <c r="M283" t="n">
-        <v>1</v>
-      </c>
-      <c r="N283" t="inlineStr"/>
+      <c r="L283" t="n">
+        <v>1</v>
+      </c>
+      <c r="M283" t="inlineStr"/>
     </row>
     <row r="284">
       <c r="A284" s="1" t="n">
@@ -10610,16 +9759,13 @@
       <c r="H284" t="n">
         <v>0</v>
       </c>
-      <c r="I284" t="n">
-        <v>0</v>
-      </c>
+      <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
       <c r="K284" t="inlineStr"/>
-      <c r="L284" t="inlineStr"/>
-      <c r="M284" t="n">
-        <v>1</v>
-      </c>
-      <c r="N284" t="inlineStr"/>
+      <c r="L284" t="n">
+        <v>1</v>
+      </c>
+      <c r="M284" t="inlineStr"/>
     </row>
     <row r="285">
       <c r="A285" s="1" t="n">
@@ -10646,16 +9792,13 @@
       <c r="H285" t="n">
         <v>0</v>
       </c>
-      <c r="I285" t="n">
-        <v>0</v>
-      </c>
+      <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
       <c r="K285" t="inlineStr"/>
-      <c r="L285" t="inlineStr"/>
-      <c r="M285" t="n">
-        <v>1</v>
-      </c>
-      <c r="N285" t="inlineStr"/>
+      <c r="L285" t="n">
+        <v>1</v>
+      </c>
+      <c r="M285" t="inlineStr"/>
     </row>
     <row r="286">
       <c r="A286" s="1" t="n">
@@ -10682,16 +9825,13 @@
       <c r="H286" t="n">
         <v>0</v>
       </c>
-      <c r="I286" t="n">
-        <v>0</v>
-      </c>
+      <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
       <c r="K286" t="inlineStr"/>
-      <c r="L286" t="inlineStr"/>
-      <c r="M286" t="n">
-        <v>1</v>
-      </c>
-      <c r="N286" t="inlineStr"/>
+      <c r="L286" t="n">
+        <v>1</v>
+      </c>
+      <c r="M286" t="inlineStr"/>
     </row>
     <row r="287">
       <c r="A287" s="1" t="n">
@@ -10718,16 +9858,13 @@
       <c r="H287" t="n">
         <v>0</v>
       </c>
-      <c r="I287" t="n">
-        <v>0</v>
-      </c>
+      <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
       <c r="K287" t="inlineStr"/>
-      <c r="L287" t="inlineStr"/>
-      <c r="M287" t="n">
-        <v>1</v>
-      </c>
-      <c r="N287" t="inlineStr"/>
+      <c r="L287" t="n">
+        <v>1</v>
+      </c>
+      <c r="M287" t="inlineStr"/>
     </row>
     <row r="288">
       <c r="A288" s="1" t="n">
@@ -10754,16 +9891,13 @@
       <c r="H288" t="n">
         <v>0</v>
       </c>
-      <c r="I288" t="n">
-        <v>0</v>
-      </c>
+      <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
       <c r="K288" t="inlineStr"/>
-      <c r="L288" t="inlineStr"/>
-      <c r="M288" t="n">
-        <v>1</v>
-      </c>
-      <c r="N288" t="inlineStr"/>
+      <c r="L288" t="n">
+        <v>1</v>
+      </c>
+      <c r="M288" t="inlineStr"/>
     </row>
     <row r="289">
       <c r="A289" s="1" t="n">
@@ -10790,16 +9924,13 @@
       <c r="H289" t="n">
         <v>0</v>
       </c>
-      <c r="I289" t="n">
-        <v>0</v>
-      </c>
+      <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
       <c r="K289" t="inlineStr"/>
-      <c r="L289" t="inlineStr"/>
-      <c r="M289" t="n">
-        <v>1</v>
-      </c>
-      <c r="N289" t="inlineStr"/>
+      <c r="L289" t="n">
+        <v>1</v>
+      </c>
+      <c r="M289" t="inlineStr"/>
     </row>
     <row r="290">
       <c r="A290" s="1" t="n">
@@ -10826,16 +9957,13 @@
       <c r="H290" t="n">
         <v>0</v>
       </c>
-      <c r="I290" t="n">
-        <v>0</v>
-      </c>
+      <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
       <c r="K290" t="inlineStr"/>
-      <c r="L290" t="inlineStr"/>
-      <c r="M290" t="n">
-        <v>1</v>
-      </c>
-      <c r="N290" t="inlineStr"/>
+      <c r="L290" t="n">
+        <v>1</v>
+      </c>
+      <c r="M290" t="inlineStr"/>
     </row>
     <row r="291">
       <c r="A291" s="1" t="n">
@@ -10862,16 +9990,13 @@
       <c r="H291" t="n">
         <v>0</v>
       </c>
-      <c r="I291" t="n">
-        <v>0</v>
-      </c>
+      <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
       <c r="K291" t="inlineStr"/>
-      <c r="L291" t="inlineStr"/>
-      <c r="M291" t="n">
-        <v>1</v>
-      </c>
-      <c r="N291" t="inlineStr"/>
+      <c r="L291" t="n">
+        <v>1</v>
+      </c>
+      <c r="M291" t="inlineStr"/>
     </row>
     <row r="292">
       <c r="A292" s="1" t="n">
@@ -10898,16 +10023,13 @@
       <c r="H292" t="n">
         <v>0</v>
       </c>
-      <c r="I292" t="n">
-        <v>0</v>
-      </c>
+      <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
       <c r="K292" t="inlineStr"/>
-      <c r="L292" t="inlineStr"/>
-      <c r="M292" t="n">
-        <v>1</v>
-      </c>
-      <c r="N292" t="inlineStr"/>
+      <c r="L292" t="n">
+        <v>1</v>
+      </c>
+      <c r="M292" t="inlineStr"/>
     </row>
     <row r="293">
       <c r="A293" s="1" t="n">
@@ -10934,16 +10056,13 @@
       <c r="H293" t="n">
         <v>0</v>
       </c>
-      <c r="I293" t="n">
-        <v>0</v>
-      </c>
+      <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
       <c r="K293" t="inlineStr"/>
-      <c r="L293" t="inlineStr"/>
-      <c r="M293" t="n">
-        <v>1</v>
-      </c>
-      <c r="N293" t="inlineStr"/>
+      <c r="L293" t="n">
+        <v>1</v>
+      </c>
+      <c r="M293" t="inlineStr"/>
     </row>
     <row r="294">
       <c r="A294" s="1" t="n">
@@ -10970,16 +10089,13 @@
       <c r="H294" t="n">
         <v>0</v>
       </c>
-      <c r="I294" t="n">
-        <v>0</v>
-      </c>
+      <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
       <c r="K294" t="inlineStr"/>
-      <c r="L294" t="inlineStr"/>
-      <c r="M294" t="n">
-        <v>1</v>
-      </c>
-      <c r="N294" t="inlineStr"/>
+      <c r="L294" t="n">
+        <v>1</v>
+      </c>
+      <c r="M294" t="inlineStr"/>
     </row>
     <row r="295">
       <c r="A295" s="1" t="n">
@@ -11006,16 +10122,13 @@
       <c r="H295" t="n">
         <v>0</v>
       </c>
-      <c r="I295" t="n">
-        <v>0</v>
-      </c>
+      <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
       <c r="K295" t="inlineStr"/>
-      <c r="L295" t="inlineStr"/>
-      <c r="M295" t="n">
-        <v>1</v>
-      </c>
-      <c r="N295" t="inlineStr"/>
+      <c r="L295" t="n">
+        <v>1</v>
+      </c>
+      <c r="M295" t="inlineStr"/>
     </row>
     <row r="296">
       <c r="A296" s="1" t="n">
@@ -11042,16 +10155,13 @@
       <c r="H296" t="n">
         <v>0</v>
       </c>
-      <c r="I296" t="n">
-        <v>0</v>
-      </c>
+      <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
       <c r="K296" t="inlineStr"/>
-      <c r="L296" t="inlineStr"/>
-      <c r="M296" t="n">
-        <v>1</v>
-      </c>
-      <c r="N296" t="inlineStr"/>
+      <c r="L296" t="n">
+        <v>1</v>
+      </c>
+      <c r="M296" t="inlineStr"/>
     </row>
     <row r="297">
       <c r="A297" s="1" t="n">
@@ -11078,16 +10188,13 @@
       <c r="H297" t="n">
         <v>0</v>
       </c>
-      <c r="I297" t="n">
-        <v>0</v>
-      </c>
+      <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
       <c r="K297" t="inlineStr"/>
-      <c r="L297" t="inlineStr"/>
-      <c r="M297" t="n">
-        <v>1</v>
-      </c>
-      <c r="N297" t="inlineStr"/>
+      <c r="L297" t="n">
+        <v>1</v>
+      </c>
+      <c r="M297" t="inlineStr"/>
     </row>
     <row r="298">
       <c r="A298" s="1" t="n">
@@ -11114,16 +10221,13 @@
       <c r="H298" t="n">
         <v>0</v>
       </c>
-      <c r="I298" t="n">
-        <v>0</v>
-      </c>
+      <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
       <c r="K298" t="inlineStr"/>
-      <c r="L298" t="inlineStr"/>
-      <c r="M298" t="n">
-        <v>1</v>
-      </c>
-      <c r="N298" t="inlineStr"/>
+      <c r="L298" t="n">
+        <v>1</v>
+      </c>
+      <c r="M298" t="inlineStr"/>
     </row>
     <row r="299">
       <c r="A299" s="1" t="n">
@@ -11150,16 +10254,13 @@
       <c r="H299" t="n">
         <v>0</v>
       </c>
-      <c r="I299" t="n">
-        <v>0</v>
-      </c>
+      <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
       <c r="K299" t="inlineStr"/>
-      <c r="L299" t="inlineStr"/>
-      <c r="M299" t="n">
-        <v>1</v>
-      </c>
-      <c r="N299" t="inlineStr"/>
+      <c r="L299" t="n">
+        <v>1</v>
+      </c>
+      <c r="M299" t="inlineStr"/>
     </row>
     <row r="300">
       <c r="A300" s="1" t="n">
@@ -11186,16 +10287,13 @@
       <c r="H300" t="n">
         <v>0</v>
       </c>
-      <c r="I300" t="n">
-        <v>0</v>
-      </c>
+      <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
       <c r="K300" t="inlineStr"/>
-      <c r="L300" t="inlineStr"/>
-      <c r="M300" t="n">
-        <v>1</v>
-      </c>
-      <c r="N300" t="inlineStr"/>
+      <c r="L300" t="n">
+        <v>1</v>
+      </c>
+      <c r="M300" t="inlineStr"/>
     </row>
     <row r="301">
       <c r="A301" s="1" t="n">
@@ -11222,16 +10320,13 @@
       <c r="H301" t="n">
         <v>0</v>
       </c>
-      <c r="I301" t="n">
-        <v>0</v>
-      </c>
+      <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
       <c r="K301" t="inlineStr"/>
-      <c r="L301" t="inlineStr"/>
-      <c r="M301" t="n">
-        <v>1</v>
-      </c>
-      <c r="N301" t="inlineStr"/>
+      <c r="L301" t="n">
+        <v>1</v>
+      </c>
+      <c r="M301" t="inlineStr"/>
     </row>
     <row r="302">
       <c r="A302" s="1" t="n">
@@ -11258,16 +10353,13 @@
       <c r="H302" t="n">
         <v>0</v>
       </c>
-      <c r="I302" t="n">
-        <v>0</v>
-      </c>
+      <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
       <c r="K302" t="inlineStr"/>
-      <c r="L302" t="inlineStr"/>
-      <c r="M302" t="n">
-        <v>1</v>
-      </c>
-      <c r="N302" t="inlineStr"/>
+      <c r="L302" t="n">
+        <v>1</v>
+      </c>
+      <c r="M302" t="inlineStr"/>
     </row>
     <row r="303">
       <c r="A303" s="1" t="n">
@@ -11294,16 +10386,13 @@
       <c r="H303" t="n">
         <v>0</v>
       </c>
-      <c r="I303" t="n">
-        <v>0</v>
-      </c>
+      <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
       <c r="K303" t="inlineStr"/>
-      <c r="L303" t="inlineStr"/>
-      <c r="M303" t="n">
-        <v>1</v>
-      </c>
-      <c r="N303" t="inlineStr"/>
+      <c r="L303" t="n">
+        <v>1</v>
+      </c>
+      <c r="M303" t="inlineStr"/>
     </row>
     <row r="304">
       <c r="A304" s="1" t="n">
@@ -11330,16 +10419,13 @@
       <c r="H304" t="n">
         <v>0</v>
       </c>
-      <c r="I304" t="n">
-        <v>0</v>
-      </c>
+      <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
       <c r="K304" t="inlineStr"/>
-      <c r="L304" t="inlineStr"/>
-      <c r="M304" t="n">
-        <v>1</v>
-      </c>
-      <c r="N304" t="inlineStr"/>
+      <c r="L304" t="n">
+        <v>1</v>
+      </c>
+      <c r="M304" t="inlineStr"/>
     </row>
     <row r="305">
       <c r="A305" s="1" t="n">
@@ -11366,16 +10452,13 @@
       <c r="H305" t="n">
         <v>0</v>
       </c>
-      <c r="I305" t="n">
-        <v>0</v>
-      </c>
+      <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
       <c r="K305" t="inlineStr"/>
-      <c r="L305" t="inlineStr"/>
-      <c r="M305" t="n">
-        <v>1</v>
-      </c>
-      <c r="N305" t="inlineStr"/>
+      <c r="L305" t="n">
+        <v>1</v>
+      </c>
+      <c r="M305" t="inlineStr"/>
     </row>
     <row r="306">
       <c r="A306" s="1" t="n">
@@ -11402,16 +10485,13 @@
       <c r="H306" t="n">
         <v>0</v>
       </c>
-      <c r="I306" t="n">
-        <v>0</v>
-      </c>
+      <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
       <c r="K306" t="inlineStr"/>
-      <c r="L306" t="inlineStr"/>
-      <c r="M306" t="n">
-        <v>1</v>
-      </c>
-      <c r="N306" t="inlineStr"/>
+      <c r="L306" t="n">
+        <v>1</v>
+      </c>
+      <c r="M306" t="inlineStr"/>
     </row>
     <row r="307">
       <c r="A307" s="1" t="n">
@@ -11438,16 +10518,13 @@
       <c r="H307" t="n">
         <v>0</v>
       </c>
-      <c r="I307" t="n">
-        <v>0</v>
-      </c>
+      <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
       <c r="K307" t="inlineStr"/>
-      <c r="L307" t="inlineStr"/>
-      <c r="M307" t="n">
-        <v>1</v>
-      </c>
-      <c r="N307" t="inlineStr"/>
+      <c r="L307" t="n">
+        <v>1</v>
+      </c>
+      <c r="M307" t="inlineStr"/>
     </row>
     <row r="308">
       <c r="A308" s="1" t="n">
@@ -11474,16 +10551,13 @@
       <c r="H308" t="n">
         <v>0</v>
       </c>
-      <c r="I308" t="n">
-        <v>0</v>
-      </c>
+      <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
       <c r="K308" t="inlineStr"/>
-      <c r="L308" t="inlineStr"/>
-      <c r="M308" t="n">
-        <v>1</v>
-      </c>
-      <c r="N308" t="inlineStr"/>
+      <c r="L308" t="n">
+        <v>1</v>
+      </c>
+      <c r="M308" t="inlineStr"/>
     </row>
     <row r="309">
       <c r="A309" s="1" t="n">
@@ -11510,16 +10584,13 @@
       <c r="H309" t="n">
         <v>0</v>
       </c>
-      <c r="I309" t="n">
-        <v>0</v>
-      </c>
+      <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
       <c r="K309" t="inlineStr"/>
-      <c r="L309" t="inlineStr"/>
-      <c r="M309" t="n">
-        <v>1</v>
-      </c>
-      <c r="N309" t="inlineStr"/>
+      <c r="L309" t="n">
+        <v>1</v>
+      </c>
+      <c r="M309" t="inlineStr"/>
     </row>
     <row r="310">
       <c r="A310" s="1" t="n">
@@ -11546,16 +10617,13 @@
       <c r="H310" t="n">
         <v>0</v>
       </c>
-      <c r="I310" t="n">
-        <v>0</v>
-      </c>
+      <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
       <c r="K310" t="inlineStr"/>
-      <c r="L310" t="inlineStr"/>
-      <c r="M310" t="n">
-        <v>1</v>
-      </c>
-      <c r="N310" t="inlineStr"/>
+      <c r="L310" t="n">
+        <v>1</v>
+      </c>
+      <c r="M310" t="inlineStr"/>
     </row>
     <row r="311">
       <c r="A311" s="1" t="n">
@@ -11582,16 +10650,13 @@
       <c r="H311" t="n">
         <v>0</v>
       </c>
-      <c r="I311" t="n">
-        <v>0</v>
-      </c>
+      <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
       <c r="K311" t="inlineStr"/>
-      <c r="L311" t="inlineStr"/>
-      <c r="M311" t="n">
-        <v>1</v>
-      </c>
-      <c r="N311" t="inlineStr"/>
+      <c r="L311" t="n">
+        <v>1</v>
+      </c>
+      <c r="M311" t="inlineStr"/>
     </row>
     <row r="312">
       <c r="A312" s="1" t="n">
@@ -11618,16 +10683,13 @@
       <c r="H312" t="n">
         <v>0</v>
       </c>
-      <c r="I312" t="n">
-        <v>0</v>
-      </c>
+      <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
       <c r="K312" t="inlineStr"/>
-      <c r="L312" t="inlineStr"/>
-      <c r="M312" t="n">
-        <v>1</v>
-      </c>
-      <c r="N312" t="inlineStr"/>
+      <c r="L312" t="n">
+        <v>1</v>
+      </c>
+      <c r="M312" t="inlineStr"/>
     </row>
     <row r="313">
       <c r="A313" s="1" t="n">
@@ -11654,16 +10716,13 @@
       <c r="H313" t="n">
         <v>0</v>
       </c>
-      <c r="I313" t="n">
-        <v>0</v>
-      </c>
+      <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
       <c r="K313" t="inlineStr"/>
-      <c r="L313" t="inlineStr"/>
-      <c r="M313" t="n">
-        <v>1</v>
-      </c>
-      <c r="N313" t="inlineStr"/>
+      <c r="L313" t="n">
+        <v>1</v>
+      </c>
+      <c r="M313" t="inlineStr"/>
     </row>
     <row r="314">
       <c r="A314" s="1" t="n">
@@ -11690,16 +10749,13 @@
       <c r="H314" t="n">
         <v>0</v>
       </c>
-      <c r="I314" t="n">
-        <v>0</v>
-      </c>
+      <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
       <c r="K314" t="inlineStr"/>
-      <c r="L314" t="inlineStr"/>
-      <c r="M314" t="n">
-        <v>1</v>
-      </c>
-      <c r="N314" t="inlineStr"/>
+      <c r="L314" t="n">
+        <v>1</v>
+      </c>
+      <c r="M314" t="inlineStr"/>
     </row>
     <row r="315">
       <c r="A315" s="1" t="n">
@@ -11726,16 +10782,13 @@
       <c r="H315" t="n">
         <v>0</v>
       </c>
-      <c r="I315" t="n">
-        <v>0</v>
-      </c>
+      <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
       <c r="K315" t="inlineStr"/>
-      <c r="L315" t="inlineStr"/>
-      <c r="M315" t="n">
-        <v>1</v>
-      </c>
-      <c r="N315" t="inlineStr"/>
+      <c r="L315" t="n">
+        <v>1</v>
+      </c>
+      <c r="M315" t="inlineStr"/>
     </row>
     <row r="316">
       <c r="A316" s="1" t="n">
@@ -11762,16 +10815,13 @@
       <c r="H316" t="n">
         <v>0</v>
       </c>
-      <c r="I316" t="n">
-        <v>0</v>
-      </c>
+      <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
       <c r="K316" t="inlineStr"/>
-      <c r="L316" t="inlineStr"/>
-      <c r="M316" t="n">
-        <v>1</v>
-      </c>
-      <c r="N316" t="inlineStr"/>
+      <c r="L316" t="n">
+        <v>1</v>
+      </c>
+      <c r="M316" t="inlineStr"/>
     </row>
     <row r="317">
       <c r="A317" s="1" t="n">
@@ -11798,16 +10848,13 @@
       <c r="H317" t="n">
         <v>0</v>
       </c>
-      <c r="I317" t="n">
-        <v>0</v>
-      </c>
+      <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
       <c r="K317" t="inlineStr"/>
-      <c r="L317" t="inlineStr"/>
-      <c r="M317" t="n">
-        <v>1</v>
-      </c>
-      <c r="N317" t="inlineStr"/>
+      <c r="L317" t="n">
+        <v>1</v>
+      </c>
+      <c r="M317" t="inlineStr"/>
     </row>
     <row r="318">
       <c r="A318" s="1" t="n">
@@ -11834,16 +10881,13 @@
       <c r="H318" t="n">
         <v>0</v>
       </c>
-      <c r="I318" t="n">
-        <v>0</v>
-      </c>
+      <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
       <c r="K318" t="inlineStr"/>
-      <c r="L318" t="inlineStr"/>
-      <c r="M318" t="n">
-        <v>1</v>
-      </c>
-      <c r="N318" t="inlineStr"/>
+      <c r="L318" t="n">
+        <v>1</v>
+      </c>
+      <c r="M318" t="inlineStr"/>
     </row>
     <row r="319">
       <c r="A319" s="1" t="n">
@@ -11870,16 +10914,13 @@
       <c r="H319" t="n">
         <v>0</v>
       </c>
-      <c r="I319" t="n">
-        <v>0</v>
-      </c>
+      <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
       <c r="K319" t="inlineStr"/>
-      <c r="L319" t="inlineStr"/>
-      <c r="M319" t="n">
-        <v>1</v>
-      </c>
-      <c r="N319" t="inlineStr"/>
+      <c r="L319" t="n">
+        <v>1</v>
+      </c>
+      <c r="M319" t="inlineStr"/>
     </row>
     <row r="320">
       <c r="A320" s="1" t="n">
@@ -11906,16 +10947,13 @@
       <c r="H320" t="n">
         <v>0</v>
       </c>
-      <c r="I320" t="n">
-        <v>0</v>
-      </c>
+      <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
       <c r="K320" t="inlineStr"/>
-      <c r="L320" t="inlineStr"/>
-      <c r="M320" t="n">
-        <v>1</v>
-      </c>
-      <c r="N320" t="inlineStr"/>
+      <c r="L320" t="n">
+        <v>1</v>
+      </c>
+      <c r="M320" t="inlineStr"/>
     </row>
     <row r="321">
       <c r="A321" s="1" t="n">
@@ -11942,16 +10980,13 @@
       <c r="H321" t="n">
         <v>0</v>
       </c>
-      <c r="I321" t="n">
-        <v>0</v>
-      </c>
+      <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
       <c r="K321" t="inlineStr"/>
-      <c r="L321" t="inlineStr"/>
-      <c r="M321" t="n">
-        <v>1</v>
-      </c>
-      <c r="N321" t="inlineStr"/>
+      <c r="L321" t="n">
+        <v>1</v>
+      </c>
+      <c r="M321" t="inlineStr"/>
     </row>
     <row r="322">
       <c r="A322" s="1" t="n">
@@ -11978,16 +11013,13 @@
       <c r="H322" t="n">
         <v>0</v>
       </c>
-      <c r="I322" t="n">
-        <v>0</v>
-      </c>
+      <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
       <c r="K322" t="inlineStr"/>
-      <c r="L322" t="inlineStr"/>
-      <c r="M322" t="n">
-        <v>1</v>
-      </c>
-      <c r="N322" t="inlineStr"/>
+      <c r="L322" t="n">
+        <v>1</v>
+      </c>
+      <c r="M322" t="inlineStr"/>
     </row>
     <row r="323">
       <c r="A323" s="1" t="n">
@@ -12014,16 +11046,13 @@
       <c r="H323" t="n">
         <v>0</v>
       </c>
-      <c r="I323" t="n">
-        <v>0</v>
-      </c>
+      <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
       <c r="K323" t="inlineStr"/>
-      <c r="L323" t="inlineStr"/>
-      <c r="M323" t="n">
-        <v>1</v>
-      </c>
-      <c r="N323" t="inlineStr"/>
+      <c r="L323" t="n">
+        <v>1</v>
+      </c>
+      <c r="M323" t="inlineStr"/>
     </row>
     <row r="324">
       <c r="A324" s="1" t="n">
@@ -12050,16 +11079,13 @@
       <c r="H324" t="n">
         <v>0</v>
       </c>
-      <c r="I324" t="n">
-        <v>0</v>
-      </c>
+      <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
       <c r="K324" t="inlineStr"/>
-      <c r="L324" t="inlineStr"/>
-      <c r="M324" t="n">
-        <v>1</v>
-      </c>
-      <c r="N324" t="inlineStr"/>
+      <c r="L324" t="n">
+        <v>1</v>
+      </c>
+      <c r="M324" t="inlineStr"/>
     </row>
     <row r="325">
       <c r="A325" s="1" t="n">
@@ -12086,16 +11112,13 @@
       <c r="H325" t="n">
         <v>0</v>
       </c>
-      <c r="I325" t="n">
-        <v>0</v>
-      </c>
+      <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
       <c r="K325" t="inlineStr"/>
-      <c r="L325" t="inlineStr"/>
-      <c r="M325" t="n">
-        <v>1</v>
-      </c>
-      <c r="N325" t="inlineStr"/>
+      <c r="L325" t="n">
+        <v>1</v>
+      </c>
+      <c r="M325" t="inlineStr"/>
     </row>
     <row r="326">
       <c r="A326" s="1" t="n">
@@ -12122,16 +11145,13 @@
       <c r="H326" t="n">
         <v>0</v>
       </c>
-      <c r="I326" t="n">
-        <v>0</v>
-      </c>
+      <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
       <c r="K326" t="inlineStr"/>
-      <c r="L326" t="inlineStr"/>
-      <c r="M326" t="n">
-        <v>1</v>
-      </c>
-      <c r="N326" t="inlineStr"/>
+      <c r="L326" t="n">
+        <v>1</v>
+      </c>
+      <c r="M326" t="inlineStr"/>
     </row>
     <row r="327">
       <c r="A327" s="1" t="n">
@@ -12158,16 +11178,13 @@
       <c r="H327" t="n">
         <v>0</v>
       </c>
-      <c r="I327" t="n">
-        <v>0</v>
-      </c>
+      <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
       <c r="K327" t="inlineStr"/>
-      <c r="L327" t="inlineStr"/>
-      <c r="M327" t="n">
-        <v>1</v>
-      </c>
-      <c r="N327" t="inlineStr"/>
+      <c r="L327" t="n">
+        <v>1</v>
+      </c>
+      <c r="M327" t="inlineStr"/>
     </row>
     <row r="328">
       <c r="A328" s="1" t="n">
@@ -12194,16 +11211,13 @@
       <c r="H328" t="n">
         <v>0</v>
       </c>
-      <c r="I328" t="n">
-        <v>0</v>
-      </c>
+      <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
       <c r="K328" t="inlineStr"/>
-      <c r="L328" t="inlineStr"/>
-      <c r="M328" t="n">
-        <v>1</v>
-      </c>
-      <c r="N328" t="inlineStr"/>
+      <c r="L328" t="n">
+        <v>1</v>
+      </c>
+      <c r="M328" t="inlineStr"/>
     </row>
     <row r="329">
       <c r="A329" s="1" t="n">
@@ -12230,16 +11244,13 @@
       <c r="H329" t="n">
         <v>0</v>
       </c>
-      <c r="I329" t="n">
-        <v>0</v>
-      </c>
+      <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
       <c r="K329" t="inlineStr"/>
-      <c r="L329" t="inlineStr"/>
-      <c r="M329" t="n">
-        <v>1</v>
-      </c>
-      <c r="N329" t="inlineStr"/>
+      <c r="L329" t="n">
+        <v>1</v>
+      </c>
+      <c r="M329" t="inlineStr"/>
     </row>
     <row r="330">
       <c r="A330" s="1" t="n">
@@ -12266,16 +11277,13 @@
       <c r="H330" t="n">
         <v>0</v>
       </c>
-      <c r="I330" t="n">
-        <v>0</v>
-      </c>
+      <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
       <c r="K330" t="inlineStr"/>
-      <c r="L330" t="inlineStr"/>
-      <c r="M330" t="n">
-        <v>1</v>
-      </c>
-      <c r="N330" t="inlineStr"/>
+      <c r="L330" t="n">
+        <v>1</v>
+      </c>
+      <c r="M330" t="inlineStr"/>
     </row>
     <row r="331">
       <c r="A331" s="1" t="n">
@@ -12302,16 +11310,13 @@
       <c r="H331" t="n">
         <v>0</v>
       </c>
-      <c r="I331" t="n">
-        <v>0</v>
-      </c>
+      <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
       <c r="K331" t="inlineStr"/>
-      <c r="L331" t="inlineStr"/>
-      <c r="M331" t="n">
-        <v>1</v>
-      </c>
-      <c r="N331" t="inlineStr"/>
+      <c r="L331" t="n">
+        <v>1</v>
+      </c>
+      <c r="M331" t="inlineStr"/>
     </row>
     <row r="332">
       <c r="A332" s="1" t="n">
@@ -12338,16 +11343,13 @@
       <c r="H332" t="n">
         <v>0</v>
       </c>
-      <c r="I332" t="n">
-        <v>0</v>
-      </c>
+      <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
       <c r="K332" t="inlineStr"/>
-      <c r="L332" t="inlineStr"/>
-      <c r="M332" t="n">
-        <v>1</v>
-      </c>
-      <c r="N332" t="inlineStr"/>
+      <c r="L332" t="n">
+        <v>1</v>
+      </c>
+      <c r="M332" t="inlineStr"/>
     </row>
     <row r="333">
       <c r="A333" s="1" t="n">
@@ -12374,16 +11376,13 @@
       <c r="H333" t="n">
         <v>0</v>
       </c>
-      <c r="I333" t="n">
-        <v>0</v>
-      </c>
+      <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
       <c r="K333" t="inlineStr"/>
-      <c r="L333" t="inlineStr"/>
-      <c r="M333" t="n">
-        <v>1</v>
-      </c>
-      <c r="N333" t="inlineStr"/>
+      <c r="L333" t="n">
+        <v>1</v>
+      </c>
+      <c r="M333" t="inlineStr"/>
     </row>
     <row r="334">
       <c r="A334" s="1" t="n">
@@ -12410,16 +11409,13 @@
       <c r="H334" t="n">
         <v>0</v>
       </c>
-      <c r="I334" t="n">
-        <v>0</v>
-      </c>
+      <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
       <c r="K334" t="inlineStr"/>
-      <c r="L334" t="inlineStr"/>
-      <c r="M334" t="n">
-        <v>1</v>
-      </c>
-      <c r="N334" t="inlineStr"/>
+      <c r="L334" t="n">
+        <v>1</v>
+      </c>
+      <c r="M334" t="inlineStr"/>
     </row>
     <row r="335">
       <c r="A335" s="1" t="n">
@@ -12446,16 +11442,13 @@
       <c r="H335" t="n">
         <v>0</v>
       </c>
-      <c r="I335" t="n">
-        <v>0</v>
-      </c>
+      <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
       <c r="K335" t="inlineStr"/>
-      <c r="L335" t="inlineStr"/>
-      <c r="M335" t="n">
-        <v>1</v>
-      </c>
-      <c r="N335" t="inlineStr"/>
+      <c r="L335" t="n">
+        <v>1</v>
+      </c>
+      <c r="M335" t="inlineStr"/>
     </row>
     <row r="336">
       <c r="A336" s="1" t="n">
@@ -12482,16 +11475,13 @@
       <c r="H336" t="n">
         <v>0</v>
       </c>
-      <c r="I336" t="n">
-        <v>0</v>
-      </c>
+      <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
       <c r="K336" t="inlineStr"/>
-      <c r="L336" t="inlineStr"/>
-      <c r="M336" t="n">
-        <v>1</v>
-      </c>
-      <c r="N336" t="inlineStr"/>
+      <c r="L336" t="n">
+        <v>1</v>
+      </c>
+      <c r="M336" t="inlineStr"/>
     </row>
     <row r="337">
       <c r="A337" s="1" t="n">
@@ -12518,16 +11508,13 @@
       <c r="H337" t="n">
         <v>0</v>
       </c>
-      <c r="I337" t="n">
-        <v>0</v>
-      </c>
+      <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
       <c r="K337" t="inlineStr"/>
-      <c r="L337" t="inlineStr"/>
-      <c r="M337" t="n">
-        <v>1</v>
-      </c>
-      <c r="N337" t="inlineStr"/>
+      <c r="L337" t="n">
+        <v>1</v>
+      </c>
+      <c r="M337" t="inlineStr"/>
     </row>
     <row r="338">
       <c r="A338" s="1" t="n">
@@ -12554,16 +11541,13 @@
       <c r="H338" t="n">
         <v>0</v>
       </c>
-      <c r="I338" t="n">
-        <v>0</v>
-      </c>
+      <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
       <c r="K338" t="inlineStr"/>
-      <c r="L338" t="inlineStr"/>
-      <c r="M338" t="n">
-        <v>1</v>
-      </c>
-      <c r="N338" t="inlineStr"/>
+      <c r="L338" t="n">
+        <v>1</v>
+      </c>
+      <c r="M338" t="inlineStr"/>
     </row>
     <row r="339">
       <c r="A339" s="1" t="n">
@@ -12590,16 +11574,13 @@
       <c r="H339" t="n">
         <v>0</v>
       </c>
-      <c r="I339" t="n">
-        <v>0</v>
-      </c>
+      <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
       <c r="K339" t="inlineStr"/>
-      <c r="L339" t="inlineStr"/>
-      <c r="M339" t="n">
-        <v>1</v>
-      </c>
-      <c r="N339" t="inlineStr"/>
+      <c r="L339" t="n">
+        <v>1</v>
+      </c>
+      <c r="M339" t="inlineStr"/>
     </row>
     <row r="340">
       <c r="A340" s="1" t="n">
@@ -12626,16 +11607,13 @@
       <c r="H340" t="n">
         <v>0</v>
       </c>
-      <c r="I340" t="n">
-        <v>0</v>
-      </c>
+      <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
       <c r="K340" t="inlineStr"/>
-      <c r="L340" t="inlineStr"/>
-      <c r="M340" t="n">
-        <v>1</v>
-      </c>
-      <c r="N340" t="inlineStr"/>
+      <c r="L340" t="n">
+        <v>1</v>
+      </c>
+      <c r="M340" t="inlineStr"/>
     </row>
     <row r="341">
       <c r="A341" s="1" t="n">
@@ -12660,18 +11638,19 @@
         <v>-165914.0400460689</v>
       </c>
       <c r="H341" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I341" t="n">
-        <v>0</v>
-      </c>
-      <c r="J341" t="inlineStr"/>
+        <v>43.4</v>
+      </c>
+      <c r="J341" t="n">
+        <v>43.4</v>
+      </c>
       <c r="K341" t="inlineStr"/>
-      <c r="L341" t="inlineStr"/>
-      <c r="M341" t="n">
-        <v>1</v>
-      </c>
-      <c r="N341" t="inlineStr"/>
+      <c r="L341" t="n">
+        <v>1</v>
+      </c>
+      <c r="M341" t="inlineStr"/>
     </row>
     <row r="342">
       <c r="A342" s="1" t="n">
@@ -12696,18 +11675,23 @@
         <v>-157914.0400460689</v>
       </c>
       <c r="H342" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I342" t="n">
-        <v>0</v>
-      </c>
-      <c r="J342" t="inlineStr"/>
-      <c r="K342" t="inlineStr"/>
-      <c r="L342" t="inlineStr"/>
-      <c r="M342" t="n">
-        <v>1</v>
-      </c>
-      <c r="N342" t="inlineStr"/>
+        <v>43.48</v>
+      </c>
+      <c r="J342" t="n">
+        <v>43.4</v>
+      </c>
+      <c r="K342" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L342" t="n">
+        <v>1</v>
+      </c>
+      <c r="M342" t="inlineStr"/>
     </row>
     <row r="343">
       <c r="A343" s="1" t="n">
@@ -12734,16 +11718,19 @@
       <c r="H343" t="n">
         <v>0</v>
       </c>
-      <c r="I343" t="n">
-        <v>0</v>
-      </c>
-      <c r="J343" t="inlineStr"/>
-      <c r="K343" t="inlineStr"/>
-      <c r="L343" t="inlineStr"/>
-      <c r="M343" t="n">
-        <v>1</v>
-      </c>
-      <c r="N343" t="inlineStr"/>
+      <c r="I343" t="inlineStr"/>
+      <c r="J343" t="n">
+        <v>43.4</v>
+      </c>
+      <c r="K343" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L343" t="n">
+        <v>1</v>
+      </c>
+      <c r="M343" t="inlineStr"/>
     </row>
     <row r="344">
       <c r="A344" s="1" t="n">
@@ -12770,16 +11757,13 @@
       <c r="H344" t="n">
         <v>0</v>
       </c>
-      <c r="I344" t="n">
-        <v>0</v>
-      </c>
+      <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
       <c r="K344" t="inlineStr"/>
-      <c r="L344" t="inlineStr"/>
-      <c r="M344" t="n">
-        <v>1</v>
-      </c>
-      <c r="N344" t="inlineStr"/>
+      <c r="L344" t="n">
+        <v>1</v>
+      </c>
+      <c r="M344" t="inlineStr"/>
     </row>
     <row r="345">
       <c r="A345" s="1" t="n">
@@ -12806,16 +11790,13 @@
       <c r="H345" t="n">
         <v>0</v>
       </c>
-      <c r="I345" t="n">
-        <v>0</v>
-      </c>
+      <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
       <c r="K345" t="inlineStr"/>
-      <c r="L345" t="inlineStr"/>
-      <c r="M345" t="n">
-        <v>1</v>
-      </c>
-      <c r="N345" t="inlineStr"/>
+      <c r="L345" t="n">
+        <v>1</v>
+      </c>
+      <c r="M345" t="inlineStr"/>
     </row>
     <row r="346">
       <c r="A346" s="1" t="n">
@@ -12842,16 +11823,13 @@
       <c r="H346" t="n">
         <v>0</v>
       </c>
-      <c r="I346" t="n">
-        <v>0</v>
-      </c>
+      <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
       <c r="K346" t="inlineStr"/>
-      <c r="L346" t="inlineStr"/>
-      <c r="M346" t="n">
-        <v>1</v>
-      </c>
-      <c r="N346" t="inlineStr"/>
+      <c r="L346" t="n">
+        <v>1</v>
+      </c>
+      <c r="M346" t="inlineStr"/>
     </row>
     <row r="347">
       <c r="A347" s="1" t="n">
@@ -12878,16 +11856,13 @@
       <c r="H347" t="n">
         <v>0</v>
       </c>
-      <c r="I347" t="n">
-        <v>0</v>
-      </c>
+      <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
       <c r="K347" t="inlineStr"/>
-      <c r="L347" t="inlineStr"/>
-      <c r="M347" t="n">
-        <v>1</v>
-      </c>
-      <c r="N347" t="inlineStr"/>
+      <c r="L347" t="n">
+        <v>1</v>
+      </c>
+      <c r="M347" t="inlineStr"/>
     </row>
     <row r="348">
       <c r="A348" s="1" t="n">
@@ -12914,16 +11889,13 @@
       <c r="H348" t="n">
         <v>0</v>
       </c>
-      <c r="I348" t="n">
-        <v>0</v>
-      </c>
+      <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
       <c r="K348" t="inlineStr"/>
-      <c r="L348" t="inlineStr"/>
-      <c r="M348" t="n">
-        <v>1</v>
-      </c>
-      <c r="N348" t="inlineStr"/>
+      <c r="L348" t="n">
+        <v>1</v>
+      </c>
+      <c r="M348" t="inlineStr"/>
     </row>
     <row r="349">
       <c r="A349" s="1" t="n">
@@ -12950,16 +11922,13 @@
       <c r="H349" t="n">
         <v>0</v>
       </c>
-      <c r="I349" t="n">
-        <v>0</v>
-      </c>
+      <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
       <c r="K349" t="inlineStr"/>
-      <c r="L349" t="inlineStr"/>
-      <c r="M349" t="n">
-        <v>1</v>
-      </c>
-      <c r="N349" t="inlineStr"/>
+      <c r="L349" t="n">
+        <v>1</v>
+      </c>
+      <c r="M349" t="inlineStr"/>
     </row>
     <row r="350">
       <c r="A350" s="1" t="n">
@@ -12986,16 +11955,13 @@
       <c r="H350" t="n">
         <v>0</v>
       </c>
-      <c r="I350" t="n">
-        <v>0</v>
-      </c>
+      <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
       <c r="K350" t="inlineStr"/>
-      <c r="L350" t="inlineStr"/>
-      <c r="M350" t="n">
-        <v>1</v>
-      </c>
-      <c r="N350" t="inlineStr"/>
+      <c r="L350" t="n">
+        <v>1</v>
+      </c>
+      <c r="M350" t="inlineStr"/>
     </row>
     <row r="351">
       <c r="A351" s="1" t="n">
@@ -13022,16 +11988,13 @@
       <c r="H351" t="n">
         <v>0</v>
       </c>
-      <c r="I351" t="n">
-        <v>0</v>
-      </c>
+      <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
       <c r="K351" t="inlineStr"/>
-      <c r="L351" t="inlineStr"/>
-      <c r="M351" t="n">
-        <v>1</v>
-      </c>
-      <c r="N351" t="inlineStr"/>
+      <c r="L351" t="n">
+        <v>1</v>
+      </c>
+      <c r="M351" t="inlineStr"/>
     </row>
     <row r="352">
       <c r="A352" s="1" t="n">
@@ -13058,16 +12021,13 @@
       <c r="H352" t="n">
         <v>0</v>
       </c>
-      <c r="I352" t="n">
-        <v>0</v>
-      </c>
+      <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
       <c r="K352" t="inlineStr"/>
-      <c r="L352" t="inlineStr"/>
-      <c r="M352" t="n">
-        <v>1</v>
-      </c>
-      <c r="N352" t="inlineStr"/>
+      <c r="L352" t="n">
+        <v>1</v>
+      </c>
+      <c r="M352" t="inlineStr"/>
     </row>
     <row r="353">
       <c r="A353" s="1" t="n">
@@ -13094,16 +12054,13 @@
       <c r="H353" t="n">
         <v>0</v>
       </c>
-      <c r="I353" t="n">
-        <v>0</v>
-      </c>
+      <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
       <c r="K353" t="inlineStr"/>
-      <c r="L353" t="inlineStr"/>
-      <c r="M353" t="n">
-        <v>1</v>
-      </c>
-      <c r="N353" t="inlineStr"/>
+      <c r="L353" t="n">
+        <v>1</v>
+      </c>
+      <c r="M353" t="inlineStr"/>
     </row>
     <row r="354">
       <c r="A354" s="1" t="n">
@@ -13130,16 +12087,13 @@
       <c r="H354" t="n">
         <v>0</v>
       </c>
-      <c r="I354" t="n">
-        <v>0</v>
-      </c>
+      <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
       <c r="K354" t="inlineStr"/>
-      <c r="L354" t="inlineStr"/>
-      <c r="M354" t="n">
-        <v>1</v>
-      </c>
-      <c r="N354" t="inlineStr"/>
+      <c r="L354" t="n">
+        <v>1</v>
+      </c>
+      <c r="M354" t="inlineStr"/>
     </row>
     <row r="355">
       <c r="A355" s="1" t="n">
@@ -13166,16 +12120,13 @@
       <c r="H355" t="n">
         <v>0</v>
       </c>
-      <c r="I355" t="n">
-        <v>0</v>
-      </c>
+      <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
       <c r="K355" t="inlineStr"/>
-      <c r="L355" t="inlineStr"/>
-      <c r="M355" t="n">
-        <v>1</v>
-      </c>
-      <c r="N355" t="inlineStr"/>
+      <c r="L355" t="n">
+        <v>1</v>
+      </c>
+      <c r="M355" t="inlineStr"/>
     </row>
     <row r="356">
       <c r="A356" s="1" t="n">
@@ -13202,16 +12153,13 @@
       <c r="H356" t="n">
         <v>0</v>
       </c>
-      <c r="I356" t="n">
-        <v>0</v>
-      </c>
+      <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
       <c r="K356" t="inlineStr"/>
-      <c r="L356" t="inlineStr"/>
-      <c r="M356" t="n">
-        <v>1</v>
-      </c>
-      <c r="N356" t="inlineStr"/>
+      <c r="L356" t="n">
+        <v>1</v>
+      </c>
+      <c r="M356" t="inlineStr"/>
     </row>
     <row r="357">
       <c r="A357" s="1" t="n">
@@ -13236,18 +12184,19 @@
         <v>-169729.8287460689</v>
       </c>
       <c r="H357" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I357" t="n">
-        <v>0</v>
-      </c>
-      <c r="J357" t="inlineStr"/>
+        <v>42.01</v>
+      </c>
+      <c r="J357" t="n">
+        <v>42.01</v>
+      </c>
       <c r="K357" t="inlineStr"/>
-      <c r="L357" t="inlineStr"/>
-      <c r="M357" t="n">
-        <v>1</v>
-      </c>
-      <c r="N357" t="inlineStr"/>
+      <c r="L357" t="n">
+        <v>1</v>
+      </c>
+      <c r="M357" t="inlineStr"/>
     </row>
     <row r="358">
       <c r="A358" s="1" t="n">
@@ -13272,18 +12221,23 @@
         <v>-171436.5325460689</v>
       </c>
       <c r="H358" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I358" t="n">
-        <v>0</v>
-      </c>
-      <c r="J358" t="inlineStr"/>
-      <c r="K358" t="inlineStr"/>
-      <c r="L358" t="inlineStr"/>
-      <c r="M358" t="n">
-        <v>1</v>
-      </c>
-      <c r="N358" t="inlineStr"/>
+        <v>42.5</v>
+      </c>
+      <c r="J358" t="n">
+        <v>42.01</v>
+      </c>
+      <c r="K358" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L358" t="n">
+        <v>1</v>
+      </c>
+      <c r="M358" t="inlineStr"/>
     </row>
     <row r="359">
       <c r="A359" s="1" t="n">
@@ -13308,22 +12262,23 @@
         <v>-170436.5325460689</v>
       </c>
       <c r="H359" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I359" t="n">
-        <v>0</v>
+        <v>42.04</v>
       </c>
       <c r="J359" t="n">
-        <v>42.04</v>
-      </c>
-      <c r="K359" t="n">
-        <v>42.04</v>
-      </c>
-      <c r="L359" t="inlineStr"/>
-      <c r="M359" t="n">
-        <v>1</v>
-      </c>
-      <c r="N359" t="inlineStr"/>
+        <v>42.01</v>
+      </c>
+      <c r="K359" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L359" t="n">
+        <v>1</v>
+      </c>
+      <c r="M359" t="inlineStr"/>
     </row>
     <row r="360">
       <c r="A360" s="1" t="n">
@@ -13348,110 +12303,91 @@
         <v>-188082.5325460689</v>
       </c>
       <c r="H360" t="n">
-        <v>1</v>
-      </c>
-      <c r="I360" t="n">
-        <v>0</v>
-      </c>
-      <c r="J360" t="n">
-        <v>43.08</v>
-      </c>
-      <c r="K360" t="n">
-        <v>42.04</v>
-      </c>
-      <c r="L360" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I360" t="inlineStr"/>
+      <c r="J360" t="inlineStr"/>
+      <c r="K360" t="inlineStr"/>
+      <c r="L360" t="n">
+        <v>1</v>
+      </c>
+      <c r="M360" t="inlineStr"/>
+    </row>
+    <row r="361">
+      <c r="A361" s="1" t="n">
+        <v>359</v>
+      </c>
+      <c r="B361" t="n">
+        <v>42.7</v>
+      </c>
+      <c r="C361" t="n">
+        <v>42.7</v>
+      </c>
+      <c r="D361" t="n">
+        <v>42.7</v>
+      </c>
+      <c r="E361" t="n">
+        <v>42.7</v>
+      </c>
+      <c r="F361" t="n">
+        <v>4500</v>
+      </c>
+      <c r="G361" t="n">
+        <v>-183582.5325460689</v>
+      </c>
+      <c r="H361" t="n">
+        <v>2</v>
+      </c>
+      <c r="I361" t="n">
+        <v>42.69</v>
+      </c>
+      <c r="J361" t="n">
+        <v>42.69</v>
+      </c>
+      <c r="K361" t="inlineStr"/>
+      <c r="L361" t="n">
+        <v>1</v>
+      </c>
+      <c r="M361" t="inlineStr"/>
+    </row>
+    <row r="362">
+      <c r="A362" s="1" t="n">
+        <v>360</v>
+      </c>
+      <c r="B362" t="n">
+        <v>42.7</v>
+      </c>
+      <c r="C362" t="n">
+        <v>42.7</v>
+      </c>
+      <c r="D362" t="n">
+        <v>42.7</v>
+      </c>
+      <c r="E362" t="n">
+        <v>42.7</v>
+      </c>
+      <c r="F362" t="n">
+        <v>1387.37</v>
+      </c>
+      <c r="G362" t="n">
+        <v>-183582.5325460689</v>
+      </c>
+      <c r="H362" t="n">
+        <v>0</v>
+      </c>
+      <c r="I362" t="inlineStr"/>
+      <c r="J362" t="n">
+        <v>42.69</v>
+      </c>
+      <c r="K362" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M360" t="n">
-        <v>1</v>
-      </c>
-      <c r="N360" t="inlineStr"/>
-    </row>
-    <row r="361">
-      <c r="A361" s="1" t="n">
-        <v>359</v>
-      </c>
-      <c r="B361" t="n">
-        <v>42.7</v>
-      </c>
-      <c r="C361" t="n">
-        <v>42.7</v>
-      </c>
-      <c r="D361" t="n">
-        <v>42.7</v>
-      </c>
-      <c r="E361" t="n">
-        <v>42.7</v>
-      </c>
-      <c r="F361" t="n">
-        <v>4500</v>
-      </c>
-      <c r="G361" t="n">
-        <v>-183582.5325460689</v>
-      </c>
-      <c r="H361" t="n">
-        <v>1</v>
-      </c>
-      <c r="I361" t="n">
-        <v>0</v>
-      </c>
-      <c r="J361" t="n">
-        <v>42.69</v>
-      </c>
-      <c r="K361" t="n">
-        <v>42.04</v>
-      </c>
-      <c r="L361" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M361" t="n">
-        <v>1</v>
-      </c>
-      <c r="N361" t="inlineStr"/>
-    </row>
-    <row r="362">
-      <c r="A362" s="1" t="n">
-        <v>360</v>
-      </c>
-      <c r="B362" t="n">
-        <v>42.7</v>
-      </c>
-      <c r="C362" t="n">
-        <v>42.7</v>
-      </c>
-      <c r="D362" t="n">
-        <v>42.7</v>
-      </c>
-      <c r="E362" t="n">
-        <v>42.7</v>
-      </c>
-      <c r="F362" t="n">
-        <v>1387.37</v>
-      </c>
-      <c r="G362" t="n">
-        <v>-183582.5325460689</v>
-      </c>
-      <c r="H362" t="n">
-        <v>1</v>
-      </c>
-      <c r="I362" t="n">
-        <v>0</v>
-      </c>
-      <c r="J362" t="n">
-        <v>42.7</v>
-      </c>
-      <c r="K362" t="n">
-        <v>42.7</v>
-      </c>
-      <c r="L362" t="inlineStr"/>
-      <c r="M362" t="n">
-        <v>1</v>
-      </c>
-      <c r="N362" t="inlineStr"/>
+      <c r="L362" t="n">
+        <v>1</v>
+      </c>
+      <c r="M362" t="inlineStr"/>
     </row>
     <row r="363">
       <c r="A363" s="1" t="n">
@@ -13476,26 +12412,23 @@
         <v>-153513.2366460689</v>
       </c>
       <c r="H363" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I363" t="n">
-        <v>0</v>
+        <v>42.7</v>
       </c>
       <c r="J363" t="n">
-        <v>42.7</v>
-      </c>
-      <c r="K363" t="n">
-        <v>42.7</v>
-      </c>
-      <c r="L363" t="inlineStr">
+        <v>42.69</v>
+      </c>
+      <c r="K363" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="M363" t="n">
-        <v>1</v>
-      </c>
-      <c r="N363" t="inlineStr"/>
+      <c r="L363" t="n">
+        <v>1</v>
+      </c>
+      <c r="M363" t="inlineStr"/>
     </row>
     <row r="364">
       <c r="A364" s="1" t="n">
@@ -13520,26 +12453,21 @@
         <v>-154513.2366460689</v>
       </c>
       <c r="H364" t="n">
-        <v>1</v>
-      </c>
-      <c r="I364" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I364" t="inlineStr"/>
       <c r="J364" t="n">
-        <v>43.07</v>
-      </c>
-      <c r="K364" t="n">
-        <v>42.7</v>
-      </c>
-      <c r="L364" t="inlineStr">
+        <v>42.69</v>
+      </c>
+      <c r="K364" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M364" t="n">
-        <v>1</v>
-      </c>
-      <c r="N364" t="inlineStr"/>
+      <c r="L364" t="n">
+        <v>1</v>
+      </c>
+      <c r="M364" t="inlineStr"/>
     </row>
     <row r="365">
       <c r="A365" s="1" t="n">
@@ -13564,26 +12492,23 @@
         <v>-150903.2366460689</v>
       </c>
       <c r="H365" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I365" t="n">
-        <v>0</v>
+        <v>42.88</v>
       </c>
       <c r="J365" t="n">
-        <v>42.88</v>
-      </c>
-      <c r="K365" t="n">
-        <v>42.7</v>
-      </c>
-      <c r="L365" t="inlineStr">
+        <v>42.69</v>
+      </c>
+      <c r="K365" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M365" t="n">
-        <v>1</v>
-      </c>
-      <c r="N365" t="inlineStr"/>
+      <c r="L365" t="n">
+        <v>1</v>
+      </c>
+      <c r="M365" t="inlineStr"/>
     </row>
     <row r="366">
       <c r="A366" s="1" t="n">
@@ -13608,26 +12533,23 @@
         <v>-152513.2366460689</v>
       </c>
       <c r="H366" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I366" t="n">
-        <v>0</v>
+        <v>43.06</v>
       </c>
       <c r="J366" t="n">
-        <v>43.06</v>
-      </c>
-      <c r="K366" t="n">
-        <v>42.7</v>
-      </c>
-      <c r="L366" t="inlineStr">
+        <v>42.69</v>
+      </c>
+      <c r="K366" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M366" t="n">
-        <v>1</v>
-      </c>
-      <c r="N366" t="inlineStr"/>
+      <c r="L366" t="n">
+        <v>1</v>
+      </c>
+      <c r="M366" t="inlineStr"/>
     </row>
     <row r="367">
       <c r="A367" s="1" t="n">
@@ -13652,26 +12574,23 @@
         <v>-169224.8016460689</v>
       </c>
       <c r="H367" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I367" t="n">
-        <v>0</v>
+        <v>42.74</v>
       </c>
       <c r="J367" t="n">
-        <v>42.74</v>
-      </c>
-      <c r="K367" t="n">
-        <v>42.7</v>
-      </c>
-      <c r="L367" t="inlineStr">
+        <v>42.69</v>
+      </c>
+      <c r="K367" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M367" t="n">
-        <v>1</v>
-      </c>
-      <c r="N367" t="inlineStr"/>
+      <c r="L367" t="n">
+        <v>1</v>
+      </c>
+      <c r="M367" t="inlineStr"/>
     </row>
     <row r="368">
       <c r="A368" s="1" t="n">
@@ -13696,26 +12615,23 @@
         <v>-169137.8016460689</v>
       </c>
       <c r="H368" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I368" t="n">
-        <v>0</v>
+        <v>42.5</v>
       </c>
       <c r="J368" t="n">
-        <v>42.5</v>
-      </c>
-      <c r="K368" t="n">
-        <v>42.7</v>
-      </c>
-      <c r="L368" t="inlineStr">
+        <v>42.69</v>
+      </c>
+      <c r="K368" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M368" t="n">
-        <v>1</v>
-      </c>
-      <c r="N368" t="inlineStr"/>
+      <c r="L368" t="n">
+        <v>1</v>
+      </c>
+      <c r="M368" t="inlineStr"/>
     </row>
     <row r="369">
       <c r="A369" s="1" t="n">
@@ -13740,26 +12656,23 @@
         <v>-169137.8016460689</v>
       </c>
       <c r="H369" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I369" t="n">
-        <v>0</v>
+        <v>42.6</v>
       </c>
       <c r="J369" t="n">
-        <v>42.6</v>
-      </c>
-      <c r="K369" t="n">
-        <v>42.7</v>
-      </c>
-      <c r="L369" t="inlineStr">
+        <v>42.69</v>
+      </c>
+      <c r="K369" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M369" t="n">
-        <v>1</v>
-      </c>
-      <c r="N369" t="inlineStr"/>
+      <c r="L369" t="n">
+        <v>1</v>
+      </c>
+      <c r="M369" t="inlineStr"/>
     </row>
     <row r="370">
       <c r="A370" s="1" t="n">
@@ -13784,26 +12697,23 @@
         <v>-168277.8016460689</v>
       </c>
       <c r="H370" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I370" t="n">
-        <v>0</v>
+        <v>42.6</v>
       </c>
       <c r="J370" t="n">
-        <v>42.6</v>
-      </c>
-      <c r="K370" t="n">
-        <v>42.7</v>
-      </c>
-      <c r="L370" t="inlineStr">
+        <v>42.69</v>
+      </c>
+      <c r="K370" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M370" t="n">
-        <v>1</v>
-      </c>
-      <c r="N370" t="inlineStr"/>
+      <c r="L370" t="n">
+        <v>1</v>
+      </c>
+      <c r="M370" t="inlineStr"/>
     </row>
     <row r="371">
       <c r="A371" s="1" t="n">
@@ -13828,26 +12738,23 @@
         <v>-167417.8016460689</v>
       </c>
       <c r="H371" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I371" t="n">
-        <v>0</v>
+        <v>42.89</v>
       </c>
       <c r="J371" t="n">
-        <v>42.89</v>
-      </c>
-      <c r="K371" t="n">
-        <v>42.7</v>
-      </c>
-      <c r="L371" t="inlineStr">
+        <v>42.69</v>
+      </c>
+      <c r="K371" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M371" t="n">
-        <v>1</v>
-      </c>
-      <c r="N371" t="inlineStr"/>
+      <c r="L371" t="n">
+        <v>1</v>
+      </c>
+      <c r="M371" t="inlineStr"/>
     </row>
     <row r="372">
       <c r="A372" s="1" t="n">
@@ -13872,26 +12779,23 @@
         <v>-167817.8117460689</v>
       </c>
       <c r="H372" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I372" t="n">
-        <v>0</v>
+        <v>42.99</v>
       </c>
       <c r="J372" t="n">
-        <v>42.99</v>
-      </c>
-      <c r="K372" t="n">
-        <v>42.7</v>
-      </c>
-      <c r="L372" t="inlineStr">
+        <v>42.69</v>
+      </c>
+      <c r="K372" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M372" t="n">
-        <v>1</v>
-      </c>
-      <c r="N372" t="inlineStr"/>
+      <c r="L372" t="n">
+        <v>1</v>
+      </c>
+      <c r="M372" t="inlineStr"/>
     </row>
     <row r="373">
       <c r="A373" s="1" t="n">
@@ -13916,28 +12820,25 @@
         <v>-119319.3850460689</v>
       </c>
       <c r="H373" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I373" t="n">
-        <v>0</v>
+        <v>42.73</v>
       </c>
       <c r="J373" t="n">
-        <v>42.73</v>
-      </c>
-      <c r="K373" t="n">
-        <v>42.7</v>
-      </c>
-      <c r="L373" t="inlineStr">
+        <v>42.69</v>
+      </c>
+      <c r="K373" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M373" t="n">
-        <v>1</v>
-      </c>
-      <c r="N373" t="inlineStr"/>
+      <c r="L373" t="n">
+        <v>1</v>
+      </c>
+      <c r="M373" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-24 BackTest GNT.xlsx
+++ b/BackTest/2020-01-24 BackTest GNT.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>161034.1491723638</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>155490.3229723638</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>150811.2411723638</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>150811.2411723638</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>150811.2411723638</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>154591.5041723638</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>156270.5859723638</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>168293.3259723638</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>153176.7916723638</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>169207.9787723638</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>183390.9925723638</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>177012.1149723638</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>122767.4447723638</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>129563.7846723638</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>119792.1336723638</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>125018.2366723638</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>94462.43147236382</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>92979.98677236383</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>91430.98677236383</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>82707.62027236383</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>97691.62027236383</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>100691.6202723638</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>100630.7493723638</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>103553.8234723638</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>103553.8234723638</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>55885.80347236383</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>84454.95917236383</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>82905.95917236383</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>99231.23897236383</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>97682.23897236383</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>96612.69537236383</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>97119.91387236383</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>101119.9138723638</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>78596.91387236383</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>85596.91387236383</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>61094.43217236383</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>60023.54067236383</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>59496.16307236382</v>
       </c>
       <c r="H50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>70590.75697236383</v>
       </c>
       <c r="H53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>69780.75697236383</v>
       </c>
       <c r="H54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2563,7 +2563,7 @@
         <v>32251.62267236382</v>
       </c>
       <c r="H66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -3091,7 +3091,7 @@
         <v>-12279.86372763618</v>
       </c>
       <c r="H82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3157,7 +3157,7 @@
         <v>-134458.7695276362</v>
       </c>
       <c r="H84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3223,7 +3223,7 @@
         <v>46561.49537236383</v>
       </c>
       <c r="H86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3256,7 +3256,7 @@
         <v>70361.49537236383</v>
       </c>
       <c r="H87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3289,7 +3289,7 @@
         <v>68701.49537236383</v>
       </c>
       <c r="H88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3553,7 +3553,7 @@
         <v>72249.98317236382</v>
       </c>
       <c r="H96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -5632,7 +5632,7 @@
         <v>87810.57450547034</v>
       </c>
       <c r="H159" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -5665,7 +5665,7 @@
         <v>21190.73653746875</v>
       </c>
       <c r="H160" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -5698,7 +5698,7 @@
         <v>20068.57713746875</v>
       </c>
       <c r="H161" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -5731,7 +5731,7 @@
         <v>-3931.42286253125</v>
       </c>
       <c r="H162" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -5797,7 +5797,7 @@
         <v>10819.96213746875</v>
       </c>
       <c r="H164" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -11638,14 +11638,10 @@
         <v>-165914.0400460689</v>
       </c>
       <c r="H341" t="n">
-        <v>2</v>
-      </c>
-      <c r="I341" t="n">
-        <v>43.4</v>
-      </c>
-      <c r="J341" t="n">
-        <v>43.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I341" t="inlineStr"/>
+      <c r="J341" t="inlineStr"/>
       <c r="K341" t="inlineStr"/>
       <c r="L341" t="n">
         <v>1</v>
@@ -11675,19 +11671,11 @@
         <v>-157914.0400460689</v>
       </c>
       <c r="H342" t="n">
-        <v>2</v>
-      </c>
-      <c r="I342" t="n">
-        <v>43.48</v>
-      </c>
-      <c r="J342" t="n">
-        <v>43.4</v>
-      </c>
-      <c r="K342" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I342" t="inlineStr"/>
+      <c r="J342" t="inlineStr"/>
+      <c r="K342" t="inlineStr"/>
       <c r="L342" t="n">
         <v>1</v>
       </c>
@@ -11719,14 +11707,8 @@
         <v>0</v>
       </c>
       <c r="I343" t="inlineStr"/>
-      <c r="J343" t="n">
-        <v>43.4</v>
-      </c>
-      <c r="K343" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J343" t="inlineStr"/>
+      <c r="K343" t="inlineStr"/>
       <c r="L343" t="n">
         <v>1</v>
       </c>
@@ -12085,11 +12067,17 @@
         <v>-174559.9636460689</v>
       </c>
       <c r="H354" t="n">
-        <v>0</v>
-      </c>
-      <c r="I354" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I354" t="n">
+        <v>42.56</v>
+      </c>
       <c r="J354" t="inlineStr"/>
-      <c r="K354" t="inlineStr"/>
+      <c r="K354" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L354" t="n">
         <v>1</v>
       </c>
@@ -12118,11 +12106,17 @@
         <v>-170978.9206460689</v>
       </c>
       <c r="H355" t="n">
-        <v>0</v>
-      </c>
-      <c r="I355" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I355" t="n">
+        <v>42.31</v>
+      </c>
       <c r="J355" t="inlineStr"/>
-      <c r="K355" t="inlineStr"/>
+      <c r="K355" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L355" t="n">
         <v>1</v>
       </c>
@@ -12151,11 +12145,17 @@
         <v>-172176.8287460689</v>
       </c>
       <c r="H356" t="n">
-        <v>0</v>
-      </c>
-      <c r="I356" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I356" t="n">
+        <v>42.36</v>
+      </c>
       <c r="J356" t="inlineStr"/>
-      <c r="K356" t="inlineStr"/>
+      <c r="K356" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L356" t="n">
         <v>1</v>
       </c>
@@ -12184,15 +12184,17 @@
         <v>-169729.8287460689</v>
       </c>
       <c r="H357" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I357" t="n">
         <v>42.01</v>
       </c>
-      <c r="J357" t="n">
-        <v>42.01</v>
-      </c>
-      <c r="K357" t="inlineStr"/>
+      <c r="J357" t="inlineStr"/>
+      <c r="K357" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L357" t="n">
         <v>1</v>
       </c>
@@ -12221,17 +12223,15 @@
         <v>-171436.5325460689</v>
       </c>
       <c r="H358" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I358" t="n">
         <v>42.5</v>
       </c>
-      <c r="J358" t="n">
-        <v>42.01</v>
-      </c>
+      <c r="J358" t="inlineStr"/>
       <c r="K358" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L358" t="n">
@@ -12262,17 +12262,15 @@
         <v>-170436.5325460689</v>
       </c>
       <c r="H359" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I359" t="n">
         <v>42.04</v>
       </c>
-      <c r="J359" t="n">
-        <v>42.01</v>
-      </c>
+      <c r="J359" t="inlineStr"/>
       <c r="K359" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L359" t="n">
@@ -12303,11 +12301,17 @@
         <v>-188082.5325460689</v>
       </c>
       <c r="H360" t="n">
-        <v>0</v>
-      </c>
-      <c r="I360" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I360" t="n">
+        <v>43.08</v>
+      </c>
       <c r="J360" t="inlineStr"/>
-      <c r="K360" t="inlineStr"/>
+      <c r="K360" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L360" t="n">
         <v>1</v>
       </c>
@@ -12336,15 +12340,17 @@
         <v>-183582.5325460689</v>
       </c>
       <c r="H361" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I361" t="n">
         <v>42.69</v>
       </c>
-      <c r="J361" t="n">
-        <v>42.69</v>
-      </c>
-      <c r="K361" t="inlineStr"/>
+      <c r="J361" t="inlineStr"/>
+      <c r="K361" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L361" t="n">
         <v>1</v>
       </c>
@@ -12373,15 +12379,15 @@
         <v>-183582.5325460689</v>
       </c>
       <c r="H362" t="n">
-        <v>0</v>
-      </c>
-      <c r="I362" t="inlineStr"/>
-      <c r="J362" t="n">
-        <v>42.69</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I362" t="n">
+        <v>42.7</v>
+      </c>
+      <c r="J362" t="inlineStr"/>
       <c r="K362" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L362" t="n">
@@ -12412,17 +12418,15 @@
         <v>-153513.2366460689</v>
       </c>
       <c r="H363" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I363" t="n">
         <v>42.7</v>
       </c>
-      <c r="J363" t="n">
-        <v>42.69</v>
-      </c>
+      <c r="J363" t="inlineStr"/>
       <c r="K363" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L363" t="n">
@@ -12453,12 +12457,12 @@
         <v>-154513.2366460689</v>
       </c>
       <c r="H364" t="n">
-        <v>0</v>
-      </c>
-      <c r="I364" t="inlineStr"/>
-      <c r="J364" t="n">
-        <v>42.69</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I364" t="n">
+        <v>43.07</v>
+      </c>
+      <c r="J364" t="inlineStr"/>
       <c r="K364" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12492,14 +12496,12 @@
         <v>-150903.2366460689</v>
       </c>
       <c r="H365" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I365" t="n">
         <v>42.88</v>
       </c>
-      <c r="J365" t="n">
-        <v>42.69</v>
-      </c>
+      <c r="J365" t="inlineStr"/>
       <c r="K365" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12533,14 +12535,12 @@
         <v>-152513.2366460689</v>
       </c>
       <c r="H366" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I366" t="n">
         <v>43.06</v>
       </c>
-      <c r="J366" t="n">
-        <v>42.69</v>
-      </c>
+      <c r="J366" t="inlineStr"/>
       <c r="K366" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12574,14 +12574,12 @@
         <v>-169224.8016460689</v>
       </c>
       <c r="H367" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I367" t="n">
         <v>42.74</v>
       </c>
-      <c r="J367" t="n">
-        <v>42.69</v>
-      </c>
+      <c r="J367" t="inlineStr"/>
       <c r="K367" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12615,14 +12613,12 @@
         <v>-169137.8016460689</v>
       </c>
       <c r="H368" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I368" t="n">
         <v>42.5</v>
       </c>
-      <c r="J368" t="n">
-        <v>42.69</v>
-      </c>
+      <c r="J368" t="inlineStr"/>
       <c r="K368" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12656,14 +12652,12 @@
         <v>-169137.8016460689</v>
       </c>
       <c r="H369" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I369" t="n">
         <v>42.6</v>
       </c>
-      <c r="J369" t="n">
-        <v>42.69</v>
-      </c>
+      <c r="J369" t="inlineStr"/>
       <c r="K369" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12697,14 +12691,12 @@
         <v>-168277.8016460689</v>
       </c>
       <c r="H370" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I370" t="n">
         <v>42.6</v>
       </c>
-      <c r="J370" t="n">
-        <v>42.69</v>
-      </c>
+      <c r="J370" t="inlineStr"/>
       <c r="K370" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12738,14 +12730,12 @@
         <v>-167417.8016460689</v>
       </c>
       <c r="H371" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I371" t="n">
         <v>42.89</v>
       </c>
-      <c r="J371" t="n">
-        <v>42.69</v>
-      </c>
+      <c r="J371" t="inlineStr"/>
       <c r="K371" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12779,14 +12769,12 @@
         <v>-167817.8117460689</v>
       </c>
       <c r="H372" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I372" t="n">
         <v>42.99</v>
       </c>
-      <c r="J372" t="n">
-        <v>42.69</v>
-      </c>
+      <c r="J372" t="inlineStr"/>
       <c r="K372" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12820,14 +12808,12 @@
         <v>-119319.3850460689</v>
       </c>
       <c r="H373" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I373" t="n">
         <v>42.73</v>
       </c>
-      <c r="J373" t="n">
-        <v>42.69</v>
-      </c>
+      <c r="J373" t="inlineStr"/>
       <c r="K373" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12839,6 +12825,6 @@
       <c r="M373" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-24 BackTest GNT.xlsx
+++ b/BackTest/2020-01-24 BackTest GNT.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>161034.1491723638</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>155490.3229723638</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>150811.2411723638</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>150811.2411723638</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>150811.2411723638</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>154591.5041723638</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>156270.5859723638</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>183390.9925723638</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>177012.1149723638</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>122767.4447723638</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>129563.7846723638</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>119792.1336723638</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>125018.2366723638</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>94462.43147236382</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>92979.98677236383</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>91430.98677236383</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>82707.62027236383</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>97691.62027236383</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>100691.6202723638</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>100630.7493723638</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>103553.8234723638</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>103553.8234723638</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>55885.80347236383</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>84454.95917236383</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>82905.95917236383</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>99231.23897236383</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>97682.23897236383</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>96612.69537236383</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>97119.91387236383</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>101119.9138723638</v>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>78596.91387236383</v>
       </c>
       <c r="H40" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>85596.91387236383</v>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>61094.43217236383</v>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>60023.54067236383</v>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -4972,7 +4972,7 @@
         <v>80237.83798617459</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5038,7 +5038,7 @@
         <v>69644.3619861746</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5071,7 +5071,7 @@
         <v>6342.6144861746</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5104,7 +5104,7 @@
         <v>8905.6144861746</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5137,7 +5137,7 @@
         <v>15028.4981861746</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5170,7 +5170,7 @@
         <v>30710.2951861746</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5203,7 +5203,7 @@
         <v>43619.0308861746</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -6358,7 +6358,7 @@
         <v>-253565.5705625313</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -6391,7 +6391,7 @@
         <v>-305454.8582625313</v>
       </c>
       <c r="H182" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
@@ -6424,7 +6424,7 @@
         <v>-303842.6520625313</v>
       </c>
       <c r="H183" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -7843,7 +7843,7 @@
         <v>-221858.8652153325</v>
       </c>
       <c r="H226" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
@@ -7876,7 +7876,7 @@
         <v>109922.5039846676</v>
       </c>
       <c r="H227" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
@@ -8932,7 +8932,7 @@
         <v>147039.8177539311</v>
       </c>
       <c r="H259" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
@@ -8965,7 +8965,7 @@
         <v>138037.1768539311</v>
       </c>
       <c r="H260" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
@@ -8998,7 +8998,7 @@
         <v>139837.1768539311</v>
       </c>
       <c r="H261" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
@@ -9031,7 +9031,7 @@
         <v>138797.1768539311</v>
       </c>
       <c r="H262" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
@@ -9064,7 +9064,7 @@
         <v>132182.9994539311</v>
       </c>
       <c r="H263" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
@@ -9097,7 +9097,7 @@
         <v>183787.9994539311</v>
       </c>
       <c r="H264" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
@@ -9163,7 +9163,7 @@
         <v>171451.2369539311</v>
       </c>
       <c r="H266" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
@@ -9196,7 +9196,7 @@
         <v>171451.2369539311</v>
       </c>
       <c r="H267" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
@@ -9262,7 +9262,7 @@
         <v>170207.0942539311</v>
       </c>
       <c r="H269" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
@@ -12067,368 +12067,360 @@
         <v>-174559.9636460689</v>
       </c>
       <c r="H354" t="n">
-        <v>1</v>
-      </c>
-      <c r="I354" t="n">
-        <v>42.56</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
-      <c r="K354" t="inlineStr">
+      <c r="K354" t="inlineStr"/>
+      <c r="L354" t="n">
+        <v>1</v>
+      </c>
+      <c r="M354" t="inlineStr"/>
+    </row>
+    <row r="355">
+      <c r="A355" s="1" t="n">
+        <v>353</v>
+      </c>
+      <c r="B355" t="n">
+        <v>42.36</v>
+      </c>
+      <c r="C355" t="n">
+        <v>42.36</v>
+      </c>
+      <c r="D355" t="n">
+        <v>42.36</v>
+      </c>
+      <c r="E355" t="n">
+        <v>42.36</v>
+      </c>
+      <c r="F355" t="n">
+        <v>3581.043</v>
+      </c>
+      <c r="G355" t="n">
+        <v>-170978.9206460689</v>
+      </c>
+      <c r="H355" t="n">
+        <v>0</v>
+      </c>
+      <c r="I355" t="inlineStr"/>
+      <c r="J355" t="inlineStr"/>
+      <c r="K355" t="inlineStr"/>
+      <c r="L355" t="n">
+        <v>1</v>
+      </c>
+      <c r="M355" t="inlineStr"/>
+    </row>
+    <row r="356">
+      <c r="A356" s="1" t="n">
+        <v>354</v>
+      </c>
+      <c r="B356" t="n">
+        <v>42.01</v>
+      </c>
+      <c r="C356" t="n">
+        <v>42.01</v>
+      </c>
+      <c r="D356" t="n">
+        <v>42.01</v>
+      </c>
+      <c r="E356" t="n">
+        <v>42.01</v>
+      </c>
+      <c r="F356" t="n">
+        <v>1197.9081</v>
+      </c>
+      <c r="G356" t="n">
+        <v>-172176.8287460689</v>
+      </c>
+      <c r="H356" t="n">
+        <v>1</v>
+      </c>
+      <c r="I356" t="n">
+        <v>42.36</v>
+      </c>
+      <c r="J356" t="n">
+        <v>42.36</v>
+      </c>
+      <c r="K356" t="inlineStr"/>
+      <c r="L356" t="n">
+        <v>1</v>
+      </c>
+      <c r="M356" t="inlineStr"/>
+    </row>
+    <row r="357">
+      <c r="A357" s="1" t="n">
+        <v>355</v>
+      </c>
+      <c r="B357" t="n">
+        <v>42.49</v>
+      </c>
+      <c r="C357" t="n">
+        <v>42.5</v>
+      </c>
+      <c r="D357" t="n">
+        <v>42.5</v>
+      </c>
+      <c r="E357" t="n">
+        <v>42.49</v>
+      </c>
+      <c r="F357" t="n">
+        <v>2447</v>
+      </c>
+      <c r="G357" t="n">
+        <v>-169729.8287460689</v>
+      </c>
+      <c r="H357" t="n">
+        <v>1</v>
+      </c>
+      <c r="I357" t="n">
+        <v>42.01</v>
+      </c>
+      <c r="J357" t="n">
+        <v>42.36</v>
+      </c>
+      <c r="K357" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L357" t="n">
+        <v>1</v>
+      </c>
+      <c r="M357" t="inlineStr"/>
+    </row>
+    <row r="358">
+      <c r="A358" s="1" t="n">
+        <v>356</v>
+      </c>
+      <c r="B358" t="n">
+        <v>42.04</v>
+      </c>
+      <c r="C358" t="n">
+        <v>42.04</v>
+      </c>
+      <c r="D358" t="n">
+        <v>42.04</v>
+      </c>
+      <c r="E358" t="n">
+        <v>42.04</v>
+      </c>
+      <c r="F358" t="n">
+        <v>1706.7038</v>
+      </c>
+      <c r="G358" t="n">
+        <v>-171436.5325460689</v>
+      </c>
+      <c r="H358" t="n">
+        <v>1</v>
+      </c>
+      <c r="I358" t="n">
+        <v>42.5</v>
+      </c>
+      <c r="J358" t="n">
+        <v>42.36</v>
+      </c>
+      <c r="K358" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L358" t="n">
+        <v>1</v>
+      </c>
+      <c r="M358" t="inlineStr"/>
+    </row>
+    <row r="359">
+      <c r="A359" s="1" t="n">
+        <v>357</v>
+      </c>
+      <c r="B359" t="n">
+        <v>42.35</v>
+      </c>
+      <c r="C359" t="n">
+        <v>43.08</v>
+      </c>
+      <c r="D359" t="n">
+        <v>43.08</v>
+      </c>
+      <c r="E359" t="n">
+        <v>42.35</v>
+      </c>
+      <c r="F359" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G359" t="n">
+        <v>-170436.5325460689</v>
+      </c>
+      <c r="H359" t="n">
+        <v>1</v>
+      </c>
+      <c r="I359" t="n">
+        <v>42.04</v>
+      </c>
+      <c r="J359" t="n">
+        <v>42.04</v>
+      </c>
+      <c r="K359" t="inlineStr"/>
+      <c r="L359" t="n">
+        <v>1</v>
+      </c>
+      <c r="M359" t="inlineStr"/>
+    </row>
+    <row r="360">
+      <c r="A360" s="1" t="n">
+        <v>358</v>
+      </c>
+      <c r="B360" t="n">
+        <v>43.37</v>
+      </c>
+      <c r="C360" t="n">
+        <v>42.69</v>
+      </c>
+      <c r="D360" t="n">
+        <v>43.37</v>
+      </c>
+      <c r="E360" t="n">
+        <v>42.69</v>
+      </c>
+      <c r="F360" t="n">
+        <v>17646</v>
+      </c>
+      <c r="G360" t="n">
+        <v>-188082.5325460689</v>
+      </c>
+      <c r="H360" t="n">
+        <v>1</v>
+      </c>
+      <c r="I360" t="n">
+        <v>43.08</v>
+      </c>
+      <c r="J360" t="n">
+        <v>42.04</v>
+      </c>
+      <c r="K360" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L360" t="n">
+        <v>1</v>
+      </c>
+      <c r="M360" t="inlineStr"/>
+    </row>
+    <row r="361">
+      <c r="A361" s="1" t="n">
+        <v>359</v>
+      </c>
+      <c r="B361" t="n">
+        <v>42.7</v>
+      </c>
+      <c r="C361" t="n">
+        <v>42.7</v>
+      </c>
+      <c r="D361" t="n">
+        <v>42.7</v>
+      </c>
+      <c r="E361" t="n">
+        <v>42.7</v>
+      </c>
+      <c r="F361" t="n">
+        <v>4500</v>
+      </c>
+      <c r="G361" t="n">
+        <v>-183582.5325460689</v>
+      </c>
+      <c r="H361" t="n">
+        <v>1</v>
+      </c>
+      <c r="I361" t="n">
+        <v>42.69</v>
+      </c>
+      <c r="J361" t="n">
+        <v>42.04</v>
+      </c>
+      <c r="K361" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L361" t="n">
+        <v>1</v>
+      </c>
+      <c r="M361" t="inlineStr"/>
+    </row>
+    <row r="362">
+      <c r="A362" s="1" t="n">
+        <v>360</v>
+      </c>
+      <c r="B362" t="n">
+        <v>42.7</v>
+      </c>
+      <c r="C362" t="n">
+        <v>42.7</v>
+      </c>
+      <c r="D362" t="n">
+        <v>42.7</v>
+      </c>
+      <c r="E362" t="n">
+        <v>42.7</v>
+      </c>
+      <c r="F362" t="n">
+        <v>1387.37</v>
+      </c>
+      <c r="G362" t="n">
+        <v>-183582.5325460689</v>
+      </c>
+      <c r="H362" t="n">
+        <v>1</v>
+      </c>
+      <c r="I362" t="n">
+        <v>42.7</v>
+      </c>
+      <c r="J362" t="n">
+        <v>42.7</v>
+      </c>
+      <c r="K362" t="inlineStr"/>
+      <c r="L362" t="n">
+        <v>1</v>
+      </c>
+      <c r="M362" t="inlineStr"/>
+    </row>
+    <row r="363">
+      <c r="A363" s="1" t="n">
+        <v>361</v>
+      </c>
+      <c r="B363" t="n">
+        <v>42.7</v>
+      </c>
+      <c r="C363" t="n">
+        <v>43.07</v>
+      </c>
+      <c r="D363" t="n">
+        <v>43.29</v>
+      </c>
+      <c r="E363" t="n">
+        <v>41.8</v>
+      </c>
+      <c r="F363" t="n">
+        <v>30069.2959</v>
+      </c>
+      <c r="G363" t="n">
+        <v>-153513.2366460689</v>
+      </c>
+      <c r="H363" t="n">
+        <v>1</v>
+      </c>
+      <c r="I363" t="n">
+        <v>42.7</v>
+      </c>
+      <c r="J363" t="n">
+        <v>42.7</v>
+      </c>
+      <c r="K363" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L354" t="n">
-        <v>1</v>
-      </c>
-      <c r="M354" t="inlineStr"/>
-    </row>
-    <row r="355">
-      <c r="A355" s="1" t="n">
-        <v>353</v>
-      </c>
-      <c r="B355" t="n">
-        <v>42.36</v>
-      </c>
-      <c r="C355" t="n">
-        <v>42.36</v>
-      </c>
-      <c r="D355" t="n">
-        <v>42.36</v>
-      </c>
-      <c r="E355" t="n">
-        <v>42.36</v>
-      </c>
-      <c r="F355" t="n">
-        <v>3581.043</v>
-      </c>
-      <c r="G355" t="n">
-        <v>-170978.9206460689</v>
-      </c>
-      <c r="H355" t="n">
-        <v>1</v>
-      </c>
-      <c r="I355" t="n">
-        <v>42.31</v>
-      </c>
-      <c r="J355" t="inlineStr"/>
-      <c r="K355" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L355" t="n">
-        <v>1</v>
-      </c>
-      <c r="M355" t="inlineStr"/>
-    </row>
-    <row r="356">
-      <c r="A356" s="1" t="n">
-        <v>354</v>
-      </c>
-      <c r="B356" t="n">
-        <v>42.01</v>
-      </c>
-      <c r="C356" t="n">
-        <v>42.01</v>
-      </c>
-      <c r="D356" t="n">
-        <v>42.01</v>
-      </c>
-      <c r="E356" t="n">
-        <v>42.01</v>
-      </c>
-      <c r="F356" t="n">
-        <v>1197.9081</v>
-      </c>
-      <c r="G356" t="n">
-        <v>-172176.8287460689</v>
-      </c>
-      <c r="H356" t="n">
-        <v>1</v>
-      </c>
-      <c r="I356" t="n">
-        <v>42.36</v>
-      </c>
-      <c r="J356" t="inlineStr"/>
-      <c r="K356" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L356" t="n">
-        <v>1</v>
-      </c>
-      <c r="M356" t="inlineStr"/>
-    </row>
-    <row r="357">
-      <c r="A357" s="1" t="n">
-        <v>355</v>
-      </c>
-      <c r="B357" t="n">
-        <v>42.49</v>
-      </c>
-      <c r="C357" t="n">
-        <v>42.5</v>
-      </c>
-      <c r="D357" t="n">
-        <v>42.5</v>
-      </c>
-      <c r="E357" t="n">
-        <v>42.49</v>
-      </c>
-      <c r="F357" t="n">
-        <v>2447</v>
-      </c>
-      <c r="G357" t="n">
-        <v>-169729.8287460689</v>
-      </c>
-      <c r="H357" t="n">
-        <v>1</v>
-      </c>
-      <c r="I357" t="n">
-        <v>42.01</v>
-      </c>
-      <c r="J357" t="inlineStr"/>
-      <c r="K357" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L357" t="n">
-        <v>1</v>
-      </c>
-      <c r="M357" t="inlineStr"/>
-    </row>
-    <row r="358">
-      <c r="A358" s="1" t="n">
-        <v>356</v>
-      </c>
-      <c r="B358" t="n">
-        <v>42.04</v>
-      </c>
-      <c r="C358" t="n">
-        <v>42.04</v>
-      </c>
-      <c r="D358" t="n">
-        <v>42.04</v>
-      </c>
-      <c r="E358" t="n">
-        <v>42.04</v>
-      </c>
-      <c r="F358" t="n">
-        <v>1706.7038</v>
-      </c>
-      <c r="G358" t="n">
-        <v>-171436.5325460689</v>
-      </c>
-      <c r="H358" t="n">
-        <v>1</v>
-      </c>
-      <c r="I358" t="n">
-        <v>42.5</v>
-      </c>
-      <c r="J358" t="inlineStr"/>
-      <c r="K358" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L358" t="n">
-        <v>1</v>
-      </c>
-      <c r="M358" t="inlineStr"/>
-    </row>
-    <row r="359">
-      <c r="A359" s="1" t="n">
-        <v>357</v>
-      </c>
-      <c r="B359" t="n">
-        <v>42.35</v>
-      </c>
-      <c r="C359" t="n">
-        <v>43.08</v>
-      </c>
-      <c r="D359" t="n">
-        <v>43.08</v>
-      </c>
-      <c r="E359" t="n">
-        <v>42.35</v>
-      </c>
-      <c r="F359" t="n">
-        <v>1000</v>
-      </c>
-      <c r="G359" t="n">
-        <v>-170436.5325460689</v>
-      </c>
-      <c r="H359" t="n">
-        <v>1</v>
-      </c>
-      <c r="I359" t="n">
-        <v>42.04</v>
-      </c>
-      <c r="J359" t="inlineStr"/>
-      <c r="K359" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L359" t="n">
-        <v>1</v>
-      </c>
-      <c r="M359" t="inlineStr"/>
-    </row>
-    <row r="360">
-      <c r="A360" s="1" t="n">
-        <v>358</v>
-      </c>
-      <c r="B360" t="n">
-        <v>43.37</v>
-      </c>
-      <c r="C360" t="n">
-        <v>42.69</v>
-      </c>
-      <c r="D360" t="n">
-        <v>43.37</v>
-      </c>
-      <c r="E360" t="n">
-        <v>42.69</v>
-      </c>
-      <c r="F360" t="n">
-        <v>17646</v>
-      </c>
-      <c r="G360" t="n">
-        <v>-188082.5325460689</v>
-      </c>
-      <c r="H360" t="n">
-        <v>1</v>
-      </c>
-      <c r="I360" t="n">
-        <v>43.08</v>
-      </c>
-      <c r="J360" t="inlineStr"/>
-      <c r="K360" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L360" t="n">
-        <v>1</v>
-      </c>
-      <c r="M360" t="inlineStr"/>
-    </row>
-    <row r="361">
-      <c r="A361" s="1" t="n">
-        <v>359</v>
-      </c>
-      <c r="B361" t="n">
-        <v>42.7</v>
-      </c>
-      <c r="C361" t="n">
-        <v>42.7</v>
-      </c>
-      <c r="D361" t="n">
-        <v>42.7</v>
-      </c>
-      <c r="E361" t="n">
-        <v>42.7</v>
-      </c>
-      <c r="F361" t="n">
-        <v>4500</v>
-      </c>
-      <c r="G361" t="n">
-        <v>-183582.5325460689</v>
-      </c>
-      <c r="H361" t="n">
-        <v>1</v>
-      </c>
-      <c r="I361" t="n">
-        <v>42.69</v>
-      </c>
-      <c r="J361" t="inlineStr"/>
-      <c r="K361" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L361" t="n">
-        <v>1</v>
-      </c>
-      <c r="M361" t="inlineStr"/>
-    </row>
-    <row r="362">
-      <c r="A362" s="1" t="n">
-        <v>360</v>
-      </c>
-      <c r="B362" t="n">
-        <v>42.7</v>
-      </c>
-      <c r="C362" t="n">
-        <v>42.7</v>
-      </c>
-      <c r="D362" t="n">
-        <v>42.7</v>
-      </c>
-      <c r="E362" t="n">
-        <v>42.7</v>
-      </c>
-      <c r="F362" t="n">
-        <v>1387.37</v>
-      </c>
-      <c r="G362" t="n">
-        <v>-183582.5325460689</v>
-      </c>
-      <c r="H362" t="n">
-        <v>1</v>
-      </c>
-      <c r="I362" t="n">
-        <v>42.7</v>
-      </c>
-      <c r="J362" t="inlineStr"/>
-      <c r="K362" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L362" t="n">
-        <v>1</v>
-      </c>
-      <c r="M362" t="inlineStr"/>
-    </row>
-    <row r="363">
-      <c r="A363" s="1" t="n">
-        <v>361</v>
-      </c>
-      <c r="B363" t="n">
-        <v>42.7</v>
-      </c>
-      <c r="C363" t="n">
-        <v>43.07</v>
-      </c>
-      <c r="D363" t="n">
-        <v>43.29</v>
-      </c>
-      <c r="E363" t="n">
-        <v>41.8</v>
-      </c>
-      <c r="F363" t="n">
-        <v>30069.2959</v>
-      </c>
-      <c r="G363" t="n">
-        <v>-153513.2366460689</v>
-      </c>
-      <c r="H363" t="n">
-        <v>1</v>
-      </c>
-      <c r="I363" t="n">
-        <v>42.7</v>
-      </c>
-      <c r="J363" t="inlineStr"/>
-      <c r="K363" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L363" t="n">
         <v>1</v>
       </c>
@@ -12457,12 +12449,12 @@
         <v>-154513.2366460689</v>
       </c>
       <c r="H364" t="n">
-        <v>1</v>
-      </c>
-      <c r="I364" t="n">
-        <v>43.07</v>
-      </c>
-      <c r="J364" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I364" t="inlineStr"/>
+      <c r="J364" t="n">
+        <v>42.7</v>
+      </c>
       <c r="K364" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12501,7 +12493,9 @@
       <c r="I365" t="n">
         <v>42.88</v>
       </c>
-      <c r="J365" t="inlineStr"/>
+      <c r="J365" t="n">
+        <v>42.7</v>
+      </c>
       <c r="K365" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12540,7 +12534,9 @@
       <c r="I366" t="n">
         <v>43.06</v>
       </c>
-      <c r="J366" t="inlineStr"/>
+      <c r="J366" t="n">
+        <v>42.7</v>
+      </c>
       <c r="K366" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12579,7 +12575,9 @@
       <c r="I367" t="n">
         <v>42.74</v>
       </c>
-      <c r="J367" t="inlineStr"/>
+      <c r="J367" t="n">
+        <v>42.7</v>
+      </c>
       <c r="K367" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12618,7 +12616,9 @@
       <c r="I368" t="n">
         <v>42.5</v>
       </c>
-      <c r="J368" t="inlineStr"/>
+      <c r="J368" t="n">
+        <v>42.7</v>
+      </c>
       <c r="K368" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12657,7 +12657,9 @@
       <c r="I369" t="n">
         <v>42.6</v>
       </c>
-      <c r="J369" t="inlineStr"/>
+      <c r="J369" t="n">
+        <v>42.7</v>
+      </c>
       <c r="K369" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12696,7 +12698,9 @@
       <c r="I370" t="n">
         <v>42.6</v>
       </c>
-      <c r="J370" t="inlineStr"/>
+      <c r="J370" t="n">
+        <v>42.7</v>
+      </c>
       <c r="K370" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12735,7 +12739,9 @@
       <c r="I371" t="n">
         <v>42.89</v>
       </c>
-      <c r="J371" t="inlineStr"/>
+      <c r="J371" t="n">
+        <v>42.7</v>
+      </c>
       <c r="K371" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12774,7 +12780,9 @@
       <c r="I372" t="n">
         <v>42.99</v>
       </c>
-      <c r="J372" t="inlineStr"/>
+      <c r="J372" t="n">
+        <v>42.7</v>
+      </c>
       <c r="K372" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12813,7 +12821,9 @@
       <c r="I373" t="n">
         <v>42.73</v>
       </c>
-      <c r="J373" t="inlineStr"/>
+      <c r="J373" t="n">
+        <v>42.7</v>
+      </c>
       <c r="K373" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12825,6 +12835,6 @@
       <c r="M373" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-24 BackTest GNT.xlsx
+++ b/BackTest/2020-01-24 BackTest GNT.xlsx
@@ -451,7 +451,7 @@
         <v>161034.1491723638</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>155490.3229723638</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>150811.2411723638</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>150811.2411723638</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>150811.2411723638</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>154591.5041723638</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>156270.5859723638</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>168293.3259723638</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>153176.7916723638</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>153176.7916723638</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>169207.9787723638</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>168626.6559723638</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>181949.8450723638</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>183390.9925723638</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>183390.9925723638</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>177012.1149723638</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>122767.4447723638</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>129563.7846723638</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -4972,7 +4972,7 @@
         <v>80237.83798617459</v>
       </c>
       <c r="H139" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5038,7 +5038,7 @@
         <v>69644.3619861746</v>
       </c>
       <c r="H141" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5071,7 +5071,7 @@
         <v>6342.6144861746</v>
       </c>
       <c r="H142" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5104,7 +5104,7 @@
         <v>8905.6144861746</v>
       </c>
       <c r="H143" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5137,7 +5137,7 @@
         <v>15028.4981861746</v>
       </c>
       <c r="H144" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5170,7 +5170,7 @@
         <v>30710.2951861746</v>
       </c>
       <c r="H145" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5203,7 +5203,7 @@
         <v>43619.0308861746</v>
       </c>
       <c r="H146" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -6358,7 +6358,7 @@
         <v>-253565.5705625313</v>
       </c>
       <c r="H181" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -6391,7 +6391,7 @@
         <v>-305454.8582625313</v>
       </c>
       <c r="H182" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
@@ -6424,7 +6424,7 @@
         <v>-303842.6520625313</v>
       </c>
       <c r="H183" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -7843,7 +7843,7 @@
         <v>-221858.8652153325</v>
       </c>
       <c r="H226" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
@@ -7876,7 +7876,7 @@
         <v>109922.5039846676</v>
       </c>
       <c r="H227" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
@@ -8932,7 +8932,7 @@
         <v>147039.8177539311</v>
       </c>
       <c r="H259" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
@@ -8965,7 +8965,7 @@
         <v>138037.1768539311</v>
       </c>
       <c r="H260" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
@@ -8998,7 +8998,7 @@
         <v>139837.1768539311</v>
       </c>
       <c r="H261" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
@@ -9031,7 +9031,7 @@
         <v>138797.1768539311</v>
       </c>
       <c r="H262" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
@@ -9064,7 +9064,7 @@
         <v>132182.9994539311</v>
       </c>
       <c r="H263" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
@@ -9097,7 +9097,7 @@
         <v>183787.9994539311</v>
       </c>
       <c r="H264" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
@@ -9163,7 +9163,7 @@
         <v>171451.2369539311</v>
       </c>
       <c r="H266" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
@@ -9196,7 +9196,7 @@
         <v>171451.2369539311</v>
       </c>
       <c r="H267" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
@@ -9262,7 +9262,7 @@
         <v>170207.0942539311</v>
       </c>
       <c r="H269" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
@@ -12133,14 +12133,10 @@
         <v>-172176.8287460689</v>
       </c>
       <c r="H356" t="n">
-        <v>1</v>
-      </c>
-      <c r="I356" t="n">
-        <v>42.36</v>
-      </c>
-      <c r="J356" t="n">
-        <v>42.36</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I356" t="inlineStr"/>
+      <c r="J356" t="inlineStr"/>
       <c r="K356" t="inlineStr"/>
       <c r="L356" t="n">
         <v>1</v>
@@ -12176,13 +12172,9 @@
         <v>42.01</v>
       </c>
       <c r="J357" t="n">
-        <v>42.36</v>
-      </c>
-      <c r="K357" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>42.01</v>
+      </c>
+      <c r="K357" t="inlineStr"/>
       <c r="L357" t="n">
         <v>1</v>
       </c>
@@ -12217,7 +12209,7 @@
         <v>42.5</v>
       </c>
       <c r="J358" t="n">
-        <v>42.36</v>
+        <v>42.01</v>
       </c>
       <c r="K358" t="inlineStr">
         <is>
@@ -12258,9 +12250,13 @@
         <v>42.04</v>
       </c>
       <c r="J359" t="n">
-        <v>42.04</v>
-      </c>
-      <c r="K359" t="inlineStr"/>
+        <v>42.01</v>
+      </c>
+      <c r="K359" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L359" t="n">
         <v>1</v>
       </c>
@@ -12295,11 +12291,11 @@
         <v>43.08</v>
       </c>
       <c r="J360" t="n">
-        <v>42.04</v>
+        <v>42.01</v>
       </c>
       <c r="K360" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L360" t="n">
@@ -12336,11 +12332,11 @@
         <v>42.69</v>
       </c>
       <c r="J361" t="n">
-        <v>42.04</v>
+        <v>42.01</v>
       </c>
       <c r="K361" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L361" t="n">
@@ -12377,9 +12373,13 @@
         <v>42.7</v>
       </c>
       <c r="J362" t="n">
-        <v>42.7</v>
-      </c>
-      <c r="K362" t="inlineStr"/>
+        <v>42.01</v>
+      </c>
+      <c r="K362" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L362" t="n">
         <v>1</v>
       </c>
@@ -12414,11 +12414,11 @@
         <v>42.7</v>
       </c>
       <c r="J363" t="n">
-        <v>42.7</v>
+        <v>42.01</v>
       </c>
       <c r="K363" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L363" t="n">
@@ -12449,11 +12449,13 @@
         <v>-154513.2366460689</v>
       </c>
       <c r="H364" t="n">
-        <v>0</v>
-      </c>
-      <c r="I364" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I364" t="n">
+        <v>43.07</v>
+      </c>
       <c r="J364" t="n">
-        <v>42.7</v>
+        <v>42.01</v>
       </c>
       <c r="K364" t="inlineStr">
         <is>
@@ -12494,7 +12496,7 @@
         <v>42.88</v>
       </c>
       <c r="J365" t="n">
-        <v>42.7</v>
+        <v>42.01</v>
       </c>
       <c r="K365" t="inlineStr">
         <is>
@@ -12535,7 +12537,7 @@
         <v>43.06</v>
       </c>
       <c r="J366" t="n">
-        <v>42.7</v>
+        <v>42.01</v>
       </c>
       <c r="K366" t="inlineStr">
         <is>
@@ -12576,7 +12578,7 @@
         <v>42.74</v>
       </c>
       <c r="J367" t="n">
-        <v>42.7</v>
+        <v>42.01</v>
       </c>
       <c r="K367" t="inlineStr">
         <is>
@@ -12617,7 +12619,7 @@
         <v>42.5</v>
       </c>
       <c r="J368" t="n">
-        <v>42.7</v>
+        <v>42.01</v>
       </c>
       <c r="K368" t="inlineStr">
         <is>
@@ -12658,7 +12660,7 @@
         <v>42.6</v>
       </c>
       <c r="J369" t="n">
-        <v>42.7</v>
+        <v>42.01</v>
       </c>
       <c r="K369" t="inlineStr">
         <is>
@@ -12699,7 +12701,7 @@
         <v>42.6</v>
       </c>
       <c r="J370" t="n">
-        <v>42.7</v>
+        <v>42.01</v>
       </c>
       <c r="K370" t="inlineStr">
         <is>
@@ -12740,7 +12742,7 @@
         <v>42.89</v>
       </c>
       <c r="J371" t="n">
-        <v>42.7</v>
+        <v>42.01</v>
       </c>
       <c r="K371" t="inlineStr">
         <is>
@@ -12781,7 +12783,7 @@
         <v>42.99</v>
       </c>
       <c r="J372" t="n">
-        <v>42.7</v>
+        <v>42.01</v>
       </c>
       <c r="K372" t="inlineStr">
         <is>
@@ -12822,7 +12824,7 @@
         <v>42.73</v>
       </c>
       <c r="J373" t="n">
-        <v>42.7</v>
+        <v>42.01</v>
       </c>
       <c r="K373" t="inlineStr">
         <is>

--- a/BackTest/2020-01-24 BackTest GNT.xlsx
+++ b/BackTest/2020-01-24 BackTest GNT.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M373"/>
+  <dimension ref="A1:L373"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
           <t>OBV</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>trade_state</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>2460</v>
       </c>
       <c r="G2" t="n">
-        <v>161034.1491723638</v>
-      </c>
-      <c r="H2" t="n">
         <v>2</v>
       </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,18 +473,15 @@
         <v>5543.8262</v>
       </c>
       <c r="G3" t="n">
-        <v>155490.3229723638</v>
-      </c>
-      <c r="H3" t="n">
         <v>2</v>
       </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -514,18 +503,15 @@
         <v>4679.0818</v>
       </c>
       <c r="G4" t="n">
-        <v>150811.2411723638</v>
-      </c>
-      <c r="H4" t="n">
         <v>2</v>
       </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -547,18 +533,15 @@
         <v>15219.7569</v>
       </c>
       <c r="G5" t="n">
-        <v>150811.2411723638</v>
-      </c>
-      <c r="H5" t="n">
         <v>2</v>
       </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -580,18 +563,15 @@
         <v>4644</v>
       </c>
       <c r="G6" t="n">
-        <v>150811.2411723638</v>
-      </c>
-      <c r="H6" t="n">
         <v>2</v>
       </c>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -613,18 +593,15 @@
         <v>3780.263</v>
       </c>
       <c r="G7" t="n">
-        <v>154591.5041723638</v>
-      </c>
-      <c r="H7" t="n">
         <v>2</v>
       </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -646,18 +623,15 @@
         <v>1679.0818</v>
       </c>
       <c r="G8" t="n">
-        <v>156270.5859723638</v>
-      </c>
-      <c r="H8" t="n">
         <v>2</v>
       </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -679,18 +653,15 @@
         <v>12022.74</v>
       </c>
       <c r="G9" t="n">
-        <v>168293.3259723638</v>
-      </c>
-      <c r="H9" t="n">
         <v>2</v>
       </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -712,18 +683,15 @@
         <v>15116.5343</v>
       </c>
       <c r="G10" t="n">
-        <v>153176.7916723638</v>
-      </c>
-      <c r="H10" t="n">
         <v>2</v>
       </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -745,18 +713,15 @@
         <v>1041.5461</v>
       </c>
       <c r="G11" t="n">
-        <v>153176.7916723638</v>
-      </c>
-      <c r="H11" t="n">
         <v>2</v>
       </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -778,18 +743,15 @@
         <v>16031.1871</v>
       </c>
       <c r="G12" t="n">
-        <v>169207.9787723638</v>
-      </c>
-      <c r="H12" t="n">
         <v>2</v>
       </c>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -811,18 +773,15 @@
         <v>114.5368</v>
       </c>
       <c r="G13" t="n">
-        <v>169322.5155723638</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -844,18 +803,15 @@
         <v>695.8596</v>
       </c>
       <c r="G14" t="n">
-        <v>168626.6559723638</v>
-      </c>
-      <c r="H14" t="n">
         <v>2</v>
       </c>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -877,18 +833,15 @@
         <v>13323.1891</v>
       </c>
       <c r="G15" t="n">
-        <v>181949.8450723638</v>
-      </c>
-      <c r="H15" t="n">
         <v>2</v>
       </c>
+      <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -910,18 +863,15 @@
         <v>1441.1475</v>
       </c>
       <c r="G16" t="n">
-        <v>183390.9925723638</v>
-      </c>
-      <c r="H16" t="n">
         <v>2</v>
       </c>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -943,18 +893,15 @@
         <v>8469.999900000001</v>
       </c>
       <c r="G17" t="n">
-        <v>183390.9925723638</v>
-      </c>
-      <c r="H17" t="n">
         <v>2</v>
       </c>
+      <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -976,18 +923,15 @@
         <v>6378.8776</v>
       </c>
       <c r="G18" t="n">
-        <v>177012.1149723638</v>
-      </c>
-      <c r="H18" t="n">
         <v>2</v>
       </c>
+      <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1009,18 +953,15 @@
         <v>54244.6702</v>
       </c>
       <c r="G19" t="n">
-        <v>122767.4447723638</v>
-      </c>
-      <c r="H19" t="n">
         <v>2</v>
       </c>
+      <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1042,18 +983,15 @@
         <v>6796.3399</v>
       </c>
       <c r="G20" t="n">
-        <v>129563.7846723638</v>
-      </c>
-      <c r="H20" t="n">
         <v>2</v>
       </c>
+      <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1075,18 +1013,15 @@
         <v>9771.651</v>
       </c>
       <c r="G21" t="n">
-        <v>119792.1336723638</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1108,18 +1043,15 @@
         <v>5226.103</v>
       </c>
       <c r="G22" t="n">
-        <v>125018.2366723638</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1141,18 +1073,15 @@
         <v>30555.8052</v>
       </c>
       <c r="G23" t="n">
-        <v>94462.43147236382</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1174,18 +1103,15 @@
         <v>1482.4447</v>
       </c>
       <c r="G24" t="n">
-        <v>92979.98677236383</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1207,18 +1133,15 @@
         <v>1549</v>
       </c>
       <c r="G25" t="n">
-        <v>91430.98677236383</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1240,18 +1163,15 @@
         <v>8723.3665</v>
       </c>
       <c r="G26" t="n">
-        <v>82707.62027236383</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1273,18 +1193,15 @@
         <v>14984</v>
       </c>
       <c r="G27" t="n">
-        <v>97691.62027236383</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1306,18 +1223,15 @@
         <v>3000</v>
       </c>
       <c r="G28" t="n">
-        <v>100691.6202723638</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1339,18 +1253,15 @@
         <v>60.8709</v>
       </c>
       <c r="G29" t="n">
-        <v>100630.7493723638</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1372,18 +1283,15 @@
         <v>2923.0741</v>
       </c>
       <c r="G30" t="n">
-        <v>103553.8234723638</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1405,18 +1313,15 @@
         <v>10248.0287</v>
       </c>
       <c r="G31" t="n">
-        <v>103553.8234723638</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1438,18 +1343,15 @@
         <v>47668.02</v>
       </c>
       <c r="G32" t="n">
-        <v>55885.80347236383</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1471,18 +1373,15 @@
         <v>28569.1557</v>
       </c>
       <c r="G33" t="n">
-        <v>84454.95917236383</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1504,18 +1403,15 @@
         <v>1549</v>
       </c>
       <c r="G34" t="n">
-        <v>82905.95917236383</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1537,18 +1433,15 @@
         <v>16325.2798</v>
       </c>
       <c r="G35" t="n">
-        <v>99231.23897236383</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1570,18 +1463,15 @@
         <v>1549</v>
       </c>
       <c r="G36" t="n">
-        <v>97682.23897236383</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1603,18 +1493,15 @@
         <v>1069.5436</v>
       </c>
       <c r="G37" t="n">
-        <v>96612.69537236383</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1636,18 +1523,15 @@
         <v>507.2185</v>
       </c>
       <c r="G38" t="n">
-        <v>97119.91387236383</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1669,18 +1553,15 @@
         <v>4000</v>
       </c>
       <c r="G39" t="n">
-        <v>101119.9138723638</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1702,18 +1583,15 @@
         <v>22523</v>
       </c>
       <c r="G40" t="n">
-        <v>78596.91387236383</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1735,18 +1613,15 @@
         <v>7000</v>
       </c>
       <c r="G41" t="n">
-        <v>85596.91387236383</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1768,18 +1643,15 @@
         <v>12188</v>
       </c>
       <c r="G42" t="n">
-        <v>73408.91387236383</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1801,18 +1673,15 @@
         <v>12347.4817</v>
       </c>
       <c r="G43" t="n">
-        <v>61061.43217236383</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1834,18 +1703,15 @@
         <v>33</v>
       </c>
       <c r="G44" t="n">
-        <v>61094.43217236383</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1867,18 +1733,15 @@
         <v>1070.8915</v>
       </c>
       <c r="G45" t="n">
-        <v>60023.54067236383</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1900,18 +1763,15 @@
         <v>17336.71</v>
       </c>
       <c r="G46" t="n">
-        <v>42686.83067236383</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1933,18 +1793,15 @@
         <v>5000</v>
       </c>
       <c r="G47" t="n">
-        <v>37686.83067236383</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1966,18 +1823,15 @@
         <v>13850.9057</v>
       </c>
       <c r="G48" t="n">
-        <v>51537.73637236383</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1999,18 +1853,15 @@
         <v>22918.4888</v>
       </c>
       <c r="G49" t="n">
-        <v>51537.73637236383</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2032,18 +1883,15 @@
         <v>7958.4267</v>
       </c>
       <c r="G50" t="n">
-        <v>59496.16307236382</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2065,18 +1913,15 @@
         <v>8524.879999999999</v>
       </c>
       <c r="G51" t="n">
-        <v>68021.04307236383</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2098,18 +1943,15 @@
         <v>1749.7139</v>
       </c>
       <c r="G52" t="n">
-        <v>69770.75697236383</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2131,18 +1973,15 @@
         <v>820</v>
       </c>
       <c r="G53" t="n">
-        <v>70590.75697236383</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2164,18 +2003,15 @@
         <v>810</v>
       </c>
       <c r="G54" t="n">
-        <v>69780.75697236383</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2197,18 +2033,15 @@
         <v>1640</v>
       </c>
       <c r="G55" t="n">
-        <v>68140.75697236383</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2230,18 +2063,15 @@
         <v>820</v>
       </c>
       <c r="G56" t="n">
-        <v>68960.75697236383</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2263,18 +2093,15 @@
         <v>820</v>
       </c>
       <c r="G57" t="n">
-        <v>69780.75697236383</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2296,18 +2123,15 @@
         <v>37145.2249</v>
       </c>
       <c r="G58" t="n">
-        <v>32635.53207236383</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2329,18 +2153,15 @@
         <v>2998.4459</v>
       </c>
       <c r="G59" t="n">
-        <v>35633.97797236383</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2362,18 +2183,15 @@
         <v>1052.6351</v>
       </c>
       <c r="G60" t="n">
-        <v>36686.61307236383</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2395,18 +2213,15 @@
         <v>10090.9276</v>
       </c>
       <c r="G61" t="n">
-        <v>26595.68547236382</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2428,18 +2243,15 @@
         <v>927.6887</v>
       </c>
       <c r="G62" t="n">
-        <v>25667.99677236383</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2461,18 +2273,15 @@
         <v>5606.682</v>
       </c>
       <c r="G63" t="n">
-        <v>31274.67877236383</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2494,18 +2303,15 @@
         <v>9825.818799999999</v>
       </c>
       <c r="G64" t="n">
-        <v>21448.85997236383</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2527,18 +2333,15 @@
         <v>10302.7627</v>
       </c>
       <c r="G65" t="n">
-        <v>31751.62267236382</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2560,18 +2363,15 @@
         <v>500</v>
       </c>
       <c r="G66" t="n">
-        <v>32251.62267236382</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2593,18 +2393,15 @@
         <v>497.637</v>
       </c>
       <c r="G67" t="n">
-        <v>31753.98567236383</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2626,18 +2423,15 @@
         <v>11136.7487</v>
       </c>
       <c r="G68" t="n">
-        <v>20617.23697236383</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2659,18 +2453,15 @@
         <v>12280.2988</v>
       </c>
       <c r="G69" t="n">
-        <v>8336.938172363825</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2692,18 +2483,15 @@
         <v>10279.3352</v>
       </c>
       <c r="G70" t="n">
-        <v>18616.27337236382</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2725,18 +2513,15 @@
         <v>5000</v>
       </c>
       <c r="G71" t="n">
-        <v>13616.27337236382</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2758,18 +2543,15 @@
         <v>946.2838</v>
       </c>
       <c r="G72" t="n">
-        <v>12669.98957236382</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2791,18 +2573,15 @@
         <v>5369.6108</v>
       </c>
       <c r="G73" t="n">
-        <v>12669.98957236382</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2824,18 +2603,15 @@
         <v>23263.3423</v>
       </c>
       <c r="G74" t="n">
-        <v>-10593.35272763618</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2857,18 +2633,15 @@
         <v>9405.5589</v>
       </c>
       <c r="G75" t="n">
-        <v>-1187.793827636177</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2890,18 +2663,15 @@
         <v>2371.6752</v>
       </c>
       <c r="G76" t="n">
-        <v>1183.881372363824</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2923,18 +2693,15 @@
         <v>1851.57</v>
       </c>
       <c r="G77" t="n">
-        <v>-667.6886276361763</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2956,18 +2723,15 @@
         <v>71.2617</v>
       </c>
       <c r="G78" t="n">
-        <v>-596.4269276361763</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2989,18 +2753,15 @@
         <v>1820</v>
       </c>
       <c r="G79" t="n">
-        <v>-2416.426927636177</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3022,18 +2783,15 @@
         <v>8432.3665</v>
       </c>
       <c r="G80" t="n">
-        <v>-10848.79342763618</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3055,18 +2813,15 @@
         <v>20660.084</v>
       </c>
       <c r="G81" t="n">
-        <v>-10848.79342763618</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3088,18 +2843,15 @@
         <v>1431.0703</v>
       </c>
       <c r="G82" t="n">
-        <v>-12279.86372763618</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3121,18 +2873,15 @@
         <v>274.6225</v>
       </c>
       <c r="G83" t="n">
-        <v>-12005.24122763618</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3154,18 +2903,15 @@
         <v>122453.5283</v>
       </c>
       <c r="G84" t="n">
-        <v>-134458.7695276362</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3187,18 +2933,15 @@
         <v>163582.9237</v>
       </c>
       <c r="G85" t="n">
-        <v>29124.15417236384</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3220,18 +2963,15 @@
         <v>17437.3412</v>
       </c>
       <c r="G86" t="n">
-        <v>46561.49537236383</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3253,18 +2993,15 @@
         <v>23800</v>
       </c>
       <c r="G87" t="n">
-        <v>70361.49537236383</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3286,18 +3023,15 @@
         <v>1660</v>
       </c>
       <c r="G88" t="n">
-        <v>68701.49537236383</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3319,18 +3053,15 @@
         <v>3222.66</v>
       </c>
       <c r="G89" t="n">
-        <v>65478.83537236383</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3352,18 +3083,15 @@
         <v>3928</v>
       </c>
       <c r="G90" t="n">
-        <v>69406.83537236383</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3385,18 +3113,15 @@
         <v>7000</v>
       </c>
       <c r="G91" t="n">
-        <v>62406.83537236383</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3418,18 +3143,15 @@
         <v>7316.5942</v>
       </c>
       <c r="G92" t="n">
-        <v>69723.42957236382</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3451,18 +3173,15 @@
         <v>810</v>
       </c>
       <c r="G93" t="n">
-        <v>70533.42957236382</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3484,18 +3203,15 @@
         <v>5576</v>
       </c>
       <c r="G94" t="n">
-        <v>76109.42957236382</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3517,18 +3233,15 @@
         <v>10223</v>
       </c>
       <c r="G95" t="n">
-        <v>65886.42957236382</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3550,18 +3263,15 @@
         <v>6363.5536</v>
       </c>
       <c r="G96" t="n">
-        <v>72249.98317236382</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3583,18 +3293,15 @@
         <v>2747.5311</v>
       </c>
       <c r="G97" t="n">
-        <v>69502.45207236381</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3616,18 +3323,15 @@
         <v>3562.5851</v>
       </c>
       <c r="G98" t="n">
-        <v>65939.86697236382</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3649,18 +3353,15 @@
         <v>13888.2258</v>
       </c>
       <c r="G99" t="n">
-        <v>79828.09277236382</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3682,18 +3383,15 @@
         <v>152.4704</v>
       </c>
       <c r="G100" t="n">
-        <v>79980.56317236382</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3715,18 +3413,15 @@
         <v>92.80418665503707</v>
       </c>
       <c r="G101" t="n">
-        <v>80073.36735901886</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -3748,18 +3443,15 @@
         <v>41041.6231</v>
       </c>
       <c r="G102" t="n">
-        <v>39031.74425901886</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -3781,18 +3473,15 @@
         <v>2266.4659</v>
       </c>
       <c r="G103" t="n">
-        <v>41298.21015901886</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -3814,18 +3503,15 @@
         <v>5244.4838</v>
       </c>
       <c r="G104" t="n">
-        <v>46542.69395901886</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -3847,18 +3533,15 @@
         <v>5975.459869848156</v>
       </c>
       <c r="G105" t="n">
-        <v>52518.15382886702</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -3880,18 +3563,15 @@
         <v>4647</v>
       </c>
       <c r="G106" t="n">
-        <v>47871.15382886702</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -3913,18 +3593,15 @@
         <v>1549</v>
       </c>
       <c r="G107" t="n">
-        <v>47871.15382886702</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -3946,18 +3623,15 @@
         <v>192.6376440460947</v>
       </c>
       <c r="G108" t="n">
-        <v>48063.79147291312</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -3979,18 +3653,15 @@
         <v>423.975</v>
       </c>
       <c r="G109" t="n">
-        <v>47639.81647291312</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4012,18 +3683,15 @@
         <v>3327.161630383544</v>
       </c>
       <c r="G110" t="n">
-        <v>50966.97810329666</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4045,18 +3713,15 @@
         <v>187.146529562982</v>
       </c>
       <c r="G111" t="n">
-        <v>51154.12463285965</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4078,18 +3743,15 @@
         <v>168.3872349539516</v>
       </c>
       <c r="G112" t="n">
-        <v>51322.5118678136</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4111,18 +3773,15 @@
         <v>10849.11011955705</v>
       </c>
       <c r="G113" t="n">
-        <v>40473.40174825655</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4144,18 +3803,15 @@
         <v>93.70143149284253</v>
       </c>
       <c r="G114" t="n">
-        <v>40567.10317974939</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4177,18 +3833,15 @@
         <v>10440.4267</v>
       </c>
       <c r="G115" t="n">
-        <v>30126.67647974939</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4210,18 +3863,15 @@
         <v>36417.1119</v>
       </c>
       <c r="G116" t="n">
-        <v>66543.7883797494</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4243,18 +3893,15 @@
         <v>16545.6906</v>
       </c>
       <c r="G117" t="n">
-        <v>49998.0977797494</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4276,18 +3923,15 @@
         <v>89.54290642518328</v>
       </c>
       <c r="G118" t="n">
-        <v>50087.64068617458</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H118" t="inlineStr"/>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4309,18 +3953,15 @@
         <v>29678.5497</v>
       </c>
       <c r="G119" t="n">
-        <v>20409.09098617458</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4342,18 +3983,15 @@
         <v>13498.7834</v>
       </c>
       <c r="G120" t="n">
-        <v>6910.307586174578</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4375,18 +4013,15 @@
         <v>44016.5336</v>
       </c>
       <c r="G121" t="n">
-        <v>50926.84118617458</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4408,18 +4043,15 @@
         <v>7124.0875</v>
       </c>
       <c r="G122" t="n">
-        <v>43802.75368617458</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H122" t="inlineStr"/>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4441,18 +4073,15 @@
         <v>11794.0662</v>
       </c>
       <c r="G123" t="n">
-        <v>55596.81988617458</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4474,18 +4103,15 @@
         <v>680</v>
       </c>
       <c r="G124" t="n">
-        <v>55596.81988617458</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4507,18 +4133,15 @@
         <v>680</v>
       </c>
       <c r="G125" t="n">
-        <v>55596.81988617458</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H125" t="inlineStr"/>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4540,18 +4163,15 @@
         <v>803.1959000000001</v>
       </c>
       <c r="G126" t="n">
-        <v>56400.01578617458</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H126" t="inlineStr"/>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4573,18 +4193,15 @@
         <v>9371.258400000001</v>
       </c>
       <c r="G127" t="n">
-        <v>47028.75738617458</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H127" t="inlineStr"/>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4606,18 +4223,15 @@
         <v>15930.1925</v>
       </c>
       <c r="G128" t="n">
-        <v>31098.56488617459</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H128" t="inlineStr"/>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -4639,18 +4253,15 @@
         <v>1549</v>
       </c>
       <c r="G129" t="n">
-        <v>32647.56488617459</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H129" t="inlineStr"/>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -4672,18 +4283,15 @@
         <v>5896.5419</v>
       </c>
       <c r="G130" t="n">
-        <v>32647.56488617459</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H130" t="inlineStr"/>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>1</v>
+      </c>
+      <c r="L130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -4705,18 +4313,15 @@
         <v>12048.5184</v>
       </c>
       <c r="G131" t="n">
-        <v>32647.56488617459</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H131" t="inlineStr"/>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -4738,18 +4343,15 @@
         <v>534.004</v>
       </c>
       <c r="G132" t="n">
-        <v>32113.56088617459</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H132" t="inlineStr"/>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -4771,18 +4373,15 @@
         <v>10616.1788</v>
       </c>
       <c r="G133" t="n">
-        <v>42729.73968617459</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H133" t="inlineStr"/>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>1</v>
+      </c>
+      <c r="L133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -4804,18 +4403,15 @@
         <v>1866.8479</v>
       </c>
       <c r="G134" t="n">
-        <v>40862.89178617459</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H134" t="inlineStr"/>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>1</v>
+      </c>
+      <c r="L134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -4837,18 +4433,15 @@
         <v>10649.5375</v>
       </c>
       <c r="G135" t="n">
-        <v>40862.89178617459</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H135" t="inlineStr"/>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>1</v>
+      </c>
+      <c r="L135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -4870,18 +4463,15 @@
         <v>3362.3653</v>
       </c>
       <c r="G136" t="n">
-        <v>44225.25708617458</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H136" t="inlineStr"/>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>1</v>
+      </c>
+      <c r="L136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -4903,18 +4493,15 @@
         <v>6296</v>
       </c>
       <c r="G137" t="n">
-        <v>50521.25708617458</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H137" t="inlineStr"/>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>1</v>
+      </c>
+      <c r="L137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -4936,18 +4523,15 @@
         <v>12037.5809</v>
       </c>
       <c r="G138" t="n">
-        <v>62558.83798617459</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H138" t="inlineStr"/>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>1</v>
+      </c>
+      <c r="L138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -4969,18 +4553,15 @@
         <v>17679</v>
       </c>
       <c r="G139" t="n">
-        <v>80237.83798617459</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H139" t="inlineStr"/>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>1</v>
+      </c>
+      <c r="L139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5002,18 +4583,15 @@
         <v>8158.476</v>
       </c>
       <c r="G140" t="n">
-        <v>72079.3619861746</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H140" t="inlineStr"/>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>1</v>
+      </c>
+      <c r="L140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5035,18 +4613,15 @@
         <v>2435</v>
       </c>
       <c r="G141" t="n">
-        <v>69644.3619861746</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H141" t="inlineStr"/>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="n">
-        <v>1</v>
-      </c>
-      <c r="M141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>1</v>
+      </c>
+      <c r="L141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5068,18 +4643,15 @@
         <v>63301.7475</v>
       </c>
       <c r="G142" t="n">
-        <v>6342.6144861746</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H142" t="inlineStr"/>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="n">
-        <v>1</v>
-      </c>
-      <c r="M142" t="inlineStr"/>
+      <c r="K142" t="n">
+        <v>1</v>
+      </c>
+      <c r="L142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5101,18 +4673,15 @@
         <v>2563</v>
       </c>
       <c r="G143" t="n">
-        <v>8905.6144861746</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H143" t="inlineStr"/>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="n">
-        <v>1</v>
-      </c>
-      <c r="M143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>1</v>
+      </c>
+      <c r="L143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5134,18 +4703,15 @@
         <v>6122.8837</v>
       </c>
       <c r="G144" t="n">
-        <v>15028.4981861746</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H144" t="inlineStr"/>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="n">
-        <v>1</v>
-      </c>
-      <c r="M144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>1</v>
+      </c>
+      <c r="L144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5167,18 +4733,15 @@
         <v>15681.797</v>
       </c>
       <c r="G145" t="n">
-        <v>30710.2951861746</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H145" t="inlineStr"/>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="n">
-        <v>1</v>
-      </c>
-      <c r="M145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>1</v>
+      </c>
+      <c r="L145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5200,18 +4763,15 @@
         <v>12908.7357</v>
       </c>
       <c r="G146" t="n">
-        <v>43619.0308861746</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H146" t="inlineStr"/>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="n">
-        <v>1</v>
-      </c>
-      <c r="M146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>1</v>
+      </c>
+      <c r="L146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5233,18 +4793,15 @@
         <v>2923.0741</v>
       </c>
       <c r="G147" t="n">
-        <v>40695.9567861746</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H147" t="inlineStr"/>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="n">
-        <v>1</v>
-      </c>
-      <c r="M147" t="inlineStr"/>
+      <c r="K147" t="n">
+        <v>1</v>
+      </c>
+      <c r="L147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5266,18 +4823,15 @@
         <v>5200</v>
       </c>
       <c r="G148" t="n">
-        <v>45895.9567861746</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H148" t="inlineStr"/>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="n">
-        <v>1</v>
-      </c>
-      <c r="M148" t="inlineStr"/>
+      <c r="K148" t="n">
+        <v>1</v>
+      </c>
+      <c r="L148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5299,18 +4853,15 @@
         <v>1139.4847</v>
       </c>
       <c r="G149" t="n">
-        <v>44756.4720861746</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H149" t="inlineStr"/>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="n">
-        <v>1</v>
-      </c>
-      <c r="M149" t="inlineStr"/>
+      <c r="K149" t="n">
+        <v>1</v>
+      </c>
+      <c r="L149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5332,18 +4883,15 @@
         <v>5200</v>
       </c>
       <c r="G150" t="n">
-        <v>49956.4720861746</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H150" t="inlineStr"/>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="n">
-        <v>1</v>
-      </c>
-      <c r="M150" t="inlineStr"/>
+      <c r="K150" t="n">
+        <v>1</v>
+      </c>
+      <c r="L150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5365,18 +4913,15 @@
         <v>29333.5536</v>
       </c>
       <c r="G151" t="n">
-        <v>79290.0256861746</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H151" t="inlineStr"/>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="n">
-        <v>1</v>
-      </c>
-      <c r="M151" t="inlineStr"/>
+      <c r="K151" t="n">
+        <v>1</v>
+      </c>
+      <c r="L151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5398,18 +4943,15 @@
         <v>1593.5375</v>
       </c>
       <c r="G152" t="n">
-        <v>79290.0256861746</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H152" t="inlineStr"/>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="n">
-        <v>1</v>
-      </c>
-      <c r="M152" t="inlineStr"/>
+      <c r="K152" t="n">
+        <v>1</v>
+      </c>
+      <c r="L152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -5431,18 +4973,15 @@
         <v>7762.2568</v>
       </c>
       <c r="G153" t="n">
-        <v>71527.7688861746</v>
-      </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H153" t="inlineStr"/>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="n">
-        <v>1</v>
-      </c>
-      <c r="M153" t="inlineStr"/>
+      <c r="K153" t="n">
+        <v>1</v>
+      </c>
+      <c r="L153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -5464,18 +5003,15 @@
         <v>2470</v>
       </c>
       <c r="G154" t="n">
-        <v>73997.7688861746</v>
-      </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H154" t="inlineStr"/>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="n">
-        <v>1</v>
-      </c>
-      <c r="M154" t="inlineStr"/>
+      <c r="K154" t="n">
+        <v>1</v>
+      </c>
+      <c r="L154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -5497,18 +5033,15 @@
         <v>509.841</v>
       </c>
       <c r="G155" t="n">
-        <v>73487.9278861746</v>
-      </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H155" t="inlineStr"/>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="n">
-        <v>1</v>
-      </c>
-      <c r="M155" t="inlineStr"/>
+      <c r="K155" t="n">
+        <v>1</v>
+      </c>
+      <c r="L155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -5530,18 +5063,15 @@
         <v>1849.3117</v>
       </c>
       <c r="G156" t="n">
-        <v>75337.2395861746</v>
-      </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H156" t="inlineStr"/>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="n">
-        <v>1</v>
-      </c>
-      <c r="M156" t="inlineStr"/>
+      <c r="K156" t="n">
+        <v>1</v>
+      </c>
+      <c r="L156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -5563,18 +5093,15 @@
         <v>10216.3679</v>
       </c>
       <c r="G157" t="n">
-        <v>85553.6074861746</v>
-      </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H157" t="inlineStr"/>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="n">
-        <v>1</v>
-      </c>
-      <c r="M157" t="inlineStr"/>
+      <c r="K157" t="n">
+        <v>1</v>
+      </c>
+      <c r="L157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -5596,18 +5123,15 @@
         <v>5276.967019295746</v>
       </c>
       <c r="G158" t="n">
-        <v>90830.57450547034</v>
-      </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H158" t="inlineStr"/>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="n">
-        <v>1</v>
-      </c>
-      <c r="M158" t="inlineStr"/>
+      <c r="K158" t="n">
+        <v>1</v>
+      </c>
+      <c r="L158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -5629,18 +5153,15 @@
         <v>3020</v>
       </c>
       <c r="G159" t="n">
-        <v>87810.57450547034</v>
-      </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H159" t="inlineStr"/>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="n">
-        <v>1</v>
-      </c>
-      <c r="M159" t="inlineStr"/>
+      <c r="K159" t="n">
+        <v>1</v>
+      </c>
+      <c r="L159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -5662,18 +5183,15 @@
         <v>66619.83796800159</v>
       </c>
       <c r="G160" t="n">
-        <v>21190.73653746875</v>
-      </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H160" t="inlineStr"/>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="n">
-        <v>1</v>
-      </c>
-      <c r="M160" t="inlineStr"/>
+      <c r="K160" t="n">
+        <v>1</v>
+      </c>
+      <c r="L160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -5695,18 +5213,15 @@
         <v>1122.1594</v>
       </c>
       <c r="G161" t="n">
-        <v>20068.57713746875</v>
-      </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H161" t="inlineStr"/>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="n">
-        <v>1</v>
-      </c>
-      <c r="M161" t="inlineStr"/>
+      <c r="K161" t="n">
+        <v>1</v>
+      </c>
+      <c r="L161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -5728,18 +5243,15 @@
         <v>24000</v>
       </c>
       <c r="G162" t="n">
-        <v>-3931.42286253125</v>
-      </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H162" t="inlineStr"/>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="n">
-        <v>1</v>
-      </c>
-      <c r="M162" t="inlineStr"/>
+      <c r="K162" t="n">
+        <v>1</v>
+      </c>
+      <c r="L162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -5761,18 +5273,15 @@
         <v>4523.1842</v>
       </c>
       <c r="G163" t="n">
-        <v>591.7613374687498</v>
-      </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H163" t="inlineStr"/>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
-      <c r="L163" t="n">
-        <v>1</v>
-      </c>
-      <c r="M163" t="inlineStr"/>
+      <c r="K163" t="n">
+        <v>1</v>
+      </c>
+      <c r="L163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -5794,18 +5303,15 @@
         <v>10228.2008</v>
       </c>
       <c r="G164" t="n">
-        <v>10819.96213746875</v>
-      </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H164" t="inlineStr"/>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
-      <c r="L164" t="n">
-        <v>1</v>
-      </c>
-      <c r="M164" t="inlineStr"/>
+      <c r="K164" t="n">
+        <v>1</v>
+      </c>
+      <c r="L164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -5827,18 +5333,15 @@
         <v>25211.5732</v>
       </c>
       <c r="G165" t="n">
-        <v>-14391.61106253125</v>
-      </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H165" t="inlineStr"/>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
-      <c r="L165" t="n">
-        <v>1</v>
-      </c>
-      <c r="M165" t="inlineStr"/>
+      <c r="K165" t="n">
+        <v>1</v>
+      </c>
+      <c r="L165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -5860,18 +5363,15 @@
         <v>15977.5877</v>
       </c>
       <c r="G166" t="n">
-        <v>1585.976637468752</v>
-      </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H166" t="inlineStr"/>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
-      <c r="L166" t="n">
-        <v>1</v>
-      </c>
-      <c r="M166" t="inlineStr"/>
+      <c r="K166" t="n">
+        <v>1</v>
+      </c>
+      <c r="L166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -5893,18 +5393,15 @@
         <v>12520.3656</v>
       </c>
       <c r="G167" t="n">
-        <v>14106.34223746875</v>
-      </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H167" t="inlineStr"/>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
-      <c r="L167" t="n">
-        <v>1</v>
-      </c>
-      <c r="M167" t="inlineStr"/>
+      <c r="K167" t="n">
+        <v>1</v>
+      </c>
+      <c r="L167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -5926,18 +5423,15 @@
         <v>25915.6136</v>
       </c>
       <c r="G168" t="n">
-        <v>-11809.27136253125</v>
-      </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H168" t="inlineStr"/>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
-      <c r="L168" t="n">
-        <v>1</v>
-      </c>
-      <c r="M168" t="inlineStr"/>
+      <c r="K168" t="n">
+        <v>1</v>
+      </c>
+      <c r="L168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -5959,18 +5453,15 @@
         <v>17657.4752</v>
       </c>
       <c r="G169" t="n">
-        <v>-29466.74656253125</v>
-      </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H169" t="inlineStr"/>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
-      <c r="L169" t="n">
-        <v>1</v>
-      </c>
-      <c r="M169" t="inlineStr"/>
+      <c r="K169" t="n">
+        <v>1</v>
+      </c>
+      <c r="L169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -5992,18 +5483,15 @@
         <v>0.0001</v>
       </c>
       <c r="G170" t="n">
-        <v>-29466.74656253125</v>
-      </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H170" t="inlineStr"/>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
-      <c r="L170" t="n">
-        <v>1</v>
-      </c>
-      <c r="M170" t="inlineStr"/>
+      <c r="K170" t="n">
+        <v>1</v>
+      </c>
+      <c r="L170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6025,18 +5513,15 @@
         <v>6963.8909</v>
       </c>
       <c r="G171" t="n">
-        <v>-36430.63746253125</v>
-      </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H171" t="inlineStr"/>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
-      <c r="L171" t="n">
-        <v>1</v>
-      </c>
-      <c r="M171" t="inlineStr"/>
+      <c r="K171" t="n">
+        <v>1</v>
+      </c>
+      <c r="L171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6058,18 +5543,15 @@
         <v>15962.74</v>
       </c>
       <c r="G172" t="n">
-        <v>-20467.89746253125</v>
-      </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H172" t="inlineStr"/>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
-      <c r="L172" t="n">
-        <v>1</v>
-      </c>
-      <c r="M172" t="inlineStr"/>
+      <c r="K172" t="n">
+        <v>1</v>
+      </c>
+      <c r="L172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6091,18 +5573,15 @@
         <v>25304.7626</v>
       </c>
       <c r="G173" t="n">
-        <v>-45772.66006253126</v>
-      </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H173" t="inlineStr"/>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
-      <c r="L173" t="n">
-        <v>1</v>
-      </c>
-      <c r="M173" t="inlineStr"/>
+      <c r="K173" t="n">
+        <v>1</v>
+      </c>
+      <c r="L173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6124,18 +5603,15 @@
         <v>3686.364</v>
       </c>
       <c r="G174" t="n">
-        <v>-42086.29606253126</v>
-      </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H174" t="inlineStr"/>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
-      <c r="L174" t="n">
-        <v>1</v>
-      </c>
-      <c r="M174" t="inlineStr"/>
+      <c r="K174" t="n">
+        <v>1</v>
+      </c>
+      <c r="L174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -6157,18 +5633,15 @@
         <v>100</v>
       </c>
       <c r="G175" t="n">
-        <v>-41986.29606253126</v>
-      </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H175" t="inlineStr"/>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
-      <c r="L175" t="n">
-        <v>1</v>
-      </c>
-      <c r="M175" t="inlineStr"/>
+      <c r="K175" t="n">
+        <v>1</v>
+      </c>
+      <c r="L175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -6190,18 +5663,15 @@
         <v>962</v>
       </c>
       <c r="G176" t="n">
-        <v>-41986.29606253126</v>
-      </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H176" t="inlineStr"/>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
-      <c r="L176" t="n">
-        <v>1</v>
-      </c>
-      <c r="M176" t="inlineStr"/>
+      <c r="K176" t="n">
+        <v>1</v>
+      </c>
+      <c r="L176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -6223,18 +5693,15 @@
         <v>2150.8926</v>
       </c>
       <c r="G177" t="n">
-        <v>-44137.18866253125</v>
-      </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H177" t="inlineStr"/>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
-      <c r="L177" t="n">
-        <v>1</v>
-      </c>
-      <c r="M177" t="inlineStr"/>
+      <c r="K177" t="n">
+        <v>1</v>
+      </c>
+      <c r="L177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -6256,18 +5723,15 @@
         <v>205147.9786</v>
       </c>
       <c r="G178" t="n">
-        <v>-249285.1672625313</v>
-      </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H178" t="inlineStr"/>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
-      <c r="L178" t="n">
-        <v>1</v>
-      </c>
-      <c r="M178" t="inlineStr"/>
+      <c r="K178" t="n">
+        <v>1</v>
+      </c>
+      <c r="L178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -6289,18 +5753,15 @@
         <v>5358.2255</v>
       </c>
       <c r="G179" t="n">
-        <v>-243926.9417625313</v>
-      </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H179" t="inlineStr"/>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
-      <c r="L179" t="n">
-        <v>1</v>
-      </c>
-      <c r="M179" t="inlineStr"/>
+      <c r="K179" t="n">
+        <v>1</v>
+      </c>
+      <c r="L179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -6322,18 +5783,15 @@
         <v>9638.6288</v>
       </c>
       <c r="G180" t="n">
-        <v>-253565.5705625313</v>
-      </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H180" t="inlineStr"/>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
-      <c r="L180" t="n">
-        <v>1</v>
-      </c>
-      <c r="M180" t="inlineStr"/>
+      <c r="K180" t="n">
+        <v>1</v>
+      </c>
+      <c r="L180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -6355,18 +5813,15 @@
         <v>742.5419000000001</v>
       </c>
       <c r="G181" t="n">
-        <v>-253565.5705625313</v>
-      </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H181" t="inlineStr"/>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
-      <c r="L181" t="n">
-        <v>1</v>
-      </c>
-      <c r="M181" t="inlineStr"/>
+      <c r="K181" t="n">
+        <v>1</v>
+      </c>
+      <c r="L181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -6388,18 +5843,15 @@
         <v>51889.2877</v>
       </c>
       <c r="G182" t="n">
-        <v>-305454.8582625313</v>
-      </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H182" t="inlineStr"/>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
-      <c r="L182" t="n">
-        <v>1</v>
-      </c>
-      <c r="M182" t="inlineStr"/>
+      <c r="K182" t="n">
+        <v>1</v>
+      </c>
+      <c r="L182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -6421,18 +5873,15 @@
         <v>1612.2062</v>
       </c>
       <c r="G183" t="n">
-        <v>-303842.6520625313</v>
-      </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H183" t="inlineStr"/>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
-      <c r="L183" t="n">
-        <v>1</v>
-      </c>
-      <c r="M183" t="inlineStr"/>
+      <c r="K183" t="n">
+        <v>1</v>
+      </c>
+      <c r="L183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -6454,18 +5903,15 @@
         <v>132610.0411</v>
       </c>
       <c r="G184" t="n">
-        <v>-171232.6109625313</v>
-      </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H184" t="inlineStr"/>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
-      <c r="L184" t="n">
-        <v>1</v>
-      </c>
-      <c r="M184" t="inlineStr"/>
+      <c r="K184" t="n">
+        <v>1</v>
+      </c>
+      <c r="L184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -6487,18 +5933,15 @@
         <v>31846</v>
       </c>
       <c r="G185" t="n">
-        <v>-203078.6109625313</v>
-      </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H185" t="inlineStr"/>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
-      <c r="L185" t="n">
-        <v>1</v>
-      </c>
-      <c r="M185" t="inlineStr"/>
+      <c r="K185" t="n">
+        <v>1</v>
+      </c>
+      <c r="L185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -6520,18 +5963,15 @@
         <v>52770</v>
       </c>
       <c r="G186" t="n">
-        <v>-150308.6109625313</v>
-      </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H186" t="inlineStr"/>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
-      <c r="L186" t="n">
-        <v>1</v>
-      </c>
-      <c r="M186" t="inlineStr"/>
+      <c r="K186" t="n">
+        <v>1</v>
+      </c>
+      <c r="L186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -6553,18 +5993,15 @@
         <v>3098</v>
       </c>
       <c r="G187" t="n">
-        <v>-147210.6109625313</v>
-      </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H187" t="inlineStr"/>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
-      <c r="L187" t="n">
-        <v>1</v>
-      </c>
-      <c r="M187" t="inlineStr"/>
+      <c r="K187" t="n">
+        <v>1</v>
+      </c>
+      <c r="L187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -6586,18 +6023,15 @@
         <v>4647</v>
       </c>
       <c r="G188" t="n">
-        <v>-147210.6109625313</v>
-      </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H188" t="inlineStr"/>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
-      <c r="L188" t="n">
-        <v>1</v>
-      </c>
-      <c r="M188" t="inlineStr"/>
+      <c r="K188" t="n">
+        <v>1</v>
+      </c>
+      <c r="L188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -6619,18 +6053,15 @@
         <v>6857.4458</v>
       </c>
       <c r="G189" t="n">
-        <v>-154068.0567625313</v>
-      </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H189" t="inlineStr"/>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
-      <c r="L189" t="n">
-        <v>1</v>
-      </c>
-      <c r="M189" t="inlineStr"/>
+      <c r="K189" t="n">
+        <v>1</v>
+      </c>
+      <c r="L189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -6652,18 +6083,15 @@
         <v>752</v>
       </c>
       <c r="G190" t="n">
-        <v>-154820.0567625313</v>
-      </c>
-      <c r="H190" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H190" t="inlineStr"/>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
-      <c r="L190" t="n">
-        <v>1</v>
-      </c>
-      <c r="M190" t="inlineStr"/>
+      <c r="K190" t="n">
+        <v>1</v>
+      </c>
+      <c r="L190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -6685,18 +6113,15 @@
         <v>1183.2698</v>
       </c>
       <c r="G191" t="n">
-        <v>-154820.0567625313</v>
-      </c>
-      <c r="H191" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H191" t="inlineStr"/>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
-      <c r="L191" t="n">
-        <v>1</v>
-      </c>
-      <c r="M191" t="inlineStr"/>
+      <c r="K191" t="n">
+        <v>1</v>
+      </c>
+      <c r="L191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -6718,18 +6143,15 @@
         <v>12105.6585</v>
       </c>
       <c r="G192" t="n">
-        <v>-142714.3982625313</v>
-      </c>
-      <c r="H192" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H192" t="inlineStr"/>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
-      <c r="L192" t="n">
-        <v>1</v>
-      </c>
-      <c r="M192" t="inlineStr"/>
+      <c r="K192" t="n">
+        <v>1</v>
+      </c>
+      <c r="L192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -6751,18 +6173,15 @@
         <v>123.2591</v>
       </c>
       <c r="G193" t="n">
-        <v>-142837.6573625313</v>
-      </c>
-      <c r="H193" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H193" t="inlineStr"/>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
-      <c r="L193" t="n">
-        <v>1</v>
-      </c>
-      <c r="M193" t="inlineStr"/>
+      <c r="K193" t="n">
+        <v>1</v>
+      </c>
+      <c r="L193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -6784,18 +6203,15 @@
         <v>1493.2844</v>
       </c>
       <c r="G194" t="n">
-        <v>-144330.9417625313</v>
-      </c>
-      <c r="H194" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H194" t="inlineStr"/>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
-      <c r="L194" t="n">
-        <v>1</v>
-      </c>
-      <c r="M194" t="inlineStr"/>
+      <c r="K194" t="n">
+        <v>1</v>
+      </c>
+      <c r="L194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -6817,18 +6233,15 @@
         <v>9852.2708</v>
       </c>
       <c r="G195" t="n">
-        <v>-134478.6709625313</v>
-      </c>
-      <c r="H195" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H195" t="inlineStr"/>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
-      <c r="L195" t="n">
-        <v>1</v>
-      </c>
-      <c r="M195" t="inlineStr"/>
+      <c r="K195" t="n">
+        <v>1</v>
+      </c>
+      <c r="L195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -6850,18 +6263,15 @@
         <v>4032</v>
       </c>
       <c r="G196" t="n">
-        <v>-130446.6709625313</v>
-      </c>
-      <c r="H196" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H196" t="inlineStr"/>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
-      <c r="L196" t="n">
-        <v>1</v>
-      </c>
-      <c r="M196" t="inlineStr"/>
+      <c r="K196" t="n">
+        <v>1</v>
+      </c>
+      <c r="L196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -6883,18 +6293,15 @@
         <v>418.2591</v>
       </c>
       <c r="G197" t="n">
-        <v>-130028.4118625313</v>
-      </c>
-      <c r="H197" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H197" t="inlineStr"/>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
-      <c r="L197" t="n">
-        <v>1</v>
-      </c>
-      <c r="M197" t="inlineStr"/>
+      <c r="K197" t="n">
+        <v>1</v>
+      </c>
+      <c r="L197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -6916,18 +6323,15 @@
         <v>52.5641</v>
       </c>
       <c r="G198" t="n">
-        <v>-130080.9759625313</v>
-      </c>
-      <c r="H198" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H198" t="inlineStr"/>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
-      <c r="L198" t="n">
-        <v>1</v>
-      </c>
-      <c r="M198" t="inlineStr"/>
+      <c r="K198" t="n">
+        <v>1</v>
+      </c>
+      <c r="L198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -6949,18 +6353,15 @@
         <v>4734.6428</v>
       </c>
       <c r="G199" t="n">
-        <v>-125346.3331625313</v>
-      </c>
-      <c r="H199" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H199" t="inlineStr"/>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
-      <c r="L199" t="n">
-        <v>1</v>
-      </c>
-      <c r="M199" t="inlineStr"/>
+      <c r="K199" t="n">
+        <v>1</v>
+      </c>
+      <c r="L199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -6982,18 +6383,15 @@
         <v>17279.7486</v>
       </c>
       <c r="G200" t="n">
-        <v>-108066.5845625313</v>
-      </c>
-      <c r="H200" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H200" t="inlineStr"/>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
-      <c r="L200" t="n">
-        <v>1</v>
-      </c>
-      <c r="M200" t="inlineStr"/>
+      <c r="K200" t="n">
+        <v>1</v>
+      </c>
+      <c r="L200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -7015,18 +6413,15 @@
         <v>6255.628</v>
       </c>
       <c r="G201" t="n">
-        <v>-114322.2125625313</v>
-      </c>
-      <c r="H201" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H201" t="inlineStr"/>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
-      <c r="L201" t="n">
-        <v>1</v>
-      </c>
-      <c r="M201" t="inlineStr"/>
+      <c r="K201" t="n">
+        <v>1</v>
+      </c>
+      <c r="L201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -7048,18 +6443,15 @@
         <v>2575.8982</v>
       </c>
       <c r="G202" t="n">
-        <v>-111746.3143625313</v>
-      </c>
-      <c r="H202" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H202" t="inlineStr"/>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
-      <c r="L202" t="n">
-        <v>1</v>
-      </c>
-      <c r="M202" t="inlineStr"/>
+      <c r="K202" t="n">
+        <v>1</v>
+      </c>
+      <c r="L202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -7081,18 +6473,15 @@
         <v>3845.9964</v>
       </c>
       <c r="G203" t="n">
-        <v>-115592.3107625313</v>
-      </c>
-      <c r="H203" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H203" t="inlineStr"/>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
-      <c r="L203" t="n">
-        <v>1</v>
-      </c>
-      <c r="M203" t="inlineStr"/>
+      <c r="K203" t="n">
+        <v>1</v>
+      </c>
+      <c r="L203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -7114,18 +6503,15 @@
         <v>29263.3726</v>
       </c>
       <c r="G204" t="n">
-        <v>-144855.6833625313</v>
-      </c>
-      <c r="H204" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H204" t="inlineStr"/>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
-      <c r="L204" t="n">
-        <v>1</v>
-      </c>
-      <c r="M204" t="inlineStr"/>
+      <c r="K204" t="n">
+        <v>1</v>
+      </c>
+      <c r="L204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -7147,18 +6533,15 @@
         <v>1626.0315</v>
       </c>
       <c r="G205" t="n">
-        <v>-144855.6833625313</v>
-      </c>
-      <c r="H205" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H205" t="inlineStr"/>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
-      <c r="L205" t="n">
-        <v>1</v>
-      </c>
-      <c r="M205" t="inlineStr"/>
+      <c r="K205" t="n">
+        <v>1</v>
+      </c>
+      <c r="L205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -7180,18 +6563,15 @@
         <v>17416.4909</v>
       </c>
       <c r="G206" t="n">
-        <v>-162272.1742625313</v>
-      </c>
-      <c r="H206" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H206" t="inlineStr"/>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
-      <c r="L206" t="n">
-        <v>1</v>
-      </c>
-      <c r="M206" t="inlineStr"/>
+      <c r="K206" t="n">
+        <v>1</v>
+      </c>
+      <c r="L206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -7213,18 +6593,15 @@
         <v>5020.7502</v>
       </c>
       <c r="G207" t="n">
-        <v>-167292.9244625313</v>
-      </c>
-      <c r="H207" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H207" t="inlineStr"/>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
-      <c r="L207" t="n">
-        <v>1</v>
-      </c>
-      <c r="M207" t="inlineStr"/>
+      <c r="K207" t="n">
+        <v>1</v>
+      </c>
+      <c r="L207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -7246,18 +6623,15 @@
         <v>20897.9791</v>
       </c>
       <c r="G208" t="n">
-        <v>-188190.9035625313</v>
-      </c>
-      <c r="H208" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H208" t="inlineStr"/>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
-      <c r="L208" t="n">
-        <v>1</v>
-      </c>
-      <c r="M208" t="inlineStr"/>
+      <c r="K208" t="n">
+        <v>1</v>
+      </c>
+      <c r="L208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -7279,18 +6653,15 @@
         <v>19752.6709</v>
       </c>
       <c r="G209" t="n">
-        <v>-188190.9035625313</v>
-      </c>
-      <c r="H209" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H209" t="inlineStr"/>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
-      <c r="L209" t="n">
-        <v>1</v>
-      </c>
-      <c r="M209" t="inlineStr"/>
+      <c r="K209" t="n">
+        <v>1</v>
+      </c>
+      <c r="L209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -7312,18 +6683,15 @@
         <v>1166.371</v>
       </c>
       <c r="G210" t="n">
-        <v>-189357.2745625313</v>
-      </c>
-      <c r="H210" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H210" t="inlineStr"/>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
-      <c r="L210" t="n">
-        <v>1</v>
-      </c>
-      <c r="M210" t="inlineStr"/>
+      <c r="K210" t="n">
+        <v>1</v>
+      </c>
+      <c r="L210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -7345,18 +6713,15 @@
         <v>464.0392</v>
       </c>
       <c r="G211" t="n">
-        <v>-188893.2353625313</v>
-      </c>
-      <c r="H211" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H211" t="inlineStr"/>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
-      <c r="L211" t="n">
-        <v>1</v>
-      </c>
-      <c r="M211" t="inlineStr"/>
+      <c r="K211" t="n">
+        <v>1</v>
+      </c>
+      <c r="L211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -7378,18 +6743,15 @@
         <v>20664.2072</v>
       </c>
       <c r="G212" t="n">
-        <v>-168229.0281625313</v>
-      </c>
-      <c r="H212" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H212" t="inlineStr"/>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
-      <c r="L212" t="n">
-        <v>1</v>
-      </c>
-      <c r="M212" t="inlineStr"/>
+      <c r="K212" t="n">
+        <v>1</v>
+      </c>
+      <c r="L212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -7411,18 +6773,15 @@
         <v>1019</v>
       </c>
       <c r="G213" t="n">
-        <v>-168229.0281625313</v>
-      </c>
-      <c r="H213" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H213" t="inlineStr"/>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
-      <c r="L213" t="n">
-        <v>1</v>
-      </c>
-      <c r="M213" t="inlineStr"/>
+      <c r="K213" t="n">
+        <v>1</v>
+      </c>
+      <c r="L213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -7444,18 +6803,15 @@
         <v>205</v>
       </c>
       <c r="G214" t="n">
-        <v>-168024.0281625313</v>
-      </c>
-      <c r="H214" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H214" t="inlineStr"/>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
-      <c r="L214" t="n">
-        <v>1</v>
-      </c>
-      <c r="M214" t="inlineStr"/>
+      <c r="K214" t="n">
+        <v>1</v>
+      </c>
+      <c r="L214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -7477,18 +6833,15 @@
         <v>10690.5781</v>
       </c>
       <c r="G215" t="n">
-        <v>-178714.6062625313</v>
-      </c>
-      <c r="H215" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H215" t="inlineStr"/>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
-      <c r="L215" t="n">
-        <v>1</v>
-      </c>
-      <c r="M215" t="inlineStr"/>
+      <c r="K215" t="n">
+        <v>1</v>
+      </c>
+      <c r="L215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -7510,18 +6863,15 @@
         <v>787.7129</v>
       </c>
       <c r="G216" t="n">
-        <v>-177926.8933625313</v>
-      </c>
-      <c r="H216" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H216" t="inlineStr"/>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
-      <c r="L216" t="n">
-        <v>1</v>
-      </c>
-      <c r="M216" t="inlineStr"/>
+      <c r="K216" t="n">
+        <v>1</v>
+      </c>
+      <c r="L216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -7543,18 +6893,15 @@
         <v>556.0268</v>
       </c>
       <c r="G217" t="n">
-        <v>-177926.8933625313</v>
-      </c>
-      <c r="H217" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H217" t="inlineStr"/>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
-      <c r="L217" t="n">
-        <v>1</v>
-      </c>
-      <c r="M217" t="inlineStr"/>
+      <c r="K217" t="n">
+        <v>1</v>
+      </c>
+      <c r="L217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -7576,18 +6923,15 @@
         <v>10376</v>
       </c>
       <c r="G218" t="n">
-        <v>-167550.8933625313</v>
-      </c>
-      <c r="H218" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H218" t="inlineStr"/>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
-      <c r="L218" t="n">
-        <v>1</v>
-      </c>
-      <c r="M218" t="inlineStr"/>
+      <c r="K218" t="n">
+        <v>1</v>
+      </c>
+      <c r="L218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -7609,18 +6953,15 @@
         <v>29674.1668</v>
       </c>
       <c r="G219" t="n">
-        <v>-197225.0601625313</v>
-      </c>
-      <c r="H219" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H219" t="inlineStr"/>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
-      <c r="L219" t="n">
-        <v>1</v>
-      </c>
-      <c r="M219" t="inlineStr"/>
+      <c r="K219" t="n">
+        <v>1</v>
+      </c>
+      <c r="L219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -7642,18 +6983,15 @@
         <v>100</v>
       </c>
       <c r="G220" t="n">
-        <v>-197125.0601625313</v>
-      </c>
-      <c r="H220" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H220" t="inlineStr"/>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
-      <c r="L220" t="n">
-        <v>1</v>
-      </c>
-      <c r="M220" t="inlineStr"/>
+      <c r="K220" t="n">
+        <v>1</v>
+      </c>
+      <c r="L220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -7675,18 +7013,15 @@
         <v>12908.7357</v>
       </c>
       <c r="G221" t="n">
-        <v>-210033.7958625313</v>
-      </c>
-      <c r="H221" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H221" t="inlineStr"/>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
-      <c r="L221" t="n">
-        <v>1</v>
-      </c>
-      <c r="M221" t="inlineStr"/>
+      <c r="K221" t="n">
+        <v>1</v>
+      </c>
+      <c r="L221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -7708,18 +7043,15 @@
         <v>15391.8473</v>
       </c>
       <c r="G222" t="n">
-        <v>-194641.9485625313</v>
-      </c>
-      <c r="H222" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H222" t="inlineStr"/>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
-      <c r="L222" t="n">
-        <v>1</v>
-      </c>
-      <c r="M222" t="inlineStr"/>
+      <c r="K222" t="n">
+        <v>1</v>
+      </c>
+      <c r="L222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -7741,18 +7073,15 @@
         <v>20659.2709</v>
       </c>
       <c r="G223" t="n">
-        <v>-215301.2194625313</v>
-      </c>
-      <c r="H223" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H223" t="inlineStr"/>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
-      <c r="L223" t="n">
-        <v>1</v>
-      </c>
-      <c r="M223" t="inlineStr"/>
+      <c r="K223" t="n">
+        <v>1</v>
+      </c>
+      <c r="L223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -7774,18 +7103,15 @@
         <v>41066.1541</v>
       </c>
       <c r="G224" t="n">
-        <v>-174235.0653625313</v>
-      </c>
-      <c r="H224" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H224" t="inlineStr"/>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
-      <c r="L224" t="n">
-        <v>1</v>
-      </c>
-      <c r="M224" t="inlineStr"/>
+      <c r="K224" t="n">
+        <v>1</v>
+      </c>
+      <c r="L224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -7807,18 +7133,15 @@
         <v>43055.34160616554</v>
       </c>
       <c r="G225" t="n">
-        <v>-217290.4069686968</v>
-      </c>
-      <c r="H225" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H225" t="inlineStr"/>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
-      <c r="L225" t="n">
-        <v>1</v>
-      </c>
-      <c r="M225" t="inlineStr"/>
+      <c r="K225" t="n">
+        <v>1</v>
+      </c>
+      <c r="L225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
@@ -7840,18 +7163,15 @@
         <v>4568.458246635632</v>
       </c>
       <c r="G226" t="n">
-        <v>-221858.8652153325</v>
-      </c>
-      <c r="H226" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H226" t="inlineStr"/>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
-      <c r="L226" t="n">
-        <v>1</v>
-      </c>
-      <c r="M226" t="inlineStr"/>
+      <c r="K226" t="n">
+        <v>1</v>
+      </c>
+      <c r="L226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
@@ -7873,18 +7193,15 @@
         <v>331781.3692</v>
       </c>
       <c r="G227" t="n">
-        <v>109922.5039846676</v>
-      </c>
-      <c r="H227" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H227" t="inlineStr"/>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
-      <c r="L227" t="n">
-        <v>1</v>
-      </c>
-      <c r="M227" t="inlineStr"/>
+      <c r="K227" t="n">
+        <v>1</v>
+      </c>
+      <c r="L227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
@@ -7906,18 +7223,15 @@
         <v>11101.1894</v>
       </c>
       <c r="G228" t="n">
-        <v>98821.31458466756</v>
-      </c>
-      <c r="H228" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H228" t="inlineStr"/>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
-      <c r="L228" t="n">
-        <v>1</v>
-      </c>
-      <c r="M228" t="inlineStr"/>
+      <c r="K228" t="n">
+        <v>1</v>
+      </c>
+      <c r="L228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
@@ -7939,18 +7253,15 @@
         <v>8506.988600000001</v>
       </c>
       <c r="G229" t="n">
-        <v>98821.31458466756</v>
-      </c>
-      <c r="H229" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H229" t="inlineStr"/>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
-      <c r="L229" t="n">
-        <v>1</v>
-      </c>
-      <c r="M229" t="inlineStr"/>
+      <c r="K229" t="n">
+        <v>1</v>
+      </c>
+      <c r="L229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
@@ -7972,18 +7283,15 @@
         <v>44940.98006926361</v>
       </c>
       <c r="G230" t="n">
-        <v>143762.2946539312</v>
-      </c>
-      <c r="H230" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H230" t="inlineStr"/>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
-      <c r="L230" t="n">
-        <v>1</v>
-      </c>
-      <c r="M230" t="inlineStr"/>
+      <c r="K230" t="n">
+        <v>1</v>
+      </c>
+      <c r="L230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
@@ -8005,18 +7313,15 @@
         <v>3526</v>
       </c>
       <c r="G231" t="n">
-        <v>140236.2946539312</v>
-      </c>
-      <c r="H231" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H231" t="inlineStr"/>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
-      <c r="L231" t="n">
-        <v>1</v>
-      </c>
-      <c r="M231" t="inlineStr"/>
+      <c r="K231" t="n">
+        <v>1</v>
+      </c>
+      <c r="L231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
@@ -8038,18 +7343,15 @@
         <v>28875.3709</v>
       </c>
       <c r="G232" t="n">
-        <v>111360.9237539312</v>
-      </c>
-      <c r="H232" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H232" t="inlineStr"/>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
-      <c r="L232" t="n">
-        <v>1</v>
-      </c>
-      <c r="M232" t="inlineStr"/>
+      <c r="K232" t="n">
+        <v>1</v>
+      </c>
+      <c r="L232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
@@ -8071,18 +7373,15 @@
         <v>4500</v>
       </c>
       <c r="G233" t="n">
-        <v>115860.9237539312</v>
-      </c>
-      <c r="H233" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H233" t="inlineStr"/>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
-      <c r="L233" t="n">
-        <v>1</v>
-      </c>
-      <c r="M233" t="inlineStr"/>
+      <c r="K233" t="n">
+        <v>1</v>
+      </c>
+      <c r="L233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
@@ -8104,18 +7403,15 @@
         <v>61750.1582</v>
       </c>
       <c r="G234" t="n">
-        <v>177611.0819539312</v>
-      </c>
-      <c r="H234" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H234" t="inlineStr"/>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
-      <c r="L234" t="n">
-        <v>1</v>
-      </c>
-      <c r="M234" t="inlineStr"/>
+      <c r="K234" t="n">
+        <v>1</v>
+      </c>
+      <c r="L234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
@@ -8137,18 +7433,15 @@
         <v>15248.8788</v>
       </c>
       <c r="G235" t="n">
-        <v>162362.2031539312</v>
-      </c>
-      <c r="H235" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H235" t="inlineStr"/>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
-      <c r="L235" t="n">
-        <v>1</v>
-      </c>
-      <c r="M235" t="inlineStr"/>
+      <c r="K235" t="n">
+        <v>1</v>
+      </c>
+      <c r="L235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
@@ -8170,18 +7463,15 @@
         <v>26404.3945</v>
       </c>
       <c r="G236" t="n">
-        <v>188766.5976539312</v>
-      </c>
-      <c r="H236" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H236" t="inlineStr"/>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
-      <c r="L236" t="n">
-        <v>1</v>
-      </c>
-      <c r="M236" t="inlineStr"/>
+      <c r="K236" t="n">
+        <v>1</v>
+      </c>
+      <c r="L236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
@@ -8203,18 +7493,15 @@
         <v>6852.1934</v>
       </c>
       <c r="G237" t="n">
-        <v>181914.4042539312</v>
-      </c>
-      <c r="H237" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H237" t="inlineStr"/>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
-      <c r="L237" t="n">
-        <v>1</v>
-      </c>
-      <c r="M237" t="inlineStr"/>
+      <c r="K237" t="n">
+        <v>1</v>
+      </c>
+      <c r="L237" t="inlineStr"/>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
@@ -8236,18 +7523,15 @@
         <v>8689.5234</v>
       </c>
       <c r="G238" t="n">
-        <v>190603.9276539312</v>
-      </c>
-      <c r="H238" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H238" t="inlineStr"/>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
-      <c r="L238" t="n">
-        <v>1</v>
-      </c>
-      <c r="M238" t="inlineStr"/>
+      <c r="K238" t="n">
+        <v>1</v>
+      </c>
+      <c r="L238" t="inlineStr"/>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
@@ -8269,18 +7553,15 @@
         <v>23</v>
       </c>
       <c r="G239" t="n">
-        <v>190626.9276539312</v>
-      </c>
-      <c r="H239" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H239" t="inlineStr"/>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
-      <c r="L239" t="n">
-        <v>1</v>
-      </c>
-      <c r="M239" t="inlineStr"/>
+      <c r="K239" t="n">
+        <v>1</v>
+      </c>
+      <c r="L239" t="inlineStr"/>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
@@ -8302,18 +7583,15 @@
         <v>44952.98</v>
       </c>
       <c r="G240" t="n">
-        <v>145673.9476539312</v>
-      </c>
-      <c r="H240" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H240" t="inlineStr"/>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
-      <c r="L240" t="n">
-        <v>1</v>
-      </c>
-      <c r="M240" t="inlineStr"/>
+      <c r="K240" t="n">
+        <v>1</v>
+      </c>
+      <c r="L240" t="inlineStr"/>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
@@ -8335,18 +7613,15 @@
         <v>31838.2019</v>
       </c>
       <c r="G241" t="n">
-        <v>113835.7457539312</v>
-      </c>
-      <c r="H241" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H241" t="inlineStr"/>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
-      <c r="L241" t="n">
-        <v>1</v>
-      </c>
-      <c r="M241" t="inlineStr"/>
+      <c r="K241" t="n">
+        <v>1</v>
+      </c>
+      <c r="L241" t="inlineStr"/>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
@@ -8368,18 +7643,15 @@
         <v>2999.7221</v>
       </c>
       <c r="G242" t="n">
-        <v>110836.0236539312</v>
-      </c>
-      <c r="H242" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H242" t="inlineStr"/>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
-      <c r="L242" t="n">
-        <v>1</v>
-      </c>
-      <c r="M242" t="inlineStr"/>
+      <c r="K242" t="n">
+        <v>1</v>
+      </c>
+      <c r="L242" t="inlineStr"/>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
@@ -8401,18 +7673,15 @@
         <v>4337.453</v>
       </c>
       <c r="G243" t="n">
-        <v>115173.4766539312</v>
-      </c>
-      <c r="H243" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H243" t="inlineStr"/>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
-      <c r="L243" t="n">
-        <v>1</v>
-      </c>
-      <c r="M243" t="inlineStr"/>
+      <c r="K243" t="n">
+        <v>1</v>
+      </c>
+      <c r="L243" t="inlineStr"/>
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
@@ -8434,18 +7703,15 @@
         <v>5495.5818</v>
       </c>
       <c r="G244" t="n">
-        <v>120669.0584539312</v>
-      </c>
-      <c r="H244" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H244" t="inlineStr"/>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
-      <c r="L244" t="n">
-        <v>1</v>
-      </c>
-      <c r="M244" t="inlineStr"/>
+      <c r="K244" t="n">
+        <v>1</v>
+      </c>
+      <c r="L244" t="inlineStr"/>
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
@@ -8467,18 +7733,15 @@
         <v>701.3822</v>
       </c>
       <c r="G245" t="n">
-        <v>119967.6762539312</v>
-      </c>
-      <c r="H245" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H245" t="inlineStr"/>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
-      <c r="L245" t="n">
-        <v>1</v>
-      </c>
-      <c r="M245" t="inlineStr"/>
+      <c r="K245" t="n">
+        <v>1</v>
+      </c>
+      <c r="L245" t="inlineStr"/>
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
@@ -8500,18 +7763,15 @@
         <v>501</v>
       </c>
       <c r="G246" t="n">
-        <v>120468.6762539312</v>
-      </c>
-      <c r="H246" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H246" t="inlineStr"/>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
-      <c r="L246" t="n">
-        <v>1</v>
-      </c>
-      <c r="M246" t="inlineStr"/>
+      <c r="K246" t="n">
+        <v>1</v>
+      </c>
+      <c r="L246" t="inlineStr"/>
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
@@ -8533,18 +7793,15 @@
         <v>21699.9054</v>
       </c>
       <c r="G247" t="n">
-        <v>98768.77085393116</v>
-      </c>
-      <c r="H247" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H247" t="inlineStr"/>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
-      <c r="L247" t="n">
-        <v>1</v>
-      </c>
-      <c r="M247" t="inlineStr"/>
+      <c r="K247" t="n">
+        <v>1</v>
+      </c>
+      <c r="L247" t="inlineStr"/>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
@@ -8566,18 +7823,15 @@
         <v>42687.3226</v>
       </c>
       <c r="G248" t="n">
-        <v>141456.0934539312</v>
-      </c>
-      <c r="H248" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H248" t="inlineStr"/>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
-      <c r="L248" t="n">
-        <v>1</v>
-      </c>
-      <c r="M248" t="inlineStr"/>
+      <c r="K248" t="n">
+        <v>1</v>
+      </c>
+      <c r="L248" t="inlineStr"/>
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
@@ -8599,18 +7853,15 @@
         <v>29767.483</v>
       </c>
       <c r="G249" t="n">
-        <v>111688.6104539311</v>
-      </c>
-      <c r="H249" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H249" t="inlineStr"/>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
-      <c r="L249" t="n">
-        <v>1</v>
-      </c>
-      <c r="M249" t="inlineStr"/>
+      <c r="K249" t="n">
+        <v>1</v>
+      </c>
+      <c r="L249" t="inlineStr"/>
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
@@ -8632,18 +7883,15 @@
         <v>11429.0362</v>
       </c>
       <c r="G250" t="n">
-        <v>100259.5742539311</v>
-      </c>
-      <c r="H250" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H250" t="inlineStr"/>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
-      <c r="L250" t="n">
-        <v>1</v>
-      </c>
-      <c r="M250" t="inlineStr"/>
+      <c r="K250" t="n">
+        <v>1</v>
+      </c>
+      <c r="L250" t="inlineStr"/>
     </row>
     <row r="251">
       <c r="A251" s="1" t="n">
@@ -8665,18 +7913,15 @@
         <v>733.8043</v>
       </c>
       <c r="G251" t="n">
-        <v>100993.3785539312</v>
-      </c>
-      <c r="H251" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H251" t="inlineStr"/>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
-      <c r="L251" t="n">
-        <v>1</v>
-      </c>
-      <c r="M251" t="inlineStr"/>
+      <c r="K251" t="n">
+        <v>1</v>
+      </c>
+      <c r="L251" t="inlineStr"/>
     </row>
     <row r="252">
       <c r="A252" s="1" t="n">
@@ -8698,18 +7943,15 @@
         <v>52159</v>
       </c>
       <c r="G252" t="n">
-        <v>153152.3785539311</v>
-      </c>
-      <c r="H252" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H252" t="inlineStr"/>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
-      <c r="L252" t="n">
-        <v>1</v>
-      </c>
-      <c r="M252" t="inlineStr"/>
+      <c r="K252" t="n">
+        <v>1</v>
+      </c>
+      <c r="L252" t="inlineStr"/>
     </row>
     <row r="253">
       <c r="A253" s="1" t="n">
@@ -8731,18 +7973,15 @@
         <v>790.6751</v>
       </c>
       <c r="G253" t="n">
-        <v>153943.0536539311</v>
-      </c>
-      <c r="H253" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H253" t="inlineStr"/>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
-      <c r="L253" t="n">
-        <v>1</v>
-      </c>
-      <c r="M253" t="inlineStr"/>
+      <c r="K253" t="n">
+        <v>1</v>
+      </c>
+      <c r="L253" t="inlineStr"/>
     </row>
     <row r="254">
       <c r="A254" s="1" t="n">
@@ -8764,18 +8003,15 @@
         <v>1070</v>
       </c>
       <c r="G254" t="n">
-        <v>153943.0536539311</v>
-      </c>
-      <c r="H254" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H254" t="inlineStr"/>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
-      <c r="L254" t="n">
-        <v>1</v>
-      </c>
-      <c r="M254" t="inlineStr"/>
+      <c r="K254" t="n">
+        <v>1</v>
+      </c>
+      <c r="L254" t="inlineStr"/>
     </row>
     <row r="255">
       <c r="A255" s="1" t="n">
@@ -8797,18 +8033,15 @@
         <v>814.6053000000001</v>
       </c>
       <c r="G255" t="n">
-        <v>153128.4483539311</v>
-      </c>
-      <c r="H255" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H255" t="inlineStr"/>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
-      <c r="L255" t="n">
-        <v>1</v>
-      </c>
-      <c r="M255" t="inlineStr"/>
+      <c r="K255" t="n">
+        <v>1</v>
+      </c>
+      <c r="L255" t="inlineStr"/>
     </row>
     <row r="256">
       <c r="A256" s="1" t="n">
@@ -8830,18 +8063,15 @@
         <v>8570.470600000001</v>
       </c>
       <c r="G256" t="n">
-        <v>161698.9189539311</v>
-      </c>
-      <c r="H256" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H256" t="inlineStr"/>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
-      <c r="L256" t="n">
-        <v>1</v>
-      </c>
-      <c r="M256" t="inlineStr"/>
+      <c r="K256" t="n">
+        <v>1</v>
+      </c>
+      <c r="L256" t="inlineStr"/>
     </row>
     <row r="257">
       <c r="A257" s="1" t="n">
@@ -8863,18 +8093,15 @@
         <v>15364.913</v>
       </c>
       <c r="G257" t="n">
-        <v>146334.0059539311</v>
-      </c>
-      <c r="H257" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H257" t="inlineStr"/>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr"/>
-      <c r="L257" t="n">
-        <v>1</v>
-      </c>
-      <c r="M257" t="inlineStr"/>
+      <c r="K257" t="n">
+        <v>1</v>
+      </c>
+      <c r="L257" t="inlineStr"/>
     </row>
     <row r="258">
       <c r="A258" s="1" t="n">
@@ -8896,18 +8123,15 @@
         <v>587.581</v>
       </c>
       <c r="G258" t="n">
-        <v>146921.5869539311</v>
-      </c>
-      <c r="H258" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H258" t="inlineStr"/>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr"/>
-      <c r="L258" t="n">
-        <v>1</v>
-      </c>
-      <c r="M258" t="inlineStr"/>
+      <c r="K258" t="n">
+        <v>1</v>
+      </c>
+      <c r="L258" t="inlineStr"/>
     </row>
     <row r="259">
       <c r="A259" s="1" t="n">
@@ -8929,18 +8153,15 @@
         <v>118.2308</v>
       </c>
       <c r="G259" t="n">
-        <v>147039.8177539311</v>
-      </c>
-      <c r="H259" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H259" t="inlineStr"/>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr"/>
-      <c r="L259" t="n">
-        <v>1</v>
-      </c>
-      <c r="M259" t="inlineStr"/>
+      <c r="K259" t="n">
+        <v>1</v>
+      </c>
+      <c r="L259" t="inlineStr"/>
     </row>
     <row r="260">
       <c r="A260" s="1" t="n">
@@ -8962,18 +8183,15 @@
         <v>9002.6409</v>
       </c>
       <c r="G260" t="n">
-        <v>138037.1768539311</v>
-      </c>
-      <c r="H260" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H260" t="inlineStr"/>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr"/>
-      <c r="L260" t="n">
-        <v>1</v>
-      </c>
-      <c r="M260" t="inlineStr"/>
+      <c r="K260" t="n">
+        <v>1</v>
+      </c>
+      <c r="L260" t="inlineStr"/>
     </row>
     <row r="261">
       <c r="A261" s="1" t="n">
@@ -8995,18 +8213,15 @@
         <v>1800</v>
       </c>
       <c r="G261" t="n">
-        <v>139837.1768539311</v>
-      </c>
-      <c r="H261" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H261" t="inlineStr"/>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr"/>
-      <c r="L261" t="n">
-        <v>1</v>
-      </c>
-      <c r="M261" t="inlineStr"/>
+      <c r="K261" t="n">
+        <v>1</v>
+      </c>
+      <c r="L261" t="inlineStr"/>
     </row>
     <row r="262">
       <c r="A262" s="1" t="n">
@@ -9028,18 +8243,15 @@
         <v>1040</v>
       </c>
       <c r="G262" t="n">
-        <v>138797.1768539311</v>
-      </c>
-      <c r="H262" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H262" t="inlineStr"/>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr"/>
-      <c r="L262" t="n">
-        <v>1</v>
-      </c>
-      <c r="M262" t="inlineStr"/>
+      <c r="K262" t="n">
+        <v>1</v>
+      </c>
+      <c r="L262" t="inlineStr"/>
     </row>
     <row r="263">
       <c r="A263" s="1" t="n">
@@ -9061,18 +8273,15 @@
         <v>6614.1774</v>
       </c>
       <c r="G263" t="n">
-        <v>132182.9994539311</v>
-      </c>
-      <c r="H263" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H263" t="inlineStr"/>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr"/>
-      <c r="L263" t="n">
-        <v>1</v>
-      </c>
-      <c r="M263" t="inlineStr"/>
+      <c r="K263" t="n">
+        <v>1</v>
+      </c>
+      <c r="L263" t="inlineStr"/>
     </row>
     <row r="264">
       <c r="A264" s="1" t="n">
@@ -9094,18 +8303,15 @@
         <v>51605</v>
       </c>
       <c r="G264" t="n">
-        <v>183787.9994539311</v>
-      </c>
-      <c r="H264" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H264" t="inlineStr"/>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr"/>
-      <c r="L264" t="n">
-        <v>1</v>
-      </c>
-      <c r="M264" t="inlineStr"/>
+      <c r="K264" t="n">
+        <v>1</v>
+      </c>
+      <c r="L264" t="inlineStr"/>
     </row>
     <row r="265">
       <c r="A265" s="1" t="n">
@@ -9127,18 +8333,15 @@
         <v>10657</v>
       </c>
       <c r="G265" t="n">
-        <v>173130.9994539311</v>
-      </c>
-      <c r="H265" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H265" t="inlineStr"/>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr"/>
-      <c r="L265" t="n">
-        <v>1</v>
-      </c>
-      <c r="M265" t="inlineStr"/>
+      <c r="K265" t="n">
+        <v>1</v>
+      </c>
+      <c r="L265" t="inlineStr"/>
     </row>
     <row r="266">
       <c r="A266" s="1" t="n">
@@ -9160,18 +8363,15 @@
         <v>1679.7625</v>
       </c>
       <c r="G266" t="n">
-        <v>171451.2369539311</v>
-      </c>
-      <c r="H266" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H266" t="inlineStr"/>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr"/>
-      <c r="L266" t="n">
-        <v>1</v>
-      </c>
-      <c r="M266" t="inlineStr"/>
+      <c r="K266" t="n">
+        <v>1</v>
+      </c>
+      <c r="L266" t="inlineStr"/>
     </row>
     <row r="267">
       <c r="A267" s="1" t="n">
@@ -9193,18 +8393,15 @@
         <v>165871.8289</v>
       </c>
       <c r="G267" t="n">
-        <v>171451.2369539311</v>
-      </c>
-      <c r="H267" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H267" t="inlineStr"/>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr"/>
-      <c r="L267" t="n">
-        <v>1</v>
-      </c>
-      <c r="M267" t="inlineStr"/>
+      <c r="K267" t="n">
+        <v>1</v>
+      </c>
+      <c r="L267" t="inlineStr"/>
     </row>
     <row r="268">
       <c r="A268" s="1" t="n">
@@ -9226,18 +8423,15 @@
         <v>465.8573</v>
       </c>
       <c r="G268" t="n">
-        <v>171917.0942539311</v>
-      </c>
-      <c r="H268" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H268" t="inlineStr"/>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr"/>
-      <c r="L268" t="n">
-        <v>1</v>
-      </c>
-      <c r="M268" t="inlineStr"/>
+      <c r="K268" t="n">
+        <v>1</v>
+      </c>
+      <c r="L268" t="inlineStr"/>
     </row>
     <row r="269">
       <c r="A269" s="1" t="n">
@@ -9259,18 +8453,15 @@
         <v>1710</v>
       </c>
       <c r="G269" t="n">
-        <v>170207.0942539311</v>
-      </c>
-      <c r="H269" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H269" t="inlineStr"/>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr"/>
-      <c r="L269" t="n">
-        <v>1</v>
-      </c>
-      <c r="M269" t="inlineStr"/>
+      <c r="K269" t="n">
+        <v>1</v>
+      </c>
+      <c r="L269" t="inlineStr"/>
     </row>
     <row r="270">
       <c r="A270" s="1" t="n">
@@ -9292,18 +8483,15 @@
         <v>6606.7895</v>
       </c>
       <c r="G270" t="n">
-        <v>176813.8837539311</v>
-      </c>
-      <c r="H270" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H270" t="inlineStr"/>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr"/>
-      <c r="L270" t="n">
-        <v>1</v>
-      </c>
-      <c r="M270" t="inlineStr"/>
+      <c r="K270" t="n">
+        <v>1</v>
+      </c>
+      <c r="L270" t="inlineStr"/>
     </row>
     <row r="271">
       <c r="A271" s="1" t="n">
@@ -9325,18 +8513,15 @@
         <v>5600</v>
       </c>
       <c r="G271" t="n">
-        <v>176813.8837539311</v>
-      </c>
-      <c r="H271" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H271" t="inlineStr"/>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr"/>
-      <c r="L271" t="n">
-        <v>1</v>
-      </c>
-      <c r="M271" t="inlineStr"/>
+      <c r="K271" t="n">
+        <v>1</v>
+      </c>
+      <c r="L271" t="inlineStr"/>
     </row>
     <row r="272">
       <c r="A272" s="1" t="n">
@@ -9358,18 +8543,15 @@
         <v>464.064</v>
       </c>
       <c r="G272" t="n">
-        <v>176349.8197539311</v>
-      </c>
-      <c r="H272" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H272" t="inlineStr"/>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr"/>
-      <c r="L272" t="n">
-        <v>1</v>
-      </c>
-      <c r="M272" t="inlineStr"/>
+      <c r="K272" t="n">
+        <v>1</v>
+      </c>
+      <c r="L272" t="inlineStr"/>
     </row>
     <row r="273">
       <c r="A273" s="1" t="n">
@@ -9391,18 +8573,15 @@
         <v>26970.089</v>
       </c>
       <c r="G273" t="n">
-        <v>149379.7307539311</v>
-      </c>
-      <c r="H273" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H273" t="inlineStr"/>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr"/>
-      <c r="L273" t="n">
-        <v>1</v>
-      </c>
-      <c r="M273" t="inlineStr"/>
+      <c r="K273" t="n">
+        <v>1</v>
+      </c>
+      <c r="L273" t="inlineStr"/>
     </row>
     <row r="274">
       <c r="A274" s="1" t="n">
@@ -9424,18 +8603,15 @@
         <v>1440.1881</v>
       </c>
       <c r="G274" t="n">
-        <v>150819.9188539311</v>
-      </c>
-      <c r="H274" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H274" t="inlineStr"/>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr"/>
-      <c r="L274" t="n">
-        <v>1</v>
-      </c>
-      <c r="M274" t="inlineStr"/>
+      <c r="K274" t="n">
+        <v>1</v>
+      </c>
+      <c r="L274" t="inlineStr"/>
     </row>
     <row r="275">
       <c r="A275" s="1" t="n">
@@ -9457,18 +8633,15 @@
         <v>11103.0779</v>
       </c>
       <c r="G275" t="n">
-        <v>150819.9188539311</v>
-      </c>
-      <c r="H275" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H275" t="inlineStr"/>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr"/>
-      <c r="L275" t="n">
-        <v>1</v>
-      </c>
-      <c r="M275" t="inlineStr"/>
+      <c r="K275" t="n">
+        <v>1</v>
+      </c>
+      <c r="L275" t="inlineStr"/>
     </row>
     <row r="276">
       <c r="A276" s="1" t="n">
@@ -9490,18 +8663,15 @@
         <v>764.0127</v>
       </c>
       <c r="G276" t="n">
-        <v>151583.9315539311</v>
-      </c>
-      <c r="H276" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H276" t="inlineStr"/>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr"/>
-      <c r="L276" t="n">
-        <v>1</v>
-      </c>
-      <c r="M276" t="inlineStr"/>
+      <c r="K276" t="n">
+        <v>1</v>
+      </c>
+      <c r="L276" t="inlineStr"/>
     </row>
     <row r="277">
       <c r="A277" s="1" t="n">
@@ -9523,18 +8693,15 @@
         <v>31589.9838</v>
       </c>
       <c r="G277" t="n">
-        <v>119993.9477539311</v>
-      </c>
-      <c r="H277" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H277" t="inlineStr"/>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr"/>
-      <c r="L277" t="n">
-        <v>1</v>
-      </c>
-      <c r="M277" t="inlineStr"/>
+      <c r="K277" t="n">
+        <v>1</v>
+      </c>
+      <c r="L277" t="inlineStr"/>
     </row>
     <row r="278">
       <c r="A278" s="1" t="n">
@@ -9556,18 +8723,15 @@
         <v>200.7041</v>
       </c>
       <c r="G278" t="n">
-        <v>120194.6518539311</v>
-      </c>
-      <c r="H278" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H278" t="inlineStr"/>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr"/>
-      <c r="L278" t="n">
-        <v>1</v>
-      </c>
-      <c r="M278" t="inlineStr"/>
+      <c r="K278" t="n">
+        <v>1</v>
+      </c>
+      <c r="L278" t="inlineStr"/>
     </row>
     <row r="279">
       <c r="A279" s="1" t="n">
@@ -9589,18 +8753,15 @@
         <v>544.6339</v>
       </c>
       <c r="G279" t="n">
-        <v>119650.0179539311</v>
-      </c>
-      <c r="H279" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H279" t="inlineStr"/>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr"/>
-      <c r="L279" t="n">
-        <v>1</v>
-      </c>
-      <c r="M279" t="inlineStr"/>
+      <c r="K279" t="n">
+        <v>1</v>
+      </c>
+      <c r="L279" t="inlineStr"/>
     </row>
     <row r="280">
       <c r="A280" s="1" t="n">
@@ -9622,18 +8783,15 @@
         <v>1192.7678</v>
       </c>
       <c r="G280" t="n">
-        <v>118457.2501539311</v>
-      </c>
-      <c r="H280" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H280" t="inlineStr"/>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr"/>
-      <c r="L280" t="n">
-        <v>1</v>
-      </c>
-      <c r="M280" t="inlineStr"/>
+      <c r="K280" t="n">
+        <v>1</v>
+      </c>
+      <c r="L280" t="inlineStr"/>
     </row>
     <row r="281">
       <c r="A281" s="1" t="n">
@@ -9655,18 +8813,15 @@
         <v>1384</v>
       </c>
       <c r="G281" t="n">
-        <v>118457.2501539311</v>
-      </c>
-      <c r="H281" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H281" t="inlineStr"/>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr"/>
-      <c r="L281" t="n">
-        <v>1</v>
-      </c>
-      <c r="M281" t="inlineStr"/>
+      <c r="K281" t="n">
+        <v>1</v>
+      </c>
+      <c r="L281" t="inlineStr"/>
     </row>
     <row r="282">
       <c r="A282" s="1" t="n">
@@ -9688,18 +8843,15 @@
         <v>63459.3132</v>
       </c>
       <c r="G282" t="n">
-        <v>118457.2501539311</v>
-      </c>
-      <c r="H282" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H282" t="inlineStr"/>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr"/>
-      <c r="L282" t="n">
-        <v>1</v>
-      </c>
-      <c r="M282" t="inlineStr"/>
+      <c r="K282" t="n">
+        <v>1</v>
+      </c>
+      <c r="L282" t="inlineStr"/>
     </row>
     <row r="283">
       <c r="A283" s="1" t="n">
@@ -9721,18 +8873,15 @@
         <v>1260</v>
       </c>
       <c r="G283" t="n">
-        <v>117197.2501539311</v>
-      </c>
-      <c r="H283" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H283" t="inlineStr"/>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr"/>
-      <c r="L283" t="n">
-        <v>1</v>
-      </c>
-      <c r="M283" t="inlineStr"/>
+      <c r="K283" t="n">
+        <v>1</v>
+      </c>
+      <c r="L283" t="inlineStr"/>
     </row>
     <row r="284">
       <c r="A284" s="1" t="n">
@@ -9754,18 +8903,15 @@
         <v>1935.3473</v>
       </c>
       <c r="G284" t="n">
-        <v>115261.9028539311</v>
-      </c>
-      <c r="H284" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H284" t="inlineStr"/>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr"/>
-      <c r="L284" t="n">
-        <v>1</v>
-      </c>
-      <c r="M284" t="inlineStr"/>
+      <c r="K284" t="n">
+        <v>1</v>
+      </c>
+      <c r="L284" t="inlineStr"/>
     </row>
     <row r="285">
       <c r="A285" s="1" t="n">
@@ -9787,18 +8933,15 @@
         <v>4500</v>
       </c>
       <c r="G285" t="n">
-        <v>119761.9028539311</v>
-      </c>
-      <c r="H285" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H285" t="inlineStr"/>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr"/>
-      <c r="L285" t="n">
-        <v>1</v>
-      </c>
-      <c r="M285" t="inlineStr"/>
+      <c r="K285" t="n">
+        <v>1</v>
+      </c>
+      <c r="L285" t="inlineStr"/>
     </row>
     <row r="286">
       <c r="A286" s="1" t="n">
@@ -9820,18 +8963,15 @@
         <v>1200</v>
       </c>
       <c r="G286" t="n">
-        <v>120961.9028539311</v>
-      </c>
-      <c r="H286" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H286" t="inlineStr"/>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr"/>
-      <c r="L286" t="n">
-        <v>1</v>
-      </c>
-      <c r="M286" t="inlineStr"/>
+      <c r="K286" t="n">
+        <v>1</v>
+      </c>
+      <c r="L286" t="inlineStr"/>
     </row>
     <row r="287">
       <c r="A287" s="1" t="n">
@@ -9853,18 +8993,15 @@
         <v>1589.4265</v>
       </c>
       <c r="G287" t="n">
-        <v>119372.4763539311</v>
-      </c>
-      <c r="H287" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H287" t="inlineStr"/>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr"/>
-      <c r="L287" t="n">
-        <v>1</v>
-      </c>
-      <c r="M287" t="inlineStr"/>
+      <c r="K287" t="n">
+        <v>1</v>
+      </c>
+      <c r="L287" t="inlineStr"/>
     </row>
     <row r="288">
       <c r="A288" s="1" t="n">
@@ -9886,18 +9023,15 @@
         <v>671.215</v>
       </c>
       <c r="G288" t="n">
-        <v>118701.2613539311</v>
-      </c>
-      <c r="H288" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H288" t="inlineStr"/>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr"/>
-      <c r="L288" t="n">
-        <v>1</v>
-      </c>
-      <c r="M288" t="inlineStr"/>
+      <c r="K288" t="n">
+        <v>1</v>
+      </c>
+      <c r="L288" t="inlineStr"/>
     </row>
     <row r="289">
       <c r="A289" s="1" t="n">
@@ -9919,18 +9053,15 @@
         <v>24.9224</v>
       </c>
       <c r="G289" t="n">
-        <v>118701.2613539311</v>
-      </c>
-      <c r="H289" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H289" t="inlineStr"/>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr"/>
-      <c r="L289" t="n">
-        <v>1</v>
-      </c>
-      <c r="M289" t="inlineStr"/>
+      <c r="K289" t="n">
+        <v>1</v>
+      </c>
+      <c r="L289" t="inlineStr"/>
     </row>
     <row r="290">
       <c r="A290" s="1" t="n">
@@ -9952,18 +9083,15 @@
         <v>63428.4224</v>
       </c>
       <c r="G290" t="n">
-        <v>55272.83895393112</v>
-      </c>
-      <c r="H290" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H290" t="inlineStr"/>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr"/>
-      <c r="L290" t="n">
-        <v>1</v>
-      </c>
-      <c r="M290" t="inlineStr"/>
+      <c r="K290" t="n">
+        <v>1</v>
+      </c>
+      <c r="L290" t="inlineStr"/>
     </row>
     <row r="291">
       <c r="A291" s="1" t="n">
@@ -9985,18 +9113,15 @@
         <v>24.9223</v>
       </c>
       <c r="G291" t="n">
-        <v>55297.76125393112</v>
-      </c>
-      <c r="H291" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H291" t="inlineStr"/>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr"/>
-      <c r="L291" t="n">
-        <v>1</v>
-      </c>
-      <c r="M291" t="inlineStr"/>
+      <c r="K291" t="n">
+        <v>1</v>
+      </c>
+      <c r="L291" t="inlineStr"/>
     </row>
     <row r="292">
       <c r="A292" s="1" t="n">
@@ -10018,18 +9143,15 @@
         <v>10623.3495</v>
       </c>
       <c r="G292" t="n">
-        <v>44674.41175393113</v>
-      </c>
-      <c r="H292" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H292" t="inlineStr"/>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr"/>
-      <c r="L292" t="n">
-        <v>1</v>
-      </c>
-      <c r="M292" t="inlineStr"/>
+      <c r="K292" t="n">
+        <v>1</v>
+      </c>
+      <c r="L292" t="inlineStr"/>
     </row>
     <row r="293">
       <c r="A293" s="1" t="n">
@@ -10051,18 +9173,15 @@
         <v>3441.9886</v>
       </c>
       <c r="G293" t="n">
-        <v>48116.40035393112</v>
-      </c>
-      <c r="H293" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H293" t="inlineStr"/>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr"/>
-      <c r="L293" t="n">
-        <v>1</v>
-      </c>
-      <c r="M293" t="inlineStr"/>
+      <c r="K293" t="n">
+        <v>1</v>
+      </c>
+      <c r="L293" t="inlineStr"/>
     </row>
     <row r="294">
       <c r="A294" s="1" t="n">
@@ -10084,18 +9203,15 @@
         <v>2240.7478</v>
       </c>
       <c r="G294" t="n">
-        <v>50357.14815393112</v>
-      </c>
-      <c r="H294" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H294" t="inlineStr"/>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr"/>
-      <c r="L294" t="n">
-        <v>1</v>
-      </c>
-      <c r="M294" t="inlineStr"/>
+      <c r="K294" t="n">
+        <v>1</v>
+      </c>
+      <c r="L294" t="inlineStr"/>
     </row>
     <row r="295">
       <c r="A295" s="1" t="n">
@@ -10117,18 +9233,15 @@
         <v>23622.4635</v>
       </c>
       <c r="G295" t="n">
-        <v>26734.68465393112</v>
-      </c>
-      <c r="H295" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H295" t="inlineStr"/>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr"/>
-      <c r="L295" t="n">
-        <v>1</v>
-      </c>
-      <c r="M295" t="inlineStr"/>
+      <c r="K295" t="n">
+        <v>1</v>
+      </c>
+      <c r="L295" t="inlineStr"/>
     </row>
     <row r="296">
       <c r="A296" s="1" t="n">
@@ -10150,18 +9263,15 @@
         <v>336.2303</v>
       </c>
       <c r="G296" t="n">
-        <v>27070.91495393112</v>
-      </c>
-      <c r="H296" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H296" t="inlineStr"/>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr"/>
-      <c r="L296" t="n">
-        <v>1</v>
-      </c>
-      <c r="M296" t="inlineStr"/>
+      <c r="K296" t="n">
+        <v>1</v>
+      </c>
+      <c r="L296" t="inlineStr"/>
     </row>
     <row r="297">
       <c r="A297" s="1" t="n">
@@ -10183,18 +9293,15 @@
         <v>2520</v>
       </c>
       <c r="G297" t="n">
-        <v>29590.91495393112</v>
-      </c>
-      <c r="H297" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H297" t="inlineStr"/>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr"/>
-      <c r="L297" t="n">
-        <v>1</v>
-      </c>
-      <c r="M297" t="inlineStr"/>
+      <c r="K297" t="n">
+        <v>1</v>
+      </c>
+      <c r="L297" t="inlineStr"/>
     </row>
     <row r="298">
       <c r="A298" s="1" t="n">
@@ -10216,18 +9323,15 @@
         <v>164.6921</v>
       </c>
       <c r="G298" t="n">
-        <v>29426.22285393112</v>
-      </c>
-      <c r="H298" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H298" t="inlineStr"/>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr"/>
-      <c r="L298" t="n">
-        <v>1</v>
-      </c>
-      <c r="M298" t="inlineStr"/>
+      <c r="K298" t="n">
+        <v>1</v>
+      </c>
+      <c r="L298" t="inlineStr"/>
     </row>
     <row r="299">
       <c r="A299" s="1" t="n">
@@ -10249,18 +9353,15 @@
         <v>61.5909</v>
       </c>
       <c r="G299" t="n">
-        <v>29364.63195393112</v>
-      </c>
-      <c r="H299" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H299" t="inlineStr"/>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr"/>
-      <c r="L299" t="n">
-        <v>1</v>
-      </c>
-      <c r="M299" t="inlineStr"/>
+      <c r="K299" t="n">
+        <v>1</v>
+      </c>
+      <c r="L299" t="inlineStr"/>
     </row>
     <row r="300">
       <c r="A300" s="1" t="n">
@@ -10282,18 +9383,15 @@
         <v>36994.5934</v>
       </c>
       <c r="G300" t="n">
-        <v>-7629.961446068879</v>
-      </c>
-      <c r="H300" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H300" t="inlineStr"/>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr"/>
-      <c r="L300" t="n">
-        <v>1</v>
-      </c>
-      <c r="M300" t="inlineStr"/>
+      <c r="K300" t="n">
+        <v>1</v>
+      </c>
+      <c r="L300" t="inlineStr"/>
     </row>
     <row r="301">
       <c r="A301" s="1" t="n">
@@ -10315,18 +9413,15 @@
         <v>4130.9943</v>
       </c>
       <c r="G301" t="n">
-        <v>-3498.967146068879</v>
-      </c>
-      <c r="H301" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H301" t="inlineStr"/>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr"/>
-      <c r="L301" t="n">
-        <v>1</v>
-      </c>
-      <c r="M301" t="inlineStr"/>
+      <c r="K301" t="n">
+        <v>1</v>
+      </c>
+      <c r="L301" t="inlineStr"/>
     </row>
     <row r="302">
       <c r="A302" s="1" t="n">
@@ -10348,18 +9443,15 @@
         <v>929.2787</v>
       </c>
       <c r="G302" t="n">
-        <v>-2569.688446068879</v>
-      </c>
-      <c r="H302" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H302" t="inlineStr"/>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr"/>
-      <c r="L302" t="n">
-        <v>1</v>
-      </c>
-      <c r="M302" t="inlineStr"/>
+      <c r="K302" t="n">
+        <v>1</v>
+      </c>
+      <c r="L302" t="inlineStr"/>
     </row>
     <row r="303">
       <c r="A303" s="1" t="n">
@@ -10381,18 +9473,15 @@
         <v>4127.9453</v>
       </c>
       <c r="G303" t="n">
-        <v>-6697.633746068879</v>
-      </c>
-      <c r="H303" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H303" t="inlineStr"/>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr"/>
-      <c r="L303" t="n">
-        <v>1</v>
-      </c>
-      <c r="M303" t="inlineStr"/>
+      <c r="K303" t="n">
+        <v>1</v>
+      </c>
+      <c r="L303" t="inlineStr"/>
     </row>
     <row r="304">
       <c r="A304" s="1" t="n">
@@ -10414,18 +9503,15 @@
         <v>24622.5896</v>
       </c>
       <c r="G304" t="n">
-        <v>17924.95585393112</v>
-      </c>
-      <c r="H304" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H304" t="inlineStr"/>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr"/>
-      <c r="L304" t="n">
-        <v>1</v>
-      </c>
-      <c r="M304" t="inlineStr"/>
+      <c r="K304" t="n">
+        <v>1</v>
+      </c>
+      <c r="L304" t="inlineStr"/>
     </row>
     <row r="305">
       <c r="A305" s="1" t="n">
@@ -10447,18 +9533,15 @@
         <v>784.7455</v>
       </c>
       <c r="G305" t="n">
-        <v>17140.21035393112</v>
-      </c>
-      <c r="H305" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H305" t="inlineStr"/>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
-      <c r="K305" t="inlineStr"/>
-      <c r="L305" t="n">
-        <v>1</v>
-      </c>
-      <c r="M305" t="inlineStr"/>
+      <c r="K305" t="n">
+        <v>1</v>
+      </c>
+      <c r="L305" t="inlineStr"/>
     </row>
     <row r="306">
       <c r="A306" s="1" t="n">
@@ -10480,18 +9563,15 @@
         <v>8838.0218</v>
       </c>
       <c r="G306" t="n">
-        <v>17140.21035393112</v>
-      </c>
-      <c r="H306" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H306" t="inlineStr"/>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
-      <c r="K306" t="inlineStr"/>
-      <c r="L306" t="n">
-        <v>1</v>
-      </c>
-      <c r="M306" t="inlineStr"/>
+      <c r="K306" t="n">
+        <v>1</v>
+      </c>
+      <c r="L306" t="inlineStr"/>
     </row>
     <row r="307">
       <c r="A307" s="1" t="n">
@@ -10513,18 +9593,15 @@
         <v>745.8887999999999</v>
       </c>
       <c r="G307" t="n">
-        <v>16394.32155393112</v>
-      </c>
-      <c r="H307" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H307" t="inlineStr"/>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
-      <c r="K307" t="inlineStr"/>
-      <c r="L307" t="n">
-        <v>1</v>
-      </c>
-      <c r="M307" t="inlineStr"/>
+      <c r="K307" t="n">
+        <v>1</v>
+      </c>
+      <c r="L307" t="inlineStr"/>
     </row>
     <row r="308">
       <c r="A308" s="1" t="n">
@@ -10546,18 +9623,15 @@
         <v>9588.1322</v>
       </c>
       <c r="G308" t="n">
-        <v>6806.189353931117</v>
-      </c>
-      <c r="H308" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H308" t="inlineStr"/>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
-      <c r="K308" t="inlineStr"/>
-      <c r="L308" t="n">
-        <v>1</v>
-      </c>
-      <c r="M308" t="inlineStr"/>
+      <c r="K308" t="n">
+        <v>1</v>
+      </c>
+      <c r="L308" t="inlineStr"/>
     </row>
     <row r="309">
       <c r="A309" s="1" t="n">
@@ -10579,18 +9653,15 @@
         <v>6173.0949</v>
       </c>
       <c r="G309" t="n">
-        <v>633.0944539311167</v>
-      </c>
-      <c r="H309" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H309" t="inlineStr"/>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
-      <c r="K309" t="inlineStr"/>
-      <c r="L309" t="n">
-        <v>1</v>
-      </c>
-      <c r="M309" t="inlineStr"/>
+      <c r="K309" t="n">
+        <v>1</v>
+      </c>
+      <c r="L309" t="inlineStr"/>
     </row>
     <row r="310">
       <c r="A310" s="1" t="n">
@@ -10612,18 +9683,15 @@
         <v>65573.2668</v>
       </c>
       <c r="G310" t="n">
-        <v>-64940.17234606888</v>
-      </c>
-      <c r="H310" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H310" t="inlineStr"/>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
-      <c r="K310" t="inlineStr"/>
-      <c r="L310" t="n">
-        <v>1</v>
-      </c>
-      <c r="M310" t="inlineStr"/>
+      <c r="K310" t="n">
+        <v>1</v>
+      </c>
+      <c r="L310" t="inlineStr"/>
     </row>
     <row r="311">
       <c r="A311" s="1" t="n">
@@ -10645,18 +9713,15 @@
         <v>36.4769</v>
       </c>
       <c r="G311" t="n">
-        <v>-64976.64924606888</v>
-      </c>
-      <c r="H311" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H311" t="inlineStr"/>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
-      <c r="K311" t="inlineStr"/>
-      <c r="L311" t="n">
-        <v>1</v>
-      </c>
-      <c r="M311" t="inlineStr"/>
+      <c r="K311" t="n">
+        <v>1</v>
+      </c>
+      <c r="L311" t="inlineStr"/>
     </row>
     <row r="312">
       <c r="A312" s="1" t="n">
@@ -10678,18 +9743,15 @@
         <v>3586</v>
       </c>
       <c r="G312" t="n">
-        <v>-64976.64924606888</v>
-      </c>
-      <c r="H312" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H312" t="inlineStr"/>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
-      <c r="K312" t="inlineStr"/>
-      <c r="L312" t="n">
-        <v>1</v>
-      </c>
-      <c r="M312" t="inlineStr"/>
+      <c r="K312" t="n">
+        <v>1</v>
+      </c>
+      <c r="L312" t="inlineStr"/>
     </row>
     <row r="313">
       <c r="A313" s="1" t="n">
@@ -10711,18 +9773,15 @@
         <v>35500</v>
       </c>
       <c r="G313" t="n">
-        <v>-100476.6492460689</v>
-      </c>
-      <c r="H313" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H313" t="inlineStr"/>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
-      <c r="K313" t="inlineStr"/>
-      <c r="L313" t="n">
-        <v>1</v>
-      </c>
-      <c r="M313" t="inlineStr"/>
+      <c r="K313" t="n">
+        <v>1</v>
+      </c>
+      <c r="L313" t="inlineStr"/>
     </row>
     <row r="314">
       <c r="A314" s="1" t="n">
@@ -10744,18 +9803,15 @@
         <v>2864.8593</v>
       </c>
       <c r="G314" t="n">
-        <v>-103341.5085460689</v>
-      </c>
-      <c r="H314" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H314" t="inlineStr"/>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
-      <c r="K314" t="inlineStr"/>
-      <c r="L314" t="n">
-        <v>1</v>
-      </c>
-      <c r="M314" t="inlineStr"/>
+      <c r="K314" t="n">
+        <v>1</v>
+      </c>
+      <c r="L314" t="inlineStr"/>
     </row>
     <row r="315">
       <c r="A315" s="1" t="n">
@@ -10777,18 +9833,15 @@
         <v>1373</v>
       </c>
       <c r="G315" t="n">
-        <v>-104714.5085460689</v>
-      </c>
-      <c r="H315" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H315" t="inlineStr"/>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
-      <c r="K315" t="inlineStr"/>
-      <c r="L315" t="n">
-        <v>1</v>
-      </c>
-      <c r="M315" t="inlineStr"/>
+      <c r="K315" t="n">
+        <v>1</v>
+      </c>
+      <c r="L315" t="inlineStr"/>
     </row>
     <row r="316">
       <c r="A316" s="1" t="n">
@@ -10810,18 +9863,15 @@
         <v>2313.864</v>
       </c>
       <c r="G316" t="n">
-        <v>-102400.6445460689</v>
-      </c>
-      <c r="H316" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H316" t="inlineStr"/>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
-      <c r="K316" t="inlineStr"/>
-      <c r="L316" t="n">
-        <v>1</v>
-      </c>
-      <c r="M316" t="inlineStr"/>
+      <c r="K316" t="n">
+        <v>1</v>
+      </c>
+      <c r="L316" t="inlineStr"/>
     </row>
     <row r="317">
       <c r="A317" s="1" t="n">
@@ -10843,18 +9893,15 @@
         <v>33.8459</v>
       </c>
       <c r="G317" t="n">
-        <v>-102434.4904460689</v>
-      </c>
-      <c r="H317" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H317" t="inlineStr"/>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
-      <c r="K317" t="inlineStr"/>
-      <c r="L317" t="n">
-        <v>1</v>
-      </c>
-      <c r="M317" t="inlineStr"/>
+      <c r="K317" t="n">
+        <v>1</v>
+      </c>
+      <c r="L317" t="inlineStr"/>
     </row>
     <row r="318">
       <c r="A318" s="1" t="n">
@@ -10876,18 +9923,15 @@
         <v>9523.7174</v>
       </c>
       <c r="G318" t="n">
-        <v>-92910.77304606888</v>
-      </c>
-      <c r="H318" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H318" t="inlineStr"/>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
-      <c r="K318" t="inlineStr"/>
-      <c r="L318" t="n">
-        <v>1</v>
-      </c>
-      <c r="M318" t="inlineStr"/>
+      <c r="K318" t="n">
+        <v>1</v>
+      </c>
+      <c r="L318" t="inlineStr"/>
     </row>
     <row r="319">
       <c r="A319" s="1" t="n">
@@ -10909,18 +9953,15 @@
         <v>662.4145</v>
       </c>
       <c r="G319" t="n">
-        <v>-93573.18754606888</v>
-      </c>
-      <c r="H319" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H319" t="inlineStr"/>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
-      <c r="K319" t="inlineStr"/>
-      <c r="L319" t="n">
-        <v>1</v>
-      </c>
-      <c r="M319" t="inlineStr"/>
+      <c r="K319" t="n">
+        <v>1</v>
+      </c>
+      <c r="L319" t="inlineStr"/>
     </row>
     <row r="320">
       <c r="A320" s="1" t="n">
@@ -10942,18 +9983,15 @@
         <v>9563.3078</v>
       </c>
       <c r="G320" t="n">
-        <v>-93573.18754606888</v>
-      </c>
-      <c r="H320" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H320" t="inlineStr"/>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
-      <c r="K320" t="inlineStr"/>
-      <c r="L320" t="n">
-        <v>1</v>
-      </c>
-      <c r="M320" t="inlineStr"/>
+      <c r="K320" t="n">
+        <v>1</v>
+      </c>
+      <c r="L320" t="inlineStr"/>
     </row>
     <row r="321">
       <c r="A321" s="1" t="n">
@@ -10975,18 +10013,15 @@
         <v>14866.0271</v>
       </c>
       <c r="G321" t="n">
-        <v>-108439.2146460689</v>
-      </c>
-      <c r="H321" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H321" t="inlineStr"/>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
-      <c r="K321" t="inlineStr"/>
-      <c r="L321" t="n">
-        <v>1</v>
-      </c>
-      <c r="M321" t="inlineStr"/>
+      <c r="K321" t="n">
+        <v>1</v>
+      </c>
+      <c r="L321" t="inlineStr"/>
     </row>
     <row r="322">
       <c r="A322" s="1" t="n">
@@ -11008,18 +10043,15 @@
         <v>2530</v>
       </c>
       <c r="G322" t="n">
-        <v>-105909.2146460689</v>
-      </c>
-      <c r="H322" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H322" t="inlineStr"/>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
-      <c r="K322" t="inlineStr"/>
-      <c r="L322" t="n">
-        <v>1</v>
-      </c>
-      <c r="M322" t="inlineStr"/>
+      <c r="K322" t="n">
+        <v>1</v>
+      </c>
+      <c r="L322" t="inlineStr"/>
     </row>
     <row r="323">
       <c r="A323" s="1" t="n">
@@ -11041,18 +10073,15 @@
         <v>213701.5247</v>
       </c>
       <c r="G323" t="n">
-        <v>-319610.7393460689</v>
-      </c>
-      <c r="H323" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H323" t="inlineStr"/>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
-      <c r="K323" t="inlineStr"/>
-      <c r="L323" t="n">
-        <v>1</v>
-      </c>
-      <c r="M323" t="inlineStr"/>
+      <c r="K323" t="n">
+        <v>1</v>
+      </c>
+      <c r="L323" t="inlineStr"/>
     </row>
     <row r="324">
       <c r="A324" s="1" t="n">
@@ -11074,18 +10103,15 @@
         <v>53200</v>
       </c>
       <c r="G324" t="n">
-        <v>-266410.7393460689</v>
-      </c>
-      <c r="H324" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H324" t="inlineStr"/>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
-      <c r="K324" t="inlineStr"/>
-      <c r="L324" t="n">
-        <v>1</v>
-      </c>
-      <c r="M324" t="inlineStr"/>
+      <c r="K324" t="n">
+        <v>1</v>
+      </c>
+      <c r="L324" t="inlineStr"/>
     </row>
     <row r="325">
       <c r="A325" s="1" t="n">
@@ -11107,18 +10133,15 @@
         <v>8107.2601</v>
       </c>
       <c r="G325" t="n">
-        <v>-274517.9994460689</v>
-      </c>
-      <c r="H325" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H325" t="inlineStr"/>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
-      <c r="K325" t="inlineStr"/>
-      <c r="L325" t="n">
-        <v>1</v>
-      </c>
-      <c r="M325" t="inlineStr"/>
+      <c r="K325" t="n">
+        <v>1</v>
+      </c>
+      <c r="L325" t="inlineStr"/>
     </row>
     <row r="326">
       <c r="A326" s="1" t="n">
@@ -11140,18 +10163,15 @@
         <v>13130.1938</v>
       </c>
       <c r="G326" t="n">
-        <v>-261387.8056460689</v>
-      </c>
-      <c r="H326" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H326" t="inlineStr"/>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
-      <c r="K326" t="inlineStr"/>
-      <c r="L326" t="n">
-        <v>1</v>
-      </c>
-      <c r="M326" t="inlineStr"/>
+      <c r="K326" t="n">
+        <v>1</v>
+      </c>
+      <c r="L326" t="inlineStr"/>
     </row>
     <row r="327">
       <c r="A327" s="1" t="n">
@@ -11173,18 +10193,15 @@
         <v>721.8365</v>
       </c>
       <c r="G327" t="n">
-        <v>-262109.6421460689</v>
-      </c>
-      <c r="H327" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H327" t="inlineStr"/>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
-      <c r="K327" t="inlineStr"/>
-      <c r="L327" t="n">
-        <v>1</v>
-      </c>
-      <c r="M327" t="inlineStr"/>
+      <c r="K327" t="n">
+        <v>1</v>
+      </c>
+      <c r="L327" t="inlineStr"/>
     </row>
     <row r="328">
       <c r="A328" s="1" t="n">
@@ -11206,18 +10223,15 @@
         <v>860.258</v>
       </c>
       <c r="G328" t="n">
-        <v>-261249.3841460689</v>
-      </c>
-      <c r="H328" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H328" t="inlineStr"/>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
-      <c r="K328" t="inlineStr"/>
-      <c r="L328" t="n">
-        <v>1</v>
-      </c>
-      <c r="M328" t="inlineStr"/>
+      <c r="K328" t="n">
+        <v>1</v>
+      </c>
+      <c r="L328" t="inlineStr"/>
     </row>
     <row r="329">
       <c r="A329" s="1" t="n">
@@ -11239,18 +10253,15 @@
         <v>700.662</v>
       </c>
       <c r="G329" t="n">
-        <v>-261950.0461460689</v>
-      </c>
-      <c r="H329" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H329" t="inlineStr"/>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
-      <c r="K329" t="inlineStr"/>
-      <c r="L329" t="n">
-        <v>1</v>
-      </c>
-      <c r="M329" t="inlineStr"/>
+      <c r="K329" t="n">
+        <v>1</v>
+      </c>
+      <c r="L329" t="inlineStr"/>
     </row>
     <row r="330">
       <c r="A330" s="1" t="n">
@@ -11272,18 +10283,15 @@
         <v>1372.9999</v>
       </c>
       <c r="G330" t="n">
-        <v>-260577.0462460689</v>
-      </c>
-      <c r="H330" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H330" t="inlineStr"/>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
-      <c r="K330" t="inlineStr"/>
-      <c r="L330" t="n">
-        <v>1</v>
-      </c>
-      <c r="M330" t="inlineStr"/>
+      <c r="K330" t="n">
+        <v>1</v>
+      </c>
+      <c r="L330" t="inlineStr"/>
     </row>
     <row r="331">
       <c r="A331" s="1" t="n">
@@ -11305,18 +10313,15 @@
         <v>37812.1991</v>
       </c>
       <c r="G331" t="n">
-        <v>-222764.8471460689</v>
-      </c>
-      <c r="H331" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H331" t="inlineStr"/>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
-      <c r="K331" t="inlineStr"/>
-      <c r="L331" t="n">
-        <v>1</v>
-      </c>
-      <c r="M331" t="inlineStr"/>
+      <c r="K331" t="n">
+        <v>1</v>
+      </c>
+      <c r="L331" t="inlineStr"/>
     </row>
     <row r="332">
       <c r="A332" s="1" t="n">
@@ -11338,18 +10343,15 @@
         <v>1373</v>
       </c>
       <c r="G332" t="n">
-        <v>-222764.8471460689</v>
-      </c>
-      <c r="H332" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H332" t="inlineStr"/>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
-      <c r="K332" t="inlineStr"/>
-      <c r="L332" t="n">
-        <v>1</v>
-      </c>
-      <c r="M332" t="inlineStr"/>
+      <c r="K332" t="n">
+        <v>1</v>
+      </c>
+      <c r="L332" t="inlineStr"/>
     </row>
     <row r="333">
       <c r="A333" s="1" t="n">
@@ -11371,18 +10373,15 @@
         <v>1372.9999</v>
       </c>
       <c r="G333" t="n">
-        <v>-222764.8471460689</v>
-      </c>
-      <c r="H333" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H333" t="inlineStr"/>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
-      <c r="K333" t="inlineStr"/>
-      <c r="L333" t="n">
-        <v>1</v>
-      </c>
-      <c r="M333" t="inlineStr"/>
+      <c r="K333" t="n">
+        <v>1</v>
+      </c>
+      <c r="L333" t="inlineStr"/>
     </row>
     <row r="334">
       <c r="A334" s="1" t="n">
@@ -11404,18 +10403,15 @@
         <v>5173</v>
       </c>
       <c r="G334" t="n">
-        <v>-217591.8471460689</v>
-      </c>
-      <c r="H334" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H334" t="inlineStr"/>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
-      <c r="K334" t="inlineStr"/>
-      <c r="L334" t="n">
-        <v>1</v>
-      </c>
-      <c r="M334" t="inlineStr"/>
+      <c r="K334" t="n">
+        <v>1</v>
+      </c>
+      <c r="L334" t="inlineStr"/>
     </row>
     <row r="335">
       <c r="A335" s="1" t="n">
@@ -11437,18 +10433,15 @@
         <v>6752.6193</v>
       </c>
       <c r="G335" t="n">
-        <v>-217591.8471460689</v>
-      </c>
-      <c r="H335" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H335" t="inlineStr"/>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
-      <c r="K335" t="inlineStr"/>
-      <c r="L335" t="n">
-        <v>1</v>
-      </c>
-      <c r="M335" t="inlineStr"/>
+      <c r="K335" t="n">
+        <v>1</v>
+      </c>
+      <c r="L335" t="inlineStr"/>
     </row>
     <row r="336">
       <c r="A336" s="1" t="n">
@@ -11470,18 +10463,15 @@
         <v>2426.0148</v>
       </c>
       <c r="G336" t="n">
-        <v>-220017.8619460689</v>
-      </c>
-      <c r="H336" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H336" t="inlineStr"/>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
-      <c r="K336" t="inlineStr"/>
-      <c r="L336" t="n">
-        <v>1</v>
-      </c>
-      <c r="M336" t="inlineStr"/>
+      <c r="K336" t="n">
+        <v>1</v>
+      </c>
+      <c r="L336" t="inlineStr"/>
     </row>
     <row r="337">
       <c r="A337" s="1" t="n">
@@ -11503,18 +10493,15 @@
         <v>24728.7184</v>
       </c>
       <c r="G337" t="n">
-        <v>-195289.1435460689</v>
-      </c>
-      <c r="H337" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H337" t="inlineStr"/>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
-      <c r="K337" t="inlineStr"/>
-      <c r="L337" t="n">
-        <v>1</v>
-      </c>
-      <c r="M337" t="inlineStr"/>
+      <c r="K337" t="n">
+        <v>1</v>
+      </c>
+      <c r="L337" t="inlineStr"/>
     </row>
     <row r="338">
       <c r="A338" s="1" t="n">
@@ -11536,18 +10523,15 @@
         <v>10605.3654</v>
       </c>
       <c r="G338" t="n">
-        <v>-195289.1435460689</v>
-      </c>
-      <c r="H338" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H338" t="inlineStr"/>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
-      <c r="K338" t="inlineStr"/>
-      <c r="L338" t="n">
-        <v>1</v>
-      </c>
-      <c r="M338" t="inlineStr"/>
+      <c r="K338" t="n">
+        <v>1</v>
+      </c>
+      <c r="L338" t="inlineStr"/>
     </row>
     <row r="339">
       <c r="A339" s="1" t="n">
@@ -11569,18 +10553,15 @@
         <v>27406.1543</v>
       </c>
       <c r="G339" t="n">
-        <v>-167882.9892460689</v>
-      </c>
-      <c r="H339" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H339" t="inlineStr"/>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
-      <c r="K339" t="inlineStr"/>
-      <c r="L339" t="n">
-        <v>1</v>
-      </c>
-      <c r="M339" t="inlineStr"/>
+      <c r="K339" t="n">
+        <v>1</v>
+      </c>
+      <c r="L339" t="inlineStr"/>
     </row>
     <row r="340">
       <c r="A340" s="1" t="n">
@@ -11602,18 +10583,15 @@
         <v>441.239</v>
       </c>
       <c r="G340" t="n">
-        <v>-168324.2282460689</v>
-      </c>
-      <c r="H340" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H340" t="inlineStr"/>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
-      <c r="K340" t="inlineStr"/>
-      <c r="L340" t="n">
-        <v>1</v>
-      </c>
-      <c r="M340" t="inlineStr"/>
+      <c r="K340" t="n">
+        <v>1</v>
+      </c>
+      <c r="L340" t="inlineStr"/>
     </row>
     <row r="341">
       <c r="A341" s="1" t="n">
@@ -11635,18 +10613,15 @@
         <v>2410.1882</v>
       </c>
       <c r="G341" t="n">
-        <v>-165914.0400460689</v>
-      </c>
-      <c r="H341" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H341" t="inlineStr"/>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
-      <c r="K341" t="inlineStr"/>
-      <c r="L341" t="n">
-        <v>1</v>
-      </c>
-      <c r="M341" t="inlineStr"/>
+      <c r="K341" t="n">
+        <v>1</v>
+      </c>
+      <c r="L341" t="inlineStr"/>
     </row>
     <row r="342">
       <c r="A342" s="1" t="n">
@@ -11668,18 +10643,15 @@
         <v>8000</v>
       </c>
       <c r="G342" t="n">
-        <v>-157914.0400460689</v>
-      </c>
-      <c r="H342" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H342" t="inlineStr"/>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
-      <c r="K342" t="inlineStr"/>
-      <c r="L342" t="n">
-        <v>1</v>
-      </c>
-      <c r="M342" t="inlineStr"/>
+      <c r="K342" t="n">
+        <v>1</v>
+      </c>
+      <c r="L342" t="inlineStr"/>
     </row>
     <row r="343">
       <c r="A343" s="1" t="n">
@@ -11701,18 +10673,15 @@
         <v>20</v>
       </c>
       <c r="G343" t="n">
-        <v>-157914.0400460689</v>
-      </c>
-      <c r="H343" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H343" t="inlineStr"/>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
-      <c r="K343" t="inlineStr"/>
-      <c r="L343" t="n">
-        <v>1</v>
-      </c>
-      <c r="M343" t="inlineStr"/>
+      <c r="K343" t="n">
+        <v>1</v>
+      </c>
+      <c r="L343" t="inlineStr"/>
     </row>
     <row r="344">
       <c r="A344" s="1" t="n">
@@ -11734,18 +10703,15 @@
         <v>3957.3864</v>
       </c>
       <c r="G344" t="n">
-        <v>-153956.6536460689</v>
-      </c>
-      <c r="H344" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H344" t="inlineStr"/>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
-      <c r="K344" t="inlineStr"/>
-      <c r="L344" t="n">
-        <v>1</v>
-      </c>
-      <c r="M344" t="inlineStr"/>
+      <c r="K344" t="n">
+        <v>1</v>
+      </c>
+      <c r="L344" t="inlineStr"/>
     </row>
     <row r="345">
       <c r="A345" s="1" t="n">
@@ -11767,18 +10733,15 @@
         <v>1965</v>
       </c>
       <c r="G345" t="n">
-        <v>-151991.6536460689</v>
-      </c>
-      <c r="H345" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H345" t="inlineStr"/>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
-      <c r="K345" t="inlineStr"/>
-      <c r="L345" t="n">
-        <v>1</v>
-      </c>
-      <c r="M345" t="inlineStr"/>
+      <c r="K345" t="n">
+        <v>1</v>
+      </c>
+      <c r="L345" t="inlineStr"/>
     </row>
     <row r="346">
       <c r="A346" s="1" t="n">
@@ -11800,18 +10763,15 @@
         <v>3000</v>
       </c>
       <c r="G346" t="n">
-        <v>-148991.6536460689</v>
-      </c>
-      <c r="H346" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H346" t="inlineStr"/>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
-      <c r="K346" t="inlineStr"/>
-      <c r="L346" t="n">
-        <v>1</v>
-      </c>
-      <c r="M346" t="inlineStr"/>
+      <c r="K346" t="n">
+        <v>1</v>
+      </c>
+      <c r="L346" t="inlineStr"/>
     </row>
     <row r="347">
       <c r="A347" s="1" t="n">
@@ -11833,18 +10793,15 @@
         <v>836.3099999999999</v>
       </c>
       <c r="G347" t="n">
-        <v>-149827.9636460689</v>
-      </c>
-      <c r="H347" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H347" t="inlineStr"/>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
-      <c r="K347" t="inlineStr"/>
-      <c r="L347" t="n">
-        <v>1</v>
-      </c>
-      <c r="M347" t="inlineStr"/>
+      <c r="K347" t="n">
+        <v>1</v>
+      </c>
+      <c r="L347" t="inlineStr"/>
     </row>
     <row r="348">
       <c r="A348" s="1" t="n">
@@ -11866,18 +10823,15 @@
         <v>9100</v>
       </c>
       <c r="G348" t="n">
-        <v>-149827.9636460689</v>
-      </c>
-      <c r="H348" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H348" t="inlineStr"/>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
-      <c r="K348" t="inlineStr"/>
-      <c r="L348" t="n">
-        <v>1</v>
-      </c>
-      <c r="M348" t="inlineStr"/>
+      <c r="K348" t="n">
+        <v>1</v>
+      </c>
+      <c r="L348" t="inlineStr"/>
     </row>
     <row r="349">
       <c r="A349" s="1" t="n">
@@ -11899,18 +10853,15 @@
         <v>28630.3651</v>
       </c>
       <c r="G349" t="n">
-        <v>-149827.9636460689</v>
-      </c>
-      <c r="H349" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H349" t="inlineStr"/>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
-      <c r="K349" t="inlineStr"/>
-      <c r="L349" t="n">
-        <v>1</v>
-      </c>
-      <c r="M349" t="inlineStr"/>
+      <c r="K349" t="n">
+        <v>1</v>
+      </c>
+      <c r="L349" t="inlineStr"/>
     </row>
     <row r="350">
       <c r="A350" s="1" t="n">
@@ -11932,18 +10883,15 @@
         <v>12</v>
       </c>
       <c r="G350" t="n">
-        <v>-149839.9636460689</v>
-      </c>
-      <c r="H350" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H350" t="inlineStr"/>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
-      <c r="K350" t="inlineStr"/>
-      <c r="L350" t="n">
-        <v>1</v>
-      </c>
-      <c r="M350" t="inlineStr"/>
+      <c r="K350" t="n">
+        <v>1</v>
+      </c>
+      <c r="L350" t="inlineStr"/>
     </row>
     <row r="351">
       <c r="A351" s="1" t="n">
@@ -11965,18 +10913,15 @@
         <v>11800</v>
       </c>
       <c r="G351" t="n">
-        <v>-161639.9636460689</v>
-      </c>
-      <c r="H351" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H351" t="inlineStr"/>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
-      <c r="K351" t="inlineStr"/>
-      <c r="L351" t="n">
-        <v>1</v>
-      </c>
-      <c r="M351" t="inlineStr"/>
+      <c r="K351" t="n">
+        <v>1</v>
+      </c>
+      <c r="L351" t="inlineStr"/>
     </row>
     <row r="352">
       <c r="A352" s="1" t="n">
@@ -11998,18 +10943,15 @@
         <v>4500</v>
       </c>
       <c r="G352" t="n">
-        <v>-157139.9636460689</v>
-      </c>
-      <c r="H352" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H352" t="inlineStr"/>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
-      <c r="K352" t="inlineStr"/>
-      <c r="L352" t="n">
-        <v>1</v>
-      </c>
-      <c r="M352" t="inlineStr"/>
+      <c r="K352" t="n">
+        <v>1</v>
+      </c>
+      <c r="L352" t="inlineStr"/>
     </row>
     <row r="353">
       <c r="A353" s="1" t="n">
@@ -12031,18 +10973,15 @@
         <v>7720</v>
       </c>
       <c r="G353" t="n">
-        <v>-164859.9636460689</v>
-      </c>
-      <c r="H353" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H353" t="inlineStr"/>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
-      <c r="K353" t="inlineStr"/>
-      <c r="L353" t="n">
-        <v>1</v>
-      </c>
-      <c r="M353" t="inlineStr"/>
+      <c r="K353" t="n">
+        <v>1</v>
+      </c>
+      <c r="L353" t="inlineStr"/>
     </row>
     <row r="354">
       <c r="A354" s="1" t="n">
@@ -12064,18 +11003,15 @@
         <v>9700</v>
       </c>
       <c r="G354" t="n">
-        <v>-174559.9636460689</v>
-      </c>
-      <c r="H354" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H354" t="inlineStr"/>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
-      <c r="K354" t="inlineStr"/>
-      <c r="L354" t="n">
-        <v>1</v>
-      </c>
-      <c r="M354" t="inlineStr"/>
+      <c r="K354" t="n">
+        <v>1</v>
+      </c>
+      <c r="L354" t="inlineStr"/>
     </row>
     <row r="355">
       <c r="A355" s="1" t="n">
@@ -12097,18 +11033,15 @@
         <v>3581.043</v>
       </c>
       <c r="G355" t="n">
-        <v>-170978.9206460689</v>
-      </c>
-      <c r="H355" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H355" t="inlineStr"/>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
-      <c r="K355" t="inlineStr"/>
-      <c r="L355" t="n">
-        <v>1</v>
-      </c>
-      <c r="M355" t="inlineStr"/>
+      <c r="K355" t="n">
+        <v>1</v>
+      </c>
+      <c r="L355" t="inlineStr"/>
     </row>
     <row r="356">
       <c r="A356" s="1" t="n">
@@ -12130,18 +11063,15 @@
         <v>1197.9081</v>
       </c>
       <c r="G356" t="n">
-        <v>-172176.8287460689</v>
-      </c>
-      <c r="H356" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H356" t="inlineStr"/>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
-      <c r="K356" t="inlineStr"/>
-      <c r="L356" t="n">
-        <v>1</v>
-      </c>
-      <c r="M356" t="inlineStr"/>
+      <c r="K356" t="n">
+        <v>1</v>
+      </c>
+      <c r="L356" t="inlineStr"/>
     </row>
     <row r="357">
       <c r="A357" s="1" t="n">
@@ -12163,22 +11093,15 @@
         <v>2447</v>
       </c>
       <c r="G357" t="n">
-        <v>-169729.8287460689</v>
-      </c>
-      <c r="H357" t="n">
-        <v>1</v>
-      </c>
-      <c r="I357" t="n">
-        <v>42.01</v>
-      </c>
-      <c r="J357" t="n">
-        <v>42.01</v>
-      </c>
-      <c r="K357" t="inlineStr"/>
-      <c r="L357" t="n">
-        <v>1</v>
-      </c>
-      <c r="M357" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H357" t="inlineStr"/>
+      <c r="I357" t="inlineStr"/>
+      <c r="J357" t="inlineStr"/>
+      <c r="K357" t="n">
+        <v>1</v>
+      </c>
+      <c r="L357" t="inlineStr"/>
     </row>
     <row r="358">
       <c r="A358" s="1" t="n">
@@ -12200,26 +11123,19 @@
         <v>1706.7038</v>
       </c>
       <c r="G358" t="n">
-        <v>-171436.5325460689</v>
+        <v>1</v>
       </c>
       <c r="H358" t="n">
-        <v>1</v>
+        <v>42.5</v>
       </c>
       <c r="I358" t="n">
         <v>42.5</v>
       </c>
-      <c r="J358" t="n">
-        <v>42.01</v>
-      </c>
-      <c r="K358" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L358" t="n">
-        <v>1</v>
-      </c>
-      <c r="M358" t="inlineStr"/>
+      <c r="J358" t="inlineStr"/>
+      <c r="K358" t="n">
+        <v>1</v>
+      </c>
+      <c r="L358" t="inlineStr"/>
     </row>
     <row r="359">
       <c r="A359" s="1" t="n">
@@ -12241,26 +11157,23 @@
         <v>1000</v>
       </c>
       <c r="G359" t="n">
-        <v>-170436.5325460689</v>
+        <v>1</v>
       </c>
       <c r="H359" t="n">
-        <v>1</v>
+        <v>42.04</v>
       </c>
       <c r="I359" t="n">
-        <v>42.04</v>
-      </c>
-      <c r="J359" t="n">
-        <v>42.01</v>
-      </c>
-      <c r="K359" t="inlineStr">
+        <v>42.5</v>
+      </c>
+      <c r="J359" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
-      <c r="L359" t="n">
-        <v>1</v>
-      </c>
-      <c r="M359" t="inlineStr"/>
+      <c r="K359" t="n">
+        <v>1</v>
+      </c>
+      <c r="L359" t="inlineStr"/>
     </row>
     <row r="360">
       <c r="A360" s="1" t="n">
@@ -12282,26 +11195,23 @@
         <v>17646</v>
       </c>
       <c r="G360" t="n">
-        <v>-188082.5325460689</v>
+        <v>1</v>
       </c>
       <c r="H360" t="n">
-        <v>1</v>
+        <v>43.08</v>
       </c>
       <c r="I360" t="n">
-        <v>43.08</v>
-      </c>
-      <c r="J360" t="n">
-        <v>42.01</v>
-      </c>
-      <c r="K360" t="inlineStr">
+        <v>42.5</v>
+      </c>
+      <c r="J360" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="L360" t="n">
-        <v>1</v>
-      </c>
-      <c r="M360" t="inlineStr"/>
+      <c r="K360" t="n">
+        <v>1</v>
+      </c>
+      <c r="L360" t="inlineStr"/>
     </row>
     <row r="361">
       <c r="A361" s="1" t="n">
@@ -12323,26 +11233,23 @@
         <v>4500</v>
       </c>
       <c r="G361" t="n">
-        <v>-183582.5325460689</v>
+        <v>1</v>
       </c>
       <c r="H361" t="n">
-        <v>1</v>
+        <v>42.69</v>
       </c>
       <c r="I361" t="n">
-        <v>42.69</v>
-      </c>
-      <c r="J361" t="n">
-        <v>42.01</v>
-      </c>
-      <c r="K361" t="inlineStr">
+        <v>42.5</v>
+      </c>
+      <c r="J361" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L361" t="n">
-        <v>1</v>
-      </c>
-      <c r="M361" t="inlineStr"/>
+      <c r="K361" t="n">
+        <v>1</v>
+      </c>
+      <c r="L361" t="inlineStr"/>
     </row>
     <row r="362">
       <c r="A362" s="1" t="n">
@@ -12364,26 +11271,23 @@
         <v>1387.37</v>
       </c>
       <c r="G362" t="n">
-        <v>-183582.5325460689</v>
+        <v>1</v>
       </c>
       <c r="H362" t="n">
-        <v>1</v>
+        <v>42.7</v>
       </c>
       <c r="I362" t="n">
-        <v>42.7</v>
-      </c>
-      <c r="J362" t="n">
-        <v>42.01</v>
-      </c>
-      <c r="K362" t="inlineStr">
+        <v>42.5</v>
+      </c>
+      <c r="J362" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L362" t="n">
-        <v>1</v>
-      </c>
-      <c r="M362" t="inlineStr"/>
+      <c r="K362" t="n">
+        <v>1</v>
+      </c>
+      <c r="L362" t="inlineStr"/>
     </row>
     <row r="363">
       <c r="A363" s="1" t="n">
@@ -12405,26 +11309,23 @@
         <v>30069.2959</v>
       </c>
       <c r="G363" t="n">
-        <v>-153513.2366460689</v>
+        <v>1</v>
       </c>
       <c r="H363" t="n">
-        <v>1</v>
+        <v>42.7</v>
       </c>
       <c r="I363" t="n">
-        <v>42.7</v>
-      </c>
-      <c r="J363" t="n">
-        <v>42.01</v>
-      </c>
-      <c r="K363" t="inlineStr">
+        <v>42.5</v>
+      </c>
+      <c r="J363" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L363" t="n">
-        <v>1</v>
-      </c>
-      <c r="M363" t="inlineStr"/>
+      <c r="K363" t="n">
+        <v>1</v>
+      </c>
+      <c r="L363" t="inlineStr"/>
     </row>
     <row r="364">
       <c r="A364" s="1" t="n">
@@ -12446,26 +11347,23 @@
         <v>1000</v>
       </c>
       <c r="G364" t="n">
-        <v>-154513.2366460689</v>
+        <v>1</v>
       </c>
       <c r="H364" t="n">
-        <v>1</v>
+        <v>43.07</v>
       </c>
       <c r="I364" t="n">
-        <v>43.07</v>
-      </c>
-      <c r="J364" t="n">
-        <v>42.01</v>
-      </c>
-      <c r="K364" t="inlineStr">
+        <v>42.5</v>
+      </c>
+      <c r="J364" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L364" t="n">
-        <v>1</v>
-      </c>
-      <c r="M364" t="inlineStr"/>
+      <c r="K364" t="n">
+        <v>1</v>
+      </c>
+      <c r="L364" t="inlineStr"/>
     </row>
     <row r="365">
       <c r="A365" s="1" t="n">
@@ -12487,26 +11385,23 @@
         <v>3610</v>
       </c>
       <c r="G365" t="n">
-        <v>-150903.2366460689</v>
+        <v>1</v>
       </c>
       <c r="H365" t="n">
-        <v>1</v>
+        <v>42.88</v>
       </c>
       <c r="I365" t="n">
-        <v>42.88</v>
-      </c>
-      <c r="J365" t="n">
-        <v>42.01</v>
-      </c>
-      <c r="K365" t="inlineStr">
+        <v>42.5</v>
+      </c>
+      <c r="J365" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L365" t="n">
-        <v>1</v>
-      </c>
-      <c r="M365" t="inlineStr"/>
+      <c r="K365" t="n">
+        <v>1</v>
+      </c>
+      <c r="L365" t="inlineStr"/>
     </row>
     <row r="366">
       <c r="A366" s="1" t="n">
@@ -12528,26 +11423,23 @@
         <v>1610</v>
       </c>
       <c r="G366" t="n">
-        <v>-152513.2366460689</v>
+        <v>1</v>
       </c>
       <c r="H366" t="n">
-        <v>1</v>
+        <v>43.06</v>
       </c>
       <c r="I366" t="n">
-        <v>43.06</v>
-      </c>
-      <c r="J366" t="n">
-        <v>42.01</v>
-      </c>
-      <c r="K366" t="inlineStr">
+        <v>42.5</v>
+      </c>
+      <c r="J366" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L366" t="n">
-        <v>1</v>
-      </c>
-      <c r="M366" t="inlineStr"/>
+      <c r="K366" t="n">
+        <v>1</v>
+      </c>
+      <c r="L366" t="inlineStr"/>
     </row>
     <row r="367">
       <c r="A367" s="1" t="n">
@@ -12569,26 +11461,21 @@
         <v>16711.565</v>
       </c>
       <c r="G367" t="n">
-        <v>-169224.8016460689</v>
-      </c>
-      <c r="H367" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H367" t="inlineStr"/>
       <c r="I367" t="n">
-        <v>42.74</v>
-      </c>
-      <c r="J367" t="n">
-        <v>42.01</v>
-      </c>
-      <c r="K367" t="inlineStr">
+        <v>42.5</v>
+      </c>
+      <c r="J367" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L367" t="n">
-        <v>1</v>
-      </c>
-      <c r="M367" t="inlineStr"/>
+      <c r="K367" t="n">
+        <v>1</v>
+      </c>
+      <c r="L367" t="inlineStr"/>
     </row>
     <row r="368">
       <c r="A368" s="1" t="n">
@@ -12610,26 +11497,21 @@
         <v>87</v>
       </c>
       <c r="G368" t="n">
-        <v>-169137.8016460689</v>
-      </c>
-      <c r="H368" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H368" t="inlineStr"/>
       <c r="I368" t="n">
         <v>42.5</v>
       </c>
-      <c r="J368" t="n">
-        <v>42.01</v>
-      </c>
-      <c r="K368" t="inlineStr">
+      <c r="J368" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L368" t="n">
-        <v>1</v>
-      </c>
-      <c r="M368" t="inlineStr"/>
+      <c r="K368" t="n">
+        <v>1</v>
+      </c>
+      <c r="L368" t="inlineStr"/>
     </row>
     <row r="369">
       <c r="A369" s="1" t="n">
@@ -12651,26 +11533,21 @@
         <v>246.2885</v>
       </c>
       <c r="G369" t="n">
-        <v>-169137.8016460689</v>
-      </c>
-      <c r="H369" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H369" t="inlineStr"/>
       <c r="I369" t="n">
-        <v>42.6</v>
-      </c>
-      <c r="J369" t="n">
-        <v>42.01</v>
-      </c>
-      <c r="K369" t="inlineStr">
+        <v>42.5</v>
+      </c>
+      <c r="J369" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L369" t="n">
-        <v>1</v>
-      </c>
-      <c r="M369" t="inlineStr"/>
+      <c r="K369" t="n">
+        <v>1</v>
+      </c>
+      <c r="L369" t="inlineStr"/>
     </row>
     <row r="370">
       <c r="A370" s="1" t="n">
@@ -12692,26 +11569,23 @@
         <v>860</v>
       </c>
       <c r="G370" t="n">
-        <v>-168277.8016460689</v>
+        <v>1</v>
       </c>
       <c r="H370" t="n">
-        <v>1</v>
+        <v>42.6</v>
       </c>
       <c r="I370" t="n">
-        <v>42.6</v>
-      </c>
-      <c r="J370" t="n">
-        <v>42.01</v>
-      </c>
-      <c r="K370" t="inlineStr">
+        <v>42.5</v>
+      </c>
+      <c r="J370" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L370" t="n">
-        <v>1</v>
-      </c>
-      <c r="M370" t="inlineStr"/>
+      <c r="K370" t="n">
+        <v>1</v>
+      </c>
+      <c r="L370" t="inlineStr"/>
     </row>
     <row r="371">
       <c r="A371" s="1" t="n">
@@ -12733,26 +11607,21 @@
         <v>860</v>
       </c>
       <c r="G371" t="n">
-        <v>-167417.8016460689</v>
-      </c>
-      <c r="H371" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H371" t="inlineStr"/>
       <c r="I371" t="n">
-        <v>42.89</v>
-      </c>
-      <c r="J371" t="n">
-        <v>42.01</v>
-      </c>
-      <c r="K371" t="inlineStr">
+        <v>42.5</v>
+      </c>
+      <c r="J371" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L371" t="n">
-        <v>1</v>
-      </c>
-      <c r="M371" t="inlineStr"/>
+      <c r="K371" t="n">
+        <v>1</v>
+      </c>
+      <c r="L371" t="inlineStr"/>
     </row>
     <row r="372">
       <c r="A372" s="1" t="n">
@@ -12774,26 +11643,21 @@
         <v>400.0101</v>
       </c>
       <c r="G372" t="n">
-        <v>-167817.8117460689</v>
-      </c>
-      <c r="H372" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H372" t="inlineStr"/>
       <c r="I372" t="n">
-        <v>42.99</v>
-      </c>
-      <c r="J372" t="n">
-        <v>42.01</v>
-      </c>
-      <c r="K372" t="inlineStr">
+        <v>42.5</v>
+      </c>
+      <c r="J372" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L372" t="n">
-        <v>1</v>
-      </c>
-      <c r="M372" t="inlineStr"/>
+      <c r="K372" t="n">
+        <v>1</v>
+      </c>
+      <c r="L372" t="inlineStr"/>
     </row>
     <row r="373">
       <c r="A373" s="1" t="n">
@@ -12815,26 +11679,21 @@
         <v>48498.4267</v>
       </c>
       <c r="G373" t="n">
-        <v>-119319.3850460689</v>
-      </c>
-      <c r="H373" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H373" t="inlineStr"/>
       <c r="I373" t="n">
-        <v>42.73</v>
-      </c>
-      <c r="J373" t="n">
-        <v>42.01</v>
-      </c>
-      <c r="K373" t="inlineStr">
+        <v>42.5</v>
+      </c>
+      <c r="J373" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L373" t="n">
-        <v>1</v>
-      </c>
-      <c r="M373" t="inlineStr"/>
+      <c r="K373" t="n">
+        <v>1</v>
+      </c>
+      <c r="L373" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
